--- a/Assets/06.Table/MonthlyPass2.xlsx
+++ b/Assets/06.Table/MonthlyPass2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7C407F-52F0-4D71-B993-3DD4085099F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29A4C04-B66B-4D54-8841-E5E2F20AC47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="monthpass2" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,8 +91,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +117,11 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -119,7 +132,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -129,8 +142,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -140,8 +156,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="나쁨" xfId="3" builtinId="27"/>
     <cellStyle name="보통" xfId="1" builtinId="28"/>
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -458,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:F560"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A541" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D555" sqref="D555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -503,13 +523,13 @@
         <v>46</v>
       </c>
       <c r="D2" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E2" s="1">
         <v>46</v>
       </c>
       <c r="F2" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -523,13 +543,13 @@
         <v>73</v>
       </c>
       <c r="D3" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E3" s="1">
         <v>73</v>
       </c>
       <c r="F3" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -543,13 +563,13 @@
         <v>88</v>
       </c>
       <c r="D4" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E4" s="1">
         <v>88</v>
       </c>
       <c r="F4" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -563,17 +583,17 @@
         <v>9001</v>
       </c>
       <c r="D5" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E5" s="1">
         <v>9001</v>
       </c>
       <c r="F5" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
@@ -583,13 +603,13 @@
         <v>9008</v>
       </c>
       <c r="D6" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E6" s="2">
         <v>9008</v>
       </c>
       <c r="F6" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -603,32 +623,32 @@
         <v>9010</v>
       </c>
       <c r="D7" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E7" s="1">
         <v>9010</v>
       </c>
       <c r="F7" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>2000000</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>8605</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>1292</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>1</v>
       </c>
     </row>
@@ -643,13 +663,13 @@
         <v>46</v>
       </c>
       <c r="D9" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E9" s="1">
         <v>46</v>
       </c>
       <c r="F9" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -663,13 +683,13 @@
         <v>73</v>
       </c>
       <c r="D10" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E10" s="1">
         <v>73</v>
       </c>
       <c r="F10" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -677,19 +697,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>500000</v>
+        <v>2750000</v>
       </c>
       <c r="C11" s="1">
         <v>88</v>
       </c>
       <c r="D11" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E11" s="1">
         <v>88</v>
       </c>
       <c r="F11" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -697,19 +717,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>750000</v>
+        <v>3000000</v>
       </c>
       <c r="C12" s="1">
         <v>9001</v>
       </c>
       <c r="D12" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E12" s="1">
         <v>9001</v>
       </c>
       <c r="F12" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -717,39 +737,39 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>1000000</v>
+        <v>3250000</v>
       </c>
       <c r="C13" s="2">
         <v>9008</v>
       </c>
       <c r="D13" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E13" s="2">
         <v>9008</v>
       </c>
       <c r="F13" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>1250000</v>
+        <v>3500000</v>
       </c>
       <c r="C14" s="1">
         <v>9010</v>
       </c>
       <c r="D14" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E14" s="1">
         <v>9010</v>
       </c>
       <c r="F14" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -757,19 +777,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>1500000</v>
+        <v>3750000</v>
       </c>
       <c r="C15" s="1">
         <v>46</v>
       </c>
       <c r="D15" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E15" s="1">
         <v>46</v>
       </c>
       <c r="F15" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -777,19 +797,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>1750000</v>
+        <v>4000000</v>
       </c>
       <c r="C16" s="1">
         <v>73</v>
       </c>
       <c r="D16" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E16" s="1">
         <v>73</v>
       </c>
       <c r="F16" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -797,19 +817,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>2000000</v>
+        <v>4250000</v>
       </c>
       <c r="C17" s="1">
         <v>88</v>
       </c>
       <c r="D17" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E17" s="1">
         <v>88</v>
       </c>
       <c r="F17" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -817,19 +837,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>2250000</v>
+        <v>4500000</v>
       </c>
       <c r="C18" s="1">
         <v>9001</v>
       </c>
       <c r="D18" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E18" s="1">
         <v>9001</v>
       </c>
       <c r="F18" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -843,13 +863,13 @@
         <v>9008</v>
       </c>
       <c r="D19" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E19" s="2">
         <v>9008</v>
       </c>
       <c r="F19" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -863,13 +883,13 @@
         <v>9010</v>
       </c>
       <c r="D20" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E20" s="1">
         <v>9010</v>
       </c>
       <c r="F20" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -883,17 +903,17 @@
         <v>46</v>
       </c>
       <c r="D21" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E21" s="1">
         <v>46</v>
       </c>
       <c r="F21" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
@@ -903,13 +923,13 @@
         <v>73</v>
       </c>
       <c r="D22" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E22" s="1">
         <v>73</v>
       </c>
       <c r="F22" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -923,13 +943,13 @@
         <v>88</v>
       </c>
       <c r="D23" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E23" s="1">
         <v>88</v>
       </c>
       <c r="F23" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -943,13 +963,13 @@
         <v>9001</v>
       </c>
       <c r="D24" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E24" s="1">
         <v>9001</v>
       </c>
       <c r="F24" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -963,13 +983,13 @@
         <v>9008</v>
       </c>
       <c r="D25" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E25" s="2">
         <v>9008</v>
       </c>
       <c r="F25" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -983,13 +1003,13 @@
         <v>9010</v>
       </c>
       <c r="D26" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E26" s="1">
         <v>9010</v>
       </c>
       <c r="F26" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1003,13 +1023,13 @@
         <v>46</v>
       </c>
       <c r="D27" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E27" s="1">
         <v>46</v>
       </c>
       <c r="F27" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1023,13 +1043,13 @@
         <v>73</v>
       </c>
       <c r="D28" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E28" s="1">
         <v>73</v>
       </c>
       <c r="F28" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1043,17 +1063,17 @@
         <v>88</v>
       </c>
       <c r="D29" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E29" s="1">
         <v>88</v>
       </c>
       <c r="F29" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="1">
@@ -1063,13 +1083,13 @@
         <v>9001</v>
       </c>
       <c r="D30" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E30" s="1">
         <v>9001</v>
       </c>
       <c r="F30" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1083,13 +1103,13 @@
         <v>9008</v>
       </c>
       <c r="D31" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E31" s="2">
         <v>9008</v>
       </c>
       <c r="F31" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1103,13 +1123,13 @@
         <v>9010</v>
       </c>
       <c r="D32" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E32" s="1">
         <v>9010</v>
       </c>
       <c r="F32" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1123,13 +1143,13 @@
         <v>46</v>
       </c>
       <c r="D33" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E33" s="1">
         <v>46</v>
       </c>
       <c r="F33" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1143,13 +1163,13 @@
         <v>73</v>
       </c>
       <c r="D34" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E34" s="1">
         <v>73</v>
       </c>
       <c r="F34" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1163,13 +1183,13 @@
         <v>88</v>
       </c>
       <c r="D35" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E35" s="1">
         <v>88</v>
       </c>
       <c r="F35" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1183,13 +1203,13 @@
         <v>9001</v>
       </c>
       <c r="D36" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E36" s="1">
         <v>9001</v>
       </c>
       <c r="F36" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1203,17 +1223,17 @@
         <v>9008</v>
       </c>
       <c r="D37" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E37" s="2">
         <v>9008</v>
       </c>
       <c r="F37" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="1">
@@ -1223,13 +1243,13 @@
         <v>9010</v>
       </c>
       <c r="D38" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E38" s="1">
         <v>9010</v>
       </c>
       <c r="F38" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1243,13 +1263,13 @@
         <v>46</v>
       </c>
       <c r="D39" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E39" s="1">
         <v>46</v>
       </c>
       <c r="F39" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1263,13 +1283,13 @@
         <v>73</v>
       </c>
       <c r="D40" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E40" s="1">
         <v>73</v>
       </c>
       <c r="F40" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1283,13 +1303,13 @@
         <v>88</v>
       </c>
       <c r="D41" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E41" s="1">
         <v>88</v>
       </c>
       <c r="F41" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1303,13 +1323,13 @@
         <v>9001</v>
       </c>
       <c r="D42" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E42" s="1">
         <v>9001</v>
       </c>
       <c r="F42" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1323,13 +1343,13 @@
         <v>9008</v>
       </c>
       <c r="D43" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E43" s="2">
         <v>9008</v>
       </c>
       <c r="F43" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1343,13 +1363,13 @@
         <v>9010</v>
       </c>
       <c r="D44" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E44" s="1">
         <v>9010</v>
       </c>
       <c r="F44" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1363,17 +1383,17 @@
         <v>46</v>
       </c>
       <c r="D45" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E45" s="1">
         <v>46</v>
       </c>
       <c r="F45" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="1">
@@ -1383,13 +1403,13 @@
         <v>73</v>
       </c>
       <c r="D46" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E46" s="1">
         <v>73</v>
       </c>
       <c r="F46" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1403,13 +1423,13 @@
         <v>88</v>
       </c>
       <c r="D47" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E47" s="1">
         <v>88</v>
       </c>
       <c r="F47" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1423,13 +1443,13 @@
         <v>9001</v>
       </c>
       <c r="D48" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E48" s="1">
         <v>9001</v>
       </c>
       <c r="F48" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1443,13 +1463,13 @@
         <v>9008</v>
       </c>
       <c r="D49" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E49" s="2">
         <v>9008</v>
       </c>
       <c r="F49" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1463,13 +1483,13 @@
         <v>9010</v>
       </c>
       <c r="D50" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E50" s="1">
         <v>9010</v>
       </c>
       <c r="F50" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1483,13 +1503,13 @@
         <v>46</v>
       </c>
       <c r="D51" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E51" s="1">
         <v>46</v>
       </c>
       <c r="F51" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -1503,13 +1523,13 @@
         <v>73</v>
       </c>
       <c r="D52" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E52" s="1">
         <v>73</v>
       </c>
       <c r="F52" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1523,17 +1543,17 @@
         <v>88</v>
       </c>
       <c r="D53" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E53" s="1">
         <v>88</v>
       </c>
       <c r="F53" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="1">
@@ -1543,13 +1563,13 @@
         <v>9001</v>
       </c>
       <c r="D54" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E54" s="1">
         <v>9001</v>
       </c>
       <c r="F54" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1563,13 +1583,13 @@
         <v>9008</v>
       </c>
       <c r="D55" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E55" s="2">
         <v>9008</v>
       </c>
       <c r="F55" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1583,13 +1603,13 @@
         <v>9010</v>
       </c>
       <c r="D56" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E56" s="1">
         <v>9010</v>
       </c>
       <c r="F56" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -1603,13 +1623,13 @@
         <v>46</v>
       </c>
       <c r="D57" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E57" s="1">
         <v>46</v>
       </c>
       <c r="F57" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -1623,13 +1643,13 @@
         <v>73</v>
       </c>
       <c r="D58" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E58" s="1">
         <v>73</v>
       </c>
       <c r="F58" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -1643,13 +1663,13 @@
         <v>88</v>
       </c>
       <c r="D59" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E59" s="1">
         <v>88</v>
       </c>
       <c r="F59" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -1663,13 +1683,13 @@
         <v>9001</v>
       </c>
       <c r="D60" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E60" s="1">
         <v>9001</v>
       </c>
       <c r="F60" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1683,17 +1703,17 @@
         <v>9008</v>
       </c>
       <c r="D61" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E61" s="2">
         <v>9008</v>
       </c>
       <c r="F61" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="1">
@@ -1703,13 +1723,13 @@
         <v>9010</v>
       </c>
       <c r="D62" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E62" s="1">
         <v>9010</v>
       </c>
       <c r="F62" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -1723,13 +1743,13 @@
         <v>46</v>
       </c>
       <c r="D63" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E63" s="1">
         <v>46</v>
       </c>
       <c r="F63" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -1743,13 +1763,13 @@
         <v>73</v>
       </c>
       <c r="D64" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E64" s="1">
         <v>73</v>
       </c>
       <c r="F64" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -1763,13 +1783,13 @@
         <v>88</v>
       </c>
       <c r="D65" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E65" s="1">
         <v>88</v>
       </c>
       <c r="F65" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1783,13 +1803,13 @@
         <v>9001</v>
       </c>
       <c r="D66" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E66" s="1">
         <v>9001</v>
       </c>
       <c r="F66" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -1803,13 +1823,13 @@
         <v>9008</v>
       </c>
       <c r="D67" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E67" s="2">
         <v>9008</v>
       </c>
       <c r="F67" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -1823,13 +1843,13 @@
         <v>9010</v>
       </c>
       <c r="D68" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E68" s="1">
         <v>9010</v>
       </c>
       <c r="F68" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -1843,17 +1863,17 @@
         <v>46</v>
       </c>
       <c r="D69" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E69" s="1">
         <v>46</v>
       </c>
       <c r="F69" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="1">
@@ -1863,13 +1883,13 @@
         <v>73</v>
       </c>
       <c r="D70" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E70" s="1">
         <v>73</v>
       </c>
       <c r="F70" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1883,13 +1903,13 @@
         <v>88</v>
       </c>
       <c r="D71" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E71" s="1">
         <v>88</v>
       </c>
       <c r="F71" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -1903,13 +1923,13 @@
         <v>9001</v>
       </c>
       <c r="D72" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E72" s="1">
         <v>9001</v>
       </c>
       <c r="F72" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -1923,13 +1943,13 @@
         <v>9008</v>
       </c>
       <c r="D73" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E73" s="2">
         <v>9008</v>
       </c>
       <c r="F73" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -1943,13 +1963,13 @@
         <v>9010</v>
       </c>
       <c r="D74" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E74" s="1">
         <v>9010</v>
       </c>
       <c r="F74" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -1963,13 +1983,13 @@
         <v>46</v>
       </c>
       <c r="D75" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E75" s="1">
         <v>46</v>
       </c>
       <c r="F75" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1983,13 +2003,13 @@
         <v>73</v>
       </c>
       <c r="D76" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E76" s="1">
         <v>73</v>
       </c>
       <c r="F76" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -2003,17 +2023,17 @@
         <v>88</v>
       </c>
       <c r="D77" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E77" s="1">
         <v>88</v>
       </c>
       <c r="F77" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="1">
@@ -2023,13 +2043,13 @@
         <v>9001</v>
       </c>
       <c r="D78" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E78" s="1">
         <v>9001</v>
       </c>
       <c r="F78" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2043,13 +2063,13 @@
         <v>9008</v>
       </c>
       <c r="D79" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E79" s="2">
         <v>9008</v>
       </c>
       <c r="F79" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2063,13 +2083,13 @@
         <v>9010</v>
       </c>
       <c r="D80" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E80" s="1">
         <v>9010</v>
       </c>
       <c r="F80" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2083,13 +2103,13 @@
         <v>46</v>
       </c>
       <c r="D81" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E81" s="1">
         <v>46</v>
       </c>
       <c r="F81" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -2103,13 +2123,13 @@
         <v>73</v>
       </c>
       <c r="D82" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E82" s="1">
         <v>73</v>
       </c>
       <c r="F82" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -2123,13 +2143,13 @@
         <v>88</v>
       </c>
       <c r="D83" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E83" s="1">
         <v>88</v>
       </c>
       <c r="F83" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -2143,13 +2163,13 @@
         <v>9001</v>
       </c>
       <c r="D84" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E84" s="1">
         <v>9001</v>
       </c>
       <c r="F84" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -2163,17 +2183,17 @@
         <v>9008</v>
       </c>
       <c r="D85" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E85" s="2">
         <v>9008</v>
       </c>
       <c r="F85" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" s="1">
@@ -2183,13 +2203,13 @@
         <v>9010</v>
       </c>
       <c r="D86" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E86" s="1">
         <v>9010</v>
       </c>
       <c r="F86" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -2203,13 +2223,13 @@
         <v>46</v>
       </c>
       <c r="D87" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E87" s="1">
         <v>46</v>
       </c>
       <c r="F87" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -2223,13 +2243,13 @@
         <v>73</v>
       </c>
       <c r="D88" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E88" s="1">
         <v>73</v>
       </c>
       <c r="F88" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -2243,13 +2263,13 @@
         <v>88</v>
       </c>
       <c r="D89" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E89" s="1">
         <v>88</v>
       </c>
       <c r="F89" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -2263,13 +2283,13 @@
         <v>9001</v>
       </c>
       <c r="D90" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E90" s="1">
         <v>9001</v>
       </c>
       <c r="F90" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2283,13 +2303,13 @@
         <v>9008</v>
       </c>
       <c r="D91" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E91" s="2">
         <v>9008</v>
       </c>
       <c r="F91" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -2303,13 +2323,13 @@
         <v>9010</v>
       </c>
       <c r="D92" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E92" s="1">
         <v>9010</v>
       </c>
       <c r="F92" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -2323,17 +2343,17 @@
         <v>46</v>
       </c>
       <c r="D93" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E93" s="1">
         <v>46</v>
       </c>
       <c r="F93" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" s="1">
@@ -2343,13 +2363,13 @@
         <v>73</v>
       </c>
       <c r="D94" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E94" s="1">
         <v>73</v>
       </c>
       <c r="F94" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -2363,13 +2383,13 @@
         <v>88</v>
       </c>
       <c r="D95" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E95" s="1">
         <v>88</v>
       </c>
       <c r="F95" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -2383,13 +2403,13 @@
         <v>9001</v>
       </c>
       <c r="D96" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E96" s="1">
         <v>9001</v>
       </c>
       <c r="F96" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -2403,13 +2423,13 @@
         <v>9008</v>
       </c>
       <c r="D97" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E97" s="2">
         <v>9008</v>
       </c>
       <c r="F97" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -2423,13 +2443,13 @@
         <v>9010</v>
       </c>
       <c r="D98" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E98" s="1">
         <v>9010</v>
       </c>
       <c r="F98" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -2443,13 +2463,13 @@
         <v>46</v>
       </c>
       <c r="D99" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E99" s="1">
         <v>46</v>
       </c>
       <c r="F99" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -2463,13 +2483,13 @@
         <v>73</v>
       </c>
       <c r="D100" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E100" s="1">
         <v>73</v>
       </c>
       <c r="F100" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -2483,17 +2503,17 @@
         <v>88</v>
       </c>
       <c r="D101" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E101" s="1">
         <v>88</v>
       </c>
       <c r="F101" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" s="1">
@@ -2503,13 +2523,13 @@
         <v>9001</v>
       </c>
       <c r="D102" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E102" s="1">
         <v>9001</v>
       </c>
       <c r="F102" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -2523,13 +2543,13 @@
         <v>9008</v>
       </c>
       <c r="D103" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E103" s="2">
         <v>9008</v>
       </c>
       <c r="F103" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -2543,13 +2563,13 @@
         <v>9010</v>
       </c>
       <c r="D104" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E104" s="1">
         <v>9010</v>
       </c>
       <c r="F104" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -2563,13 +2583,13 @@
         <v>46</v>
       </c>
       <c r="D105" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E105" s="1">
         <v>46</v>
       </c>
       <c r="F105" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -2583,13 +2603,13 @@
         <v>73</v>
       </c>
       <c r="D106" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E106" s="1">
         <v>73</v>
       </c>
       <c r="F106" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -2603,13 +2623,13 @@
         <v>88</v>
       </c>
       <c r="D107" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E107" s="1">
         <v>88</v>
       </c>
       <c r="F107" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -2623,13 +2643,13 @@
         <v>9001</v>
       </c>
       <c r="D108" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E108" s="1">
         <v>9001</v>
       </c>
       <c r="F108" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -2643,17 +2663,17 @@
         <v>9008</v>
       </c>
       <c r="D109" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E109" s="2">
         <v>9008</v>
       </c>
       <c r="F109" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" s="1">
@@ -2663,13 +2683,13 @@
         <v>9010</v>
       </c>
       <c r="D110" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E110" s="1">
         <v>9010</v>
       </c>
       <c r="F110" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -2683,13 +2703,13 @@
         <v>46</v>
       </c>
       <c r="D111" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E111" s="1">
         <v>46</v>
       </c>
       <c r="F111" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -2703,13 +2723,13 @@
         <v>73</v>
       </c>
       <c r="D112" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E112" s="1">
         <v>73</v>
       </c>
       <c r="F112" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -2723,13 +2743,13 @@
         <v>88</v>
       </c>
       <c r="D113" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E113" s="1">
         <v>88</v>
       </c>
       <c r="F113" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -2743,13 +2763,13 @@
         <v>9001</v>
       </c>
       <c r="D114" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E114" s="1">
         <v>9001</v>
       </c>
       <c r="F114" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -2763,13 +2783,13 @@
         <v>9008</v>
       </c>
       <c r="D115" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E115" s="2">
         <v>9008</v>
       </c>
       <c r="F115" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -2783,13 +2803,13 @@
         <v>9010</v>
       </c>
       <c r="D116" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E116" s="1">
         <v>9010</v>
       </c>
       <c r="F116" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -2803,17 +2823,17 @@
         <v>46</v>
       </c>
       <c r="D117" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E117" s="1">
         <v>46</v>
       </c>
       <c r="F117" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" s="1">
@@ -2823,13 +2843,13 @@
         <v>73</v>
       </c>
       <c r="D118" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E118" s="1">
         <v>73</v>
       </c>
       <c r="F118" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -2843,13 +2863,13 @@
         <v>88</v>
       </c>
       <c r="D119" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E119" s="1">
         <v>88</v>
       </c>
       <c r="F119" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -2863,13 +2883,13 @@
         <v>9001</v>
       </c>
       <c r="D120" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E120" s="1">
         <v>9001</v>
       </c>
       <c r="F120" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -2883,13 +2903,13 @@
         <v>9008</v>
       </c>
       <c r="D121" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E121" s="2">
         <v>9008</v>
       </c>
       <c r="F121" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -2903,13 +2923,13 @@
         <v>9010</v>
       </c>
       <c r="D122" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E122" s="1">
         <v>9010</v>
       </c>
       <c r="F122" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -2923,13 +2943,13 @@
         <v>46</v>
       </c>
       <c r="D123" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E123" s="1">
         <v>46</v>
       </c>
       <c r="F123" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -2943,13 +2963,13 @@
         <v>73</v>
       </c>
       <c r="D124" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E124" s="1">
         <v>73</v>
       </c>
       <c r="F124" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -2963,17 +2983,17 @@
         <v>88</v>
       </c>
       <c r="D125" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E125" s="1">
         <v>88</v>
       </c>
       <c r="F125" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="2">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" s="1">
@@ -2983,13 +3003,13 @@
         <v>9001</v>
       </c>
       <c r="D126" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E126" s="1">
         <v>9001</v>
       </c>
       <c r="F126" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -3003,13 +3023,13 @@
         <v>9008</v>
       </c>
       <c r="D127" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E127" s="2">
         <v>9008</v>
       </c>
       <c r="F127" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -3023,13 +3043,13 @@
         <v>9010</v>
       </c>
       <c r="D128" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E128" s="1">
         <v>9010</v>
       </c>
       <c r="F128" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -3043,13 +3063,13 @@
         <v>46</v>
       </c>
       <c r="D129" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E129" s="1">
         <v>46</v>
       </c>
       <c r="F129" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -3063,13 +3083,13 @@
         <v>73</v>
       </c>
       <c r="D130" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E130" s="1">
         <v>73</v>
       </c>
       <c r="F130" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -3083,13 +3103,13 @@
         <v>88</v>
       </c>
       <c r="D131" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E131" s="1">
         <v>88</v>
       </c>
       <c r="F131" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -3103,13 +3123,13 @@
         <v>9001</v>
       </c>
       <c r="D132" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E132" s="1">
         <v>9001</v>
       </c>
       <c r="F132" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -3123,17 +3143,17 @@
         <v>9008</v>
       </c>
       <c r="D133" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E133" s="2">
         <v>9008</v>
       </c>
       <c r="F133" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="2">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" s="1">
@@ -3143,13 +3163,13 @@
         <v>9010</v>
       </c>
       <c r="D134" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E134" s="1">
         <v>9010</v>
       </c>
       <c r="F134" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -3163,13 +3183,13 @@
         <v>46</v>
       </c>
       <c r="D135" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E135" s="1">
         <v>46</v>
       </c>
       <c r="F135" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -3183,13 +3203,13 @@
         <v>73</v>
       </c>
       <c r="D136" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E136" s="1">
         <v>73</v>
       </c>
       <c r="F136" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -3203,13 +3223,13 @@
         <v>88</v>
       </c>
       <c r="D137" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E137" s="1">
         <v>88</v>
       </c>
       <c r="F137" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -3223,13 +3243,13 @@
         <v>9001</v>
       </c>
       <c r="D138" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E138" s="1">
         <v>9001</v>
       </c>
       <c r="F138" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -3243,13 +3263,13 @@
         <v>9008</v>
       </c>
       <c r="D139" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E139" s="2">
         <v>9008</v>
       </c>
       <c r="F139" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -3263,13 +3283,13 @@
         <v>9010</v>
       </c>
       <c r="D140" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E140" s="1">
         <v>9010</v>
       </c>
       <c r="F140" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -3283,17 +3303,17 @@
         <v>46</v>
       </c>
       <c r="D141" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E141" s="1">
         <v>46</v>
       </c>
       <c r="F141" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="2">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" s="1">
@@ -3303,13 +3323,13 @@
         <v>73</v>
       </c>
       <c r="D142" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E142" s="1">
         <v>73</v>
       </c>
       <c r="F142" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -3323,13 +3343,13 @@
         <v>88</v>
       </c>
       <c r="D143" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E143" s="1">
         <v>88</v>
       </c>
       <c r="F143" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -3343,13 +3363,13 @@
         <v>9001</v>
       </c>
       <c r="D144" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E144" s="1">
         <v>9001</v>
       </c>
       <c r="F144" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -3363,13 +3383,13 @@
         <v>9008</v>
       </c>
       <c r="D145" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E145" s="2">
         <v>9008</v>
       </c>
       <c r="F145" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -3383,13 +3403,13 @@
         <v>9010</v>
       </c>
       <c r="D146" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E146" s="1">
         <v>9010</v>
       </c>
       <c r="F146" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -3403,13 +3423,13 @@
         <v>46</v>
       </c>
       <c r="D147" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E147" s="1">
         <v>46</v>
       </c>
       <c r="F147" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -3423,13 +3443,13 @@
         <v>73</v>
       </c>
       <c r="D148" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E148" s="1">
         <v>73</v>
       </c>
       <c r="F148" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -3443,17 +3463,17 @@
         <v>88</v>
       </c>
       <c r="D149" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E149" s="1">
         <v>88</v>
       </c>
       <c r="F149" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="2">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" s="1">
@@ -3463,13 +3483,13 @@
         <v>9001</v>
       </c>
       <c r="D150" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E150" s="1">
         <v>9001</v>
       </c>
       <c r="F150" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -3483,13 +3503,13 @@
         <v>9008</v>
       </c>
       <c r="D151" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E151" s="2">
         <v>9008</v>
       </c>
       <c r="F151" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -3503,13 +3523,13 @@
         <v>9010</v>
       </c>
       <c r="D152" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E152" s="1">
         <v>9010</v>
       </c>
       <c r="F152" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -3523,13 +3543,13 @@
         <v>46</v>
       </c>
       <c r="D153" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E153" s="1">
         <v>46</v>
       </c>
       <c r="F153" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -3543,13 +3563,13 @@
         <v>73</v>
       </c>
       <c r="D154" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E154" s="1">
         <v>73</v>
       </c>
       <c r="F154" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -3563,13 +3583,13 @@
         <v>88</v>
       </c>
       <c r="D155" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E155" s="1">
         <v>88</v>
       </c>
       <c r="F155" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -3583,13 +3603,13 @@
         <v>9001</v>
       </c>
       <c r="D156" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E156" s="1">
         <v>9001</v>
       </c>
       <c r="F156" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -3603,17 +3623,17 @@
         <v>9008</v>
       </c>
       <c r="D157" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E157" s="2">
         <v>9008</v>
       </c>
       <c r="F157" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="2">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" s="1">
@@ -3623,13 +3643,13 @@
         <v>9010</v>
       </c>
       <c r="D158" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E158" s="1">
         <v>9010</v>
       </c>
       <c r="F158" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -3643,13 +3663,13 @@
         <v>46</v>
       </c>
       <c r="D159" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E159" s="1">
         <v>46</v>
       </c>
       <c r="F159" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -3663,13 +3683,13 @@
         <v>73</v>
       </c>
       <c r="D160" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E160" s="1">
         <v>73</v>
       </c>
       <c r="F160" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -3683,13 +3703,13 @@
         <v>88</v>
       </c>
       <c r="D161" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E161" s="1">
         <v>88</v>
       </c>
       <c r="F161" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -3703,13 +3723,13 @@
         <v>9001</v>
       </c>
       <c r="D162" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E162" s="1">
         <v>9001</v>
       </c>
       <c r="F162" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -3723,13 +3743,13 @@
         <v>9008</v>
       </c>
       <c r="D163" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E163" s="2">
         <v>9008</v>
       </c>
       <c r="F163" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -3743,13 +3763,13 @@
         <v>9010</v>
       </c>
       <c r="D164" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E164" s="1">
         <v>9010</v>
       </c>
       <c r="F164" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -3763,17 +3783,17 @@
         <v>46</v>
       </c>
       <c r="D165" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E165" s="1">
         <v>46</v>
       </c>
       <c r="F165" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="2">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" s="1">
@@ -3783,13 +3803,13 @@
         <v>73</v>
       </c>
       <c r="D166" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E166" s="1">
         <v>73</v>
       </c>
       <c r="F166" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -3803,13 +3823,13 @@
         <v>88</v>
       </c>
       <c r="D167" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E167" s="1">
         <v>88</v>
       </c>
       <c r="F167" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -3823,13 +3843,13 @@
         <v>9001</v>
       </c>
       <c r="D168" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E168" s="1">
         <v>9001</v>
       </c>
       <c r="F168" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -3843,13 +3863,13 @@
         <v>9008</v>
       </c>
       <c r="D169" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E169" s="2">
         <v>9008</v>
       </c>
       <c r="F169" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -3863,13 +3883,13 @@
         <v>9010</v>
       </c>
       <c r="D170" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E170" s="1">
         <v>9010</v>
       </c>
       <c r="F170" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -3883,13 +3903,13 @@
         <v>46</v>
       </c>
       <c r="D171" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E171" s="1">
         <v>46</v>
       </c>
       <c r="F171" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -3903,13 +3923,13 @@
         <v>73</v>
       </c>
       <c r="D172" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E172" s="1">
         <v>73</v>
       </c>
       <c r="F172" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -3923,17 +3943,17 @@
         <v>88</v>
       </c>
       <c r="D173" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E173" s="1">
         <v>88</v>
       </c>
       <c r="F173" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="2">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" s="1">
@@ -3943,13 +3963,13 @@
         <v>9001</v>
       </c>
       <c r="D174" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E174" s="1">
         <v>9001</v>
       </c>
       <c r="F174" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -3963,13 +3983,13 @@
         <v>9008</v>
       </c>
       <c r="D175" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E175" s="2">
         <v>9008</v>
       </c>
       <c r="F175" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -3983,13 +4003,13 @@
         <v>9010</v>
       </c>
       <c r="D176" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E176" s="1">
         <v>9010</v>
       </c>
       <c r="F176" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -4003,13 +4023,13 @@
         <v>46</v>
       </c>
       <c r="D177" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E177" s="1">
         <v>46</v>
       </c>
       <c r="F177" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -4023,13 +4043,13 @@
         <v>73</v>
       </c>
       <c r="D178" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E178" s="1">
         <v>73</v>
       </c>
       <c r="F178" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -4043,13 +4063,13 @@
         <v>88</v>
       </c>
       <c r="D179" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E179" s="1">
         <v>88</v>
       </c>
       <c r="F179" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -4063,13 +4083,13 @@
         <v>9001</v>
       </c>
       <c r="D180" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E180" s="1">
         <v>9001</v>
       </c>
       <c r="F180" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -4083,17 +4103,17 @@
         <v>9008</v>
       </c>
       <c r="D181" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E181" s="2">
         <v>9008</v>
       </c>
       <c r="F181" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="2">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" s="1">
@@ -4103,13 +4123,13 @@
         <v>9010</v>
       </c>
       <c r="D182" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E182" s="1">
         <v>9010</v>
       </c>
       <c r="F182" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -4123,13 +4143,13 @@
         <v>46</v>
       </c>
       <c r="D183" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E183" s="1">
         <v>46</v>
       </c>
       <c r="F183" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -4143,13 +4163,13 @@
         <v>73</v>
       </c>
       <c r="D184" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E184" s="1">
         <v>73</v>
       </c>
       <c r="F184" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -4163,13 +4183,13 @@
         <v>88</v>
       </c>
       <c r="D185" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E185" s="1">
         <v>88</v>
       </c>
       <c r="F185" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -4183,13 +4203,13 @@
         <v>9001</v>
       </c>
       <c r="D186" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E186" s="1">
         <v>9001</v>
       </c>
       <c r="F186" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -4203,13 +4223,13 @@
         <v>9008</v>
       </c>
       <c r="D187" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E187" s="2">
         <v>9008</v>
       </c>
       <c r="F187" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -4223,13 +4243,13 @@
         <v>9010</v>
       </c>
       <c r="D188" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E188" s="1">
         <v>9010</v>
       </c>
       <c r="F188" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -4243,17 +4263,17 @@
         <v>46</v>
       </c>
       <c r="D189" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E189" s="1">
         <v>46</v>
       </c>
       <c r="F189" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="2">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" s="1">
@@ -4263,13 +4283,13 @@
         <v>73</v>
       </c>
       <c r="D190" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E190" s="1">
         <v>73</v>
       </c>
       <c r="F190" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -4283,13 +4303,13 @@
         <v>88</v>
       </c>
       <c r="D191" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E191" s="1">
         <v>88</v>
       </c>
       <c r="F191" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -4303,13 +4323,13 @@
         <v>9001</v>
       </c>
       <c r="D192" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E192" s="1">
         <v>9001</v>
       </c>
       <c r="F192" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -4323,13 +4343,13 @@
         <v>9008</v>
       </c>
       <c r="D193" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E193" s="2">
         <v>9008</v>
       </c>
       <c r="F193" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -4343,13 +4363,13 @@
         <v>9010</v>
       </c>
       <c r="D194" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E194" s="1">
         <v>9010</v>
       </c>
       <c r="F194" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -4363,13 +4383,13 @@
         <v>46</v>
       </c>
       <c r="D195" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E195" s="1">
         <v>46</v>
       </c>
       <c r="F195" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -4383,13 +4403,13 @@
         <v>73</v>
       </c>
       <c r="D196" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E196" s="1">
         <v>73</v>
       </c>
       <c r="F196" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -4403,17 +4423,17 @@
         <v>88</v>
       </c>
       <c r="D197" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E197" s="1">
         <v>88</v>
       </c>
       <c r="F197" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="2">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198" s="1">
@@ -4423,13 +4443,13 @@
         <v>9001</v>
       </c>
       <c r="D198" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E198" s="1">
         <v>9001</v>
       </c>
       <c r="F198" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -4443,13 +4463,13 @@
         <v>9008</v>
       </c>
       <c r="D199" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E199" s="2">
         <v>9008</v>
       </c>
       <c r="F199" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -4463,13 +4483,13 @@
         <v>9010</v>
       </c>
       <c r="D200" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E200" s="1">
         <v>9010</v>
       </c>
       <c r="F200" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -4483,13 +4503,13 @@
         <v>46</v>
       </c>
       <c r="D201" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E201" s="1">
         <v>46</v>
       </c>
       <c r="F201" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -4503,13 +4523,13 @@
         <v>73</v>
       </c>
       <c r="D202" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E202" s="1">
         <v>73</v>
       </c>
       <c r="F202" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -4523,13 +4543,13 @@
         <v>88</v>
       </c>
       <c r="D203" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E203" s="1">
         <v>88</v>
       </c>
       <c r="F203" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -4543,13 +4563,13 @@
         <v>9001</v>
       </c>
       <c r="D204" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E204" s="1">
         <v>9001</v>
       </c>
       <c r="F204" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -4563,17 +4583,17 @@
         <v>9008</v>
       </c>
       <c r="D205" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E205" s="2">
         <v>9008</v>
       </c>
       <c r="F205" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="2">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206" s="1">
@@ -4583,13 +4603,13 @@
         <v>9010</v>
       </c>
       <c r="D206" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E206" s="1">
         <v>9010</v>
       </c>
       <c r="F206" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -4603,13 +4623,13 @@
         <v>46</v>
       </c>
       <c r="D207" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E207" s="1">
         <v>46</v>
       </c>
       <c r="F207" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -4623,13 +4643,13 @@
         <v>73</v>
       </c>
       <c r="D208" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E208" s="1">
         <v>73</v>
       </c>
       <c r="F208" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -4643,13 +4663,13 @@
         <v>88</v>
       </c>
       <c r="D209" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E209" s="1">
         <v>88</v>
       </c>
       <c r="F209" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -4663,13 +4683,13 @@
         <v>9001</v>
       </c>
       <c r="D210" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E210" s="1">
         <v>9001</v>
       </c>
       <c r="F210" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -4683,13 +4703,13 @@
         <v>9008</v>
       </c>
       <c r="D211" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E211" s="2">
         <v>9008</v>
       </c>
       <c r="F211" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -4703,13 +4723,13 @@
         <v>9010</v>
       </c>
       <c r="D212" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E212" s="1">
         <v>9010</v>
       </c>
       <c r="F212" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -4723,17 +4743,17 @@
         <v>46</v>
       </c>
       <c r="D213" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E213" s="1">
         <v>46</v>
       </c>
       <c r="F213" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A214" s="2">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214" s="1">
@@ -4743,13 +4763,13 @@
         <v>73</v>
       </c>
       <c r="D214" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E214" s="1">
         <v>73</v>
       </c>
       <c r="F214" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -4763,13 +4783,13 @@
         <v>88</v>
       </c>
       <c r="D215" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E215" s="1">
         <v>88</v>
       </c>
       <c r="F215" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -4783,13 +4803,13 @@
         <v>9001</v>
       </c>
       <c r="D216" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E216" s="1">
         <v>9001</v>
       </c>
       <c r="F216" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -4803,13 +4823,13 @@
         <v>9008</v>
       </c>
       <c r="D217" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E217" s="2">
         <v>9008</v>
       </c>
       <c r="F217" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -4823,13 +4843,13 @@
         <v>9010</v>
       </c>
       <c r="D218" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E218" s="1">
         <v>9010</v>
       </c>
       <c r="F218" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
@@ -4843,13 +4863,13 @@
         <v>46</v>
       </c>
       <c r="D219" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E219" s="1">
         <v>46</v>
       </c>
       <c r="F219" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -4863,13 +4883,13 @@
         <v>73</v>
       </c>
       <c r="D220" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E220" s="1">
         <v>73</v>
       </c>
       <c r="F220" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -4883,17 +4903,17 @@
         <v>88</v>
       </c>
       <c r="D221" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E221" s="1">
         <v>88</v>
       </c>
       <c r="F221" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A222" s="2">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222" s="1">
@@ -4903,13 +4923,13 @@
         <v>9001</v>
       </c>
       <c r="D222" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E222" s="1">
         <v>9001</v>
       </c>
       <c r="F222" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -4923,13 +4943,13 @@
         <v>9008</v>
       </c>
       <c r="D223" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E223" s="2">
         <v>9008</v>
       </c>
       <c r="F223" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -4943,13 +4963,13 @@
         <v>9010</v>
       </c>
       <c r="D224" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E224" s="1">
         <v>9010</v>
       </c>
       <c r="F224" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -4963,13 +4983,13 @@
         <v>46</v>
       </c>
       <c r="D225" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E225" s="1">
         <v>46</v>
       </c>
       <c r="F225" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -4983,13 +5003,13 @@
         <v>73</v>
       </c>
       <c r="D226" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E226" s="1">
         <v>73</v>
       </c>
       <c r="F226" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -5003,13 +5023,13 @@
         <v>88</v>
       </c>
       <c r="D227" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E227" s="1">
         <v>88</v>
       </c>
       <c r="F227" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -5023,13 +5043,13 @@
         <v>9001</v>
       </c>
       <c r="D228" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E228" s="1">
         <v>9001</v>
       </c>
       <c r="F228" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -5043,17 +5063,17 @@
         <v>9008</v>
       </c>
       <c r="D229" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E229" s="2">
         <v>9008</v>
       </c>
       <c r="F229" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A230" s="2">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230" s="1">
@@ -5063,13 +5083,13 @@
         <v>9010</v>
       </c>
       <c r="D230" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E230" s="1">
         <v>9010</v>
       </c>
       <c r="F230" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -5083,13 +5103,13 @@
         <v>46</v>
       </c>
       <c r="D231" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E231" s="1">
         <v>46</v>
       </c>
       <c r="F231" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
@@ -5103,13 +5123,13 @@
         <v>73</v>
       </c>
       <c r="D232" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E232" s="1">
         <v>73</v>
       </c>
       <c r="F232" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -5123,13 +5143,13 @@
         <v>88</v>
       </c>
       <c r="D233" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E233" s="1">
         <v>88</v>
       </c>
       <c r="F233" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -5143,13 +5163,13 @@
         <v>9001</v>
       </c>
       <c r="D234" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E234" s="1">
         <v>9001</v>
       </c>
       <c r="F234" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -5163,13 +5183,13 @@
         <v>9008</v>
       </c>
       <c r="D235" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E235" s="2">
         <v>9008</v>
       </c>
       <c r="F235" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -5183,13 +5203,13 @@
         <v>9010</v>
       </c>
       <c r="D236" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E236" s="1">
         <v>9010</v>
       </c>
       <c r="F236" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -5203,17 +5223,17 @@
         <v>46</v>
       </c>
       <c r="D237" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E237" s="1">
         <v>46</v>
       </c>
       <c r="F237" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A238" s="2">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
       <c r="B238" s="1">
@@ -5223,13 +5243,13 @@
         <v>73</v>
       </c>
       <c r="D238" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E238" s="1">
         <v>73</v>
       </c>
       <c r="F238" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
@@ -5243,13 +5263,13 @@
         <v>88</v>
       </c>
       <c r="D239" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E239" s="1">
         <v>88</v>
       </c>
       <c r="F239" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
@@ -5263,13 +5283,13 @@
         <v>9001</v>
       </c>
       <c r="D240" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E240" s="1">
         <v>9001</v>
       </c>
       <c r="F240" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
@@ -5283,13 +5303,13 @@
         <v>9008</v>
       </c>
       <c r="D241" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E241" s="2">
         <v>9008</v>
       </c>
       <c r="F241" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
@@ -5303,13 +5323,13 @@
         <v>9010</v>
       </c>
       <c r="D242" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E242" s="1">
         <v>9010</v>
       </c>
       <c r="F242" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
@@ -5323,13 +5343,13 @@
         <v>46</v>
       </c>
       <c r="D243" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E243" s="1">
         <v>46</v>
       </c>
       <c r="F243" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
@@ -5343,13 +5363,13 @@
         <v>73</v>
       </c>
       <c r="D244" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E244" s="1">
         <v>73</v>
       </c>
       <c r="F244" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
@@ -5363,17 +5383,17 @@
         <v>88</v>
       </c>
       <c r="D245" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E245" s="1">
         <v>88</v>
       </c>
       <c r="F245" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A246" s="2">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
       <c r="B246" s="1">
@@ -5383,13 +5403,13 @@
         <v>9001</v>
       </c>
       <c r="D246" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E246" s="1">
         <v>9001</v>
       </c>
       <c r="F246" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
@@ -5403,13 +5423,13 @@
         <v>9008</v>
       </c>
       <c r="D247" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E247" s="2">
         <v>9008</v>
       </c>
       <c r="F247" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
@@ -5423,13 +5443,13 @@
         <v>9010</v>
       </c>
       <c r="D248" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E248" s="1">
         <v>9010</v>
       </c>
       <c r="F248" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
@@ -5443,13 +5463,13 @@
         <v>46</v>
       </c>
       <c r="D249" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E249" s="1">
         <v>46</v>
       </c>
       <c r="F249" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -5463,13 +5483,13 @@
         <v>73</v>
       </c>
       <c r="D250" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E250" s="1">
         <v>73</v>
       </c>
       <c r="F250" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -5483,13 +5503,13 @@
         <v>88</v>
       </c>
       <c r="D251" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E251" s="1">
         <v>88</v>
       </c>
       <c r="F251" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
@@ -5503,13 +5523,13 @@
         <v>9001</v>
       </c>
       <c r="D252" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E252" s="1">
         <v>9001</v>
       </c>
       <c r="F252" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
@@ -5523,17 +5543,17 @@
         <v>9008</v>
       </c>
       <c r="D253" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E253" s="2">
         <v>9008</v>
       </c>
       <c r="F253" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A254" s="2">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
       <c r="B254" s="1">
@@ -5543,13 +5563,13 @@
         <v>9010</v>
       </c>
       <c r="D254" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E254" s="1">
         <v>9010</v>
       </c>
       <c r="F254" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -5563,13 +5583,13 @@
         <v>46</v>
       </c>
       <c r="D255" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E255" s="1">
         <v>46</v>
       </c>
       <c r="F255" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -5583,13 +5603,13 @@
         <v>73</v>
       </c>
       <c r="D256" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E256" s="1">
         <v>73</v>
       </c>
       <c r="F256" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
@@ -5603,13 +5623,13 @@
         <v>88</v>
       </c>
       <c r="D257" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E257" s="1">
         <v>88</v>
       </c>
       <c r="F257" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
@@ -5623,13 +5643,13 @@
         <v>9001</v>
       </c>
       <c r="D258" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E258" s="1">
         <v>9001</v>
       </c>
       <c r="F258" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
@@ -5643,13 +5663,13 @@
         <v>9008</v>
       </c>
       <c r="D259" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E259" s="2">
         <v>9008</v>
       </c>
       <c r="F259" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
@@ -5663,13 +5683,13 @@
         <v>9010</v>
       </c>
       <c r="D260" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E260" s="1">
         <v>9010</v>
       </c>
       <c r="F260" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -5683,17 +5703,17 @@
         <v>46</v>
       </c>
       <c r="D261" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E261" s="1">
         <v>46</v>
       </c>
       <c r="F261" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A262" s="2">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
       <c r="B262" s="1">
@@ -5703,13 +5723,13 @@
         <v>73</v>
       </c>
       <c r="D262" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E262" s="1">
         <v>73</v>
       </c>
       <c r="F262" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
@@ -5723,13 +5743,13 @@
         <v>88</v>
       </c>
       <c r="D263" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E263" s="1">
         <v>88</v>
       </c>
       <c r="F263" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
@@ -5743,13 +5763,13 @@
         <v>9001</v>
       </c>
       <c r="D264" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E264" s="1">
         <v>9001</v>
       </c>
       <c r="F264" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -5763,13 +5783,13 @@
         <v>9008</v>
       </c>
       <c r="D265" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E265" s="2">
         <v>9008</v>
       </c>
       <c r="F265" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -5783,13 +5803,13 @@
         <v>9010</v>
       </c>
       <c r="D266" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E266" s="1">
         <v>9010</v>
       </c>
       <c r="F266" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -5803,13 +5823,13 @@
         <v>46</v>
       </c>
       <c r="D267" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E267" s="1">
         <v>46</v>
       </c>
       <c r="F267" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
@@ -5823,13 +5843,13 @@
         <v>73</v>
       </c>
       <c r="D268" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E268" s="1">
         <v>73</v>
       </c>
       <c r="F268" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
@@ -5843,17 +5863,17 @@
         <v>88</v>
       </c>
       <c r="D269" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E269" s="1">
         <v>88</v>
       </c>
       <c r="F269" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A270" s="2">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
       <c r="B270" s="1">
@@ -5863,13 +5883,13 @@
         <v>9001</v>
       </c>
       <c r="D270" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E270" s="1">
         <v>9001</v>
       </c>
       <c r="F270" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -5883,13 +5903,13 @@
         <v>9008</v>
       </c>
       <c r="D271" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E271" s="2">
         <v>9008</v>
       </c>
       <c r="F271" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -5903,13 +5923,13 @@
         <v>9010</v>
       </c>
       <c r="D272" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E272" s="1">
         <v>9010</v>
       </c>
       <c r="F272" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -5923,13 +5943,13 @@
         <v>46</v>
       </c>
       <c r="D273" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E273" s="1">
         <v>46</v>
       </c>
       <c r="F273" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
@@ -5943,13 +5963,13 @@
         <v>73</v>
       </c>
       <c r="D274" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E274" s="1">
         <v>73</v>
       </c>
       <c r="F274" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
@@ -5963,13 +5983,13 @@
         <v>88</v>
       </c>
       <c r="D275" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E275" s="1">
         <v>88</v>
       </c>
       <c r="F275" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -5983,13 +6003,13 @@
         <v>9001</v>
       </c>
       <c r="D276" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E276" s="1">
         <v>9001</v>
       </c>
       <c r="F276" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -6003,17 +6023,17 @@
         <v>9008</v>
       </c>
       <c r="D277" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E277" s="2">
         <v>9008</v>
       </c>
       <c r="F277" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A278" s="2">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
       <c r="B278" s="1">
@@ -6023,13 +6043,13 @@
         <v>9010</v>
       </c>
       <c r="D278" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E278" s="1">
         <v>9010</v>
       </c>
       <c r="F278" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
@@ -6043,13 +6063,13 @@
         <v>46</v>
       </c>
       <c r="D279" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E279" s="1">
         <v>46</v>
       </c>
       <c r="F279" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
@@ -6063,13 +6083,13 @@
         <v>73</v>
       </c>
       <c r="D280" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E280" s="1">
         <v>73</v>
       </c>
       <c r="F280" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
@@ -6083,13 +6103,13 @@
         <v>88</v>
       </c>
       <c r="D281" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E281" s="1">
         <v>88</v>
       </c>
       <c r="F281" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
@@ -6103,13 +6123,13 @@
         <v>9001</v>
       </c>
       <c r="D282" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E282" s="1">
         <v>9001</v>
       </c>
       <c r="F282" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
@@ -6123,13 +6143,13 @@
         <v>9008</v>
       </c>
       <c r="D283" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E283" s="2">
         <v>9008</v>
       </c>
       <c r="F283" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
@@ -6143,13 +6163,13 @@
         <v>9010</v>
       </c>
       <c r="D284" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E284" s="1">
         <v>9010</v>
       </c>
       <c r="F284" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -6163,17 +6183,17 @@
         <v>46</v>
       </c>
       <c r="D285" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E285" s="1">
         <v>46</v>
       </c>
       <c r="F285" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A286" s="2">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
       <c r="B286" s="1">
@@ -6183,13 +6203,13 @@
         <v>73</v>
       </c>
       <c r="D286" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E286" s="1">
         <v>73</v>
       </c>
       <c r="F286" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
@@ -6203,13 +6223,13 @@
         <v>88</v>
       </c>
       <c r="D287" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E287" s="1">
         <v>88</v>
       </c>
       <c r="F287" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
@@ -6223,13 +6243,13 @@
         <v>9001</v>
       </c>
       <c r="D288" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E288" s="1">
         <v>9001</v>
       </c>
       <c r="F288" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
@@ -6243,13 +6263,13 @@
         <v>9008</v>
       </c>
       <c r="D289" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E289" s="2">
         <v>9008</v>
       </c>
       <c r="F289" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
@@ -6263,13 +6283,13 @@
         <v>9010</v>
       </c>
       <c r="D290" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E290" s="1">
         <v>9010</v>
       </c>
       <c r="F290" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
@@ -6283,13 +6303,13 @@
         <v>46</v>
       </c>
       <c r="D291" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E291" s="1">
         <v>46</v>
       </c>
       <c r="F291" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
@@ -6303,13 +6323,13 @@
         <v>73</v>
       </c>
       <c r="D292" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E292" s="1">
         <v>73</v>
       </c>
       <c r="F292" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
@@ -6323,17 +6343,17 @@
         <v>88</v>
       </c>
       <c r="D293" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E293" s="1">
         <v>88</v>
       </c>
       <c r="F293" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A294" s="2">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
       <c r="B294" s="1">
@@ -6343,13 +6363,13 @@
         <v>9001</v>
       </c>
       <c r="D294" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E294" s="1">
         <v>9001</v>
       </c>
       <c r="F294" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
@@ -6363,13 +6383,13 @@
         <v>9008</v>
       </c>
       <c r="D295" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E295" s="2">
         <v>9008</v>
       </c>
       <c r="F295" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -6383,13 +6403,13 @@
         <v>9010</v>
       </c>
       <c r="D296" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E296" s="1">
         <v>9010</v>
       </c>
       <c r="F296" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
@@ -6403,13 +6423,13 @@
         <v>46</v>
       </c>
       <c r="D297" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E297" s="1">
         <v>46</v>
       </c>
       <c r="F297" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
@@ -6423,13 +6443,13 @@
         <v>73</v>
       </c>
       <c r="D298" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E298" s="1">
         <v>73</v>
       </c>
       <c r="F298" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -6443,13 +6463,13 @@
         <v>88</v>
       </c>
       <c r="D299" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E299" s="1">
         <v>88</v>
       </c>
       <c r="F299" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
@@ -6463,13 +6483,13 @@
         <v>9001</v>
       </c>
       <c r="D300" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E300" s="1">
         <v>9001</v>
       </c>
       <c r="F300" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
@@ -6483,17 +6503,17 @@
         <v>9008</v>
       </c>
       <c r="D301" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E301" s="2">
         <v>9008</v>
       </c>
       <c r="F301" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A302" s="2">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
       <c r="B302" s="1">
@@ -6503,13 +6523,13 @@
         <v>9010</v>
       </c>
       <c r="D302" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E302" s="1">
         <v>9010</v>
       </c>
       <c r="F302" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
@@ -6523,13 +6543,13 @@
         <v>46</v>
       </c>
       <c r="D303" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E303" s="1">
         <v>46</v>
       </c>
       <c r="F303" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
@@ -6543,13 +6563,13 @@
         <v>73</v>
       </c>
       <c r="D304" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E304" s="1">
         <v>73</v>
       </c>
       <c r="F304" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -6563,13 +6583,13 @@
         <v>88</v>
       </c>
       <c r="D305" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E305" s="1">
         <v>88</v>
       </c>
       <c r="F305" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
@@ -6583,13 +6603,13 @@
         <v>9001</v>
       </c>
       <c r="D306" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E306" s="1">
         <v>9001</v>
       </c>
       <c r="F306" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
@@ -6603,13 +6623,13 @@
         <v>9008</v>
       </c>
       <c r="D307" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E307" s="2">
         <v>9008</v>
       </c>
       <c r="F307" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
@@ -6623,13 +6643,13 @@
         <v>9010</v>
       </c>
       <c r="D308" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E308" s="1">
         <v>9010</v>
       </c>
       <c r="F308" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
@@ -6643,17 +6663,17 @@
         <v>46</v>
       </c>
       <c r="D309" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E309" s="1">
         <v>46</v>
       </c>
       <c r="F309" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A310" s="2">
+      <c r="A310" s="1">
         <v>308</v>
       </c>
       <c r="B310" s="1">
@@ -6663,13 +6683,13 @@
         <v>73</v>
       </c>
       <c r="D310" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E310" s="1">
         <v>73</v>
       </c>
       <c r="F310" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
@@ -6683,13 +6703,13 @@
         <v>88</v>
       </c>
       <c r="D311" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E311" s="1">
         <v>88</v>
       </c>
       <c r="F311" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
@@ -6703,13 +6723,13 @@
         <v>9001</v>
       </c>
       <c r="D312" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E312" s="1">
         <v>9001</v>
       </c>
       <c r="F312" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
@@ -6723,13 +6743,13 @@
         <v>9008</v>
       </c>
       <c r="D313" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E313" s="2">
         <v>9008</v>
       </c>
       <c r="F313" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
@@ -6743,13 +6763,13 @@
         <v>9010</v>
       </c>
       <c r="D314" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E314" s="1">
         <v>9010</v>
       </c>
       <c r="F314" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
@@ -6763,13 +6783,13 @@
         <v>46</v>
       </c>
       <c r="D315" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E315" s="1">
         <v>46</v>
       </c>
       <c r="F315" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
@@ -6783,13 +6803,13 @@
         <v>73</v>
       </c>
       <c r="D316" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E316" s="1">
         <v>73</v>
       </c>
       <c r="F316" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
@@ -6803,17 +6823,17 @@
         <v>88</v>
       </c>
       <c r="D317" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E317" s="1">
         <v>88</v>
       </c>
       <c r="F317" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A318" s="2">
+      <c r="A318" s="1">
         <v>316</v>
       </c>
       <c r="B318" s="1">
@@ -6823,13 +6843,13 @@
         <v>9001</v>
       </c>
       <c r="D318" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E318" s="1">
         <v>9001</v>
       </c>
       <c r="F318" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -6843,13 +6863,13 @@
         <v>9008</v>
       </c>
       <c r="D319" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E319" s="2">
         <v>9008</v>
       </c>
       <c r="F319" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
@@ -6863,13 +6883,13 @@
         <v>9010</v>
       </c>
       <c r="D320" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E320" s="1">
         <v>9010</v>
       </c>
       <c r="F320" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
@@ -6883,13 +6903,13 @@
         <v>46</v>
       </c>
       <c r="D321" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E321" s="1">
         <v>46</v>
       </c>
       <c r="F321" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
@@ -6903,13 +6923,13 @@
         <v>73</v>
       </c>
       <c r="D322" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E322" s="1">
         <v>73</v>
       </c>
       <c r="F322" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
@@ -6923,13 +6943,13 @@
         <v>88</v>
       </c>
       <c r="D323" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E323" s="1">
         <v>88</v>
       </c>
       <c r="F323" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
@@ -6943,13 +6963,13 @@
         <v>9001</v>
       </c>
       <c r="D324" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E324" s="1">
         <v>9001</v>
       </c>
       <c r="F324" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
@@ -6963,17 +6983,17 @@
         <v>9008</v>
       </c>
       <c r="D325" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E325" s="2">
         <v>9008</v>
       </c>
       <c r="F325" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A326" s="2">
+      <c r="A326" s="1">
         <v>324</v>
       </c>
       <c r="B326" s="1">
@@ -6983,13 +7003,13 @@
         <v>9010</v>
       </c>
       <c r="D326" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E326" s="1">
         <v>9010</v>
       </c>
       <c r="F326" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
@@ -7003,13 +7023,13 @@
         <v>46</v>
       </c>
       <c r="D327" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E327" s="1">
         <v>46</v>
       </c>
       <c r="F327" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
@@ -7023,13 +7043,13 @@
         <v>73</v>
       </c>
       <c r="D328" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E328" s="1">
         <v>73</v>
       </c>
       <c r="F328" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
@@ -7043,13 +7063,13 @@
         <v>88</v>
       </c>
       <c r="D329" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E329" s="1">
         <v>88</v>
       </c>
       <c r="F329" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
@@ -7063,13 +7083,13 @@
         <v>9001</v>
       </c>
       <c r="D330" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E330" s="1">
         <v>9001</v>
       </c>
       <c r="F330" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
@@ -7083,13 +7103,13 @@
         <v>9008</v>
       </c>
       <c r="D331" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E331" s="2">
         <v>9008</v>
       </c>
       <c r="F331" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
@@ -7103,13 +7123,13 @@
         <v>9010</v>
       </c>
       <c r="D332" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E332" s="1">
         <v>9010</v>
       </c>
       <c r="F332" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
@@ -7123,17 +7143,17 @@
         <v>46</v>
       </c>
       <c r="D333" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E333" s="1">
         <v>46</v>
       </c>
       <c r="F333" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A334" s="2">
+      <c r="A334" s="1">
         <v>332</v>
       </c>
       <c r="B334" s="1">
@@ -7143,13 +7163,13 @@
         <v>73</v>
       </c>
       <c r="D334" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E334" s="1">
         <v>73</v>
       </c>
       <c r="F334" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
@@ -7163,13 +7183,13 @@
         <v>88</v>
       </c>
       <c r="D335" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E335" s="1">
         <v>88</v>
       </c>
       <c r="F335" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
@@ -7183,13 +7203,13 @@
         <v>9001</v>
       </c>
       <c r="D336" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E336" s="1">
         <v>9001</v>
       </c>
       <c r="F336" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
@@ -7203,13 +7223,13 @@
         <v>9008</v>
       </c>
       <c r="D337" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E337" s="2">
         <v>9008</v>
       </c>
       <c r="F337" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
@@ -7223,13 +7243,13 @@
         <v>9010</v>
       </c>
       <c r="D338" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E338" s="1">
         <v>9010</v>
       </c>
       <c r="F338" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
@@ -7243,13 +7263,13 @@
         <v>46</v>
       </c>
       <c r="D339" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E339" s="1">
         <v>46</v>
       </c>
       <c r="F339" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
@@ -7263,13 +7283,13 @@
         <v>73</v>
       </c>
       <c r="D340" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E340" s="1">
         <v>73</v>
       </c>
       <c r="F340" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
@@ -7283,17 +7303,17 @@
         <v>88</v>
       </c>
       <c r="D341" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E341" s="1">
         <v>88</v>
       </c>
       <c r="F341" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A342" s="2">
+      <c r="A342" s="1">
         <v>340</v>
       </c>
       <c r="B342" s="1">
@@ -7303,13 +7323,13 @@
         <v>9001</v>
       </c>
       <c r="D342" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E342" s="1">
         <v>9001</v>
       </c>
       <c r="F342" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
@@ -7323,13 +7343,13 @@
         <v>9008</v>
       </c>
       <c r="D343" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E343" s="2">
         <v>9008</v>
       </c>
       <c r="F343" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
@@ -7343,13 +7363,13 @@
         <v>9010</v>
       </c>
       <c r="D344" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E344" s="1">
         <v>9010</v>
       </c>
       <c r="F344" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
@@ -7363,13 +7383,13 @@
         <v>46</v>
       </c>
       <c r="D345" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E345" s="1">
         <v>46</v>
       </c>
       <c r="F345" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
@@ -7383,13 +7403,13 @@
         <v>73</v>
       </c>
       <c r="D346" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E346" s="1">
         <v>73</v>
       </c>
       <c r="F346" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
@@ -7403,13 +7423,13 @@
         <v>88</v>
       </c>
       <c r="D347" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E347" s="1">
         <v>88</v>
       </c>
       <c r="F347" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
@@ -7423,13 +7443,13 @@
         <v>9001</v>
       </c>
       <c r="D348" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E348" s="1">
         <v>9001</v>
       </c>
       <c r="F348" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
@@ -7443,17 +7463,17 @@
         <v>9008</v>
       </c>
       <c r="D349" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E349" s="2">
         <v>9008</v>
       </c>
       <c r="F349" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A350" s="2">
+      <c r="A350" s="1">
         <v>348</v>
       </c>
       <c r="B350" s="1">
@@ -7463,13 +7483,13 @@
         <v>9010</v>
       </c>
       <c r="D350" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E350" s="1">
         <v>9010</v>
       </c>
       <c r="F350" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
@@ -7483,13 +7503,13 @@
         <v>46</v>
       </c>
       <c r="D351" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E351" s="1">
         <v>46</v>
       </c>
       <c r="F351" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
@@ -7503,13 +7523,13 @@
         <v>73</v>
       </c>
       <c r="D352" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E352" s="1">
         <v>73</v>
       </c>
       <c r="F352" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -7523,13 +7543,13 @@
         <v>88</v>
       </c>
       <c r="D353" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E353" s="1">
         <v>88</v>
       </c>
       <c r="F353" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
@@ -7543,13 +7563,13 @@
         <v>9001</v>
       </c>
       <c r="D354" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E354" s="1">
         <v>9001</v>
       </c>
       <c r="F354" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -7563,13 +7583,13 @@
         <v>9008</v>
       </c>
       <c r="D355" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E355" s="2">
         <v>9008</v>
       </c>
       <c r="F355" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
@@ -7583,13 +7603,13 @@
         <v>9010</v>
       </c>
       <c r="D356" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E356" s="1">
         <v>9010</v>
       </c>
       <c r="F356" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -7603,17 +7623,17 @@
         <v>46</v>
       </c>
       <c r="D357" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E357" s="1">
         <v>46</v>
       </c>
       <c r="F357" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A358" s="2">
+      <c r="A358" s="1">
         <v>356</v>
       </c>
       <c r="B358" s="1">
@@ -7623,13 +7643,13 @@
         <v>73</v>
       </c>
       <c r="D358" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E358" s="1">
         <v>73</v>
       </c>
       <c r="F358" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
@@ -7643,13 +7663,13 @@
         <v>88</v>
       </c>
       <c r="D359" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E359" s="1">
         <v>88</v>
       </c>
       <c r="F359" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
@@ -7663,13 +7683,13 @@
         <v>9001</v>
       </c>
       <c r="D360" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E360" s="1">
         <v>9001</v>
       </c>
       <c r="F360" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -7683,13 +7703,13 @@
         <v>9008</v>
       </c>
       <c r="D361" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E361" s="2">
         <v>9008</v>
       </c>
       <c r="F361" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
@@ -7703,13 +7723,13 @@
         <v>9010</v>
       </c>
       <c r="D362" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E362" s="1">
         <v>9010</v>
       </c>
       <c r="F362" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
@@ -7723,13 +7743,13 @@
         <v>46</v>
       </c>
       <c r="D363" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E363" s="1">
         <v>46</v>
       </c>
       <c r="F363" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -7743,13 +7763,13 @@
         <v>73</v>
       </c>
       <c r="D364" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E364" s="1">
         <v>73</v>
       </c>
       <c r="F364" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -7763,17 +7783,17 @@
         <v>88</v>
       </c>
       <c r="D365" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E365" s="1">
         <v>88</v>
       </c>
       <c r="F365" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A366" s="2">
+      <c r="A366" s="1">
         <v>364</v>
       </c>
       <c r="B366" s="1">
@@ -7783,13 +7803,13 @@
         <v>9001</v>
       </c>
       <c r="D366" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E366" s="1">
         <v>9001</v>
       </c>
       <c r="F366" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
@@ -7803,13 +7823,13 @@
         <v>9008</v>
       </c>
       <c r="D367" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E367" s="2">
         <v>9008</v>
       </c>
       <c r="F367" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
@@ -7823,13 +7843,13 @@
         <v>9010</v>
       </c>
       <c r="D368" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E368" s="1">
         <v>9010</v>
       </c>
       <c r="F368" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
@@ -7843,13 +7863,13 @@
         <v>46</v>
       </c>
       <c r="D369" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E369" s="1">
         <v>46</v>
       </c>
       <c r="F369" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
@@ -7863,13 +7883,13 @@
         <v>73</v>
       </c>
       <c r="D370" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E370" s="1">
         <v>73</v>
       </c>
       <c r="F370" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
@@ -7883,13 +7903,13 @@
         <v>88</v>
       </c>
       <c r="D371" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E371" s="1">
         <v>88</v>
       </c>
       <c r="F371" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
@@ -7903,13 +7923,13 @@
         <v>9001</v>
       </c>
       <c r="D372" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E372" s="1">
         <v>9001</v>
       </c>
       <c r="F372" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
@@ -7923,17 +7943,17 @@
         <v>9008</v>
       </c>
       <c r="D373" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E373" s="2">
         <v>9008</v>
       </c>
       <c r="F373" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A374" s="2">
+      <c r="A374" s="1">
         <v>372</v>
       </c>
       <c r="B374" s="1">
@@ -7943,13 +7963,13 @@
         <v>9010</v>
       </c>
       <c r="D374" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E374" s="1">
         <v>9010</v>
       </c>
       <c r="F374" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
@@ -7963,13 +7983,13 @@
         <v>46</v>
       </c>
       <c r="D375" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E375" s="1">
         <v>46</v>
       </c>
       <c r="F375" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
@@ -7983,13 +8003,13 @@
         <v>73</v>
       </c>
       <c r="D376" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E376" s="1">
         <v>73</v>
       </c>
       <c r="F376" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
@@ -8003,13 +8023,13 @@
         <v>88</v>
       </c>
       <c r="D377" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E377" s="1">
         <v>88</v>
       </c>
       <c r="F377" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
@@ -8023,13 +8043,13 @@
         <v>9001</v>
       </c>
       <c r="D378" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E378" s="1">
         <v>9001</v>
       </c>
       <c r="F378" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
@@ -8043,13 +8063,13 @@
         <v>9008</v>
       </c>
       <c r="D379" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E379" s="2">
         <v>9008</v>
       </c>
       <c r="F379" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
@@ -8063,13 +8083,13 @@
         <v>9010</v>
       </c>
       <c r="D380" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E380" s="1">
         <v>9010</v>
       </c>
       <c r="F380" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
@@ -8083,17 +8103,17 @@
         <v>46</v>
       </c>
       <c r="D381" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E381" s="1">
         <v>46</v>
       </c>
       <c r="F381" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A382" s="2">
+      <c r="A382" s="1">
         <v>380</v>
       </c>
       <c r="B382" s="1">
@@ -8103,13 +8123,13 @@
         <v>73</v>
       </c>
       <c r="D382" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E382" s="1">
         <v>73</v>
       </c>
       <c r="F382" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
@@ -8123,13 +8143,13 @@
         <v>88</v>
       </c>
       <c r="D383" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E383" s="1">
         <v>88</v>
       </c>
       <c r="F383" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
@@ -8143,13 +8163,13 @@
         <v>9001</v>
       </c>
       <c r="D384" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E384" s="1">
         <v>9001</v>
       </c>
       <c r="F384" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
@@ -8163,13 +8183,13 @@
         <v>9008</v>
       </c>
       <c r="D385" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E385" s="2">
         <v>9008</v>
       </c>
       <c r="F385" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
@@ -8183,13 +8203,13 @@
         <v>9010</v>
       </c>
       <c r="D386" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E386" s="1">
         <v>9010</v>
       </c>
       <c r="F386" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
@@ -8203,13 +8223,13 @@
         <v>46</v>
       </c>
       <c r="D387" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E387" s="1">
         <v>46</v>
       </c>
       <c r="F387" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
@@ -8223,13 +8243,13 @@
         <v>73</v>
       </c>
       <c r="D388" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E388" s="1">
         <v>73</v>
       </c>
       <c r="F388" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
@@ -8243,17 +8263,17 @@
         <v>88</v>
       </c>
       <c r="D389" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E389" s="1">
         <v>88</v>
       </c>
       <c r="F389" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A390" s="2">
+      <c r="A390" s="1">
         <v>388</v>
       </c>
       <c r="B390" s="1">
@@ -8263,13 +8283,13 @@
         <v>9001</v>
       </c>
       <c r="D390" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E390" s="1">
         <v>9001</v>
       </c>
       <c r="F390" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
@@ -8283,13 +8303,13 @@
         <v>9008</v>
       </c>
       <c r="D391" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E391" s="2">
         <v>9008</v>
       </c>
       <c r="F391" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
@@ -8303,13 +8323,13 @@
         <v>9010</v>
       </c>
       <c r="D392" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E392" s="1">
         <v>9010</v>
       </c>
       <c r="F392" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
@@ -8323,13 +8343,13 @@
         <v>46</v>
       </c>
       <c r="D393" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E393" s="1">
         <v>46</v>
       </c>
       <c r="F393" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
@@ -8343,13 +8363,13 @@
         <v>73</v>
       </c>
       <c r="D394" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E394" s="1">
         <v>73</v>
       </c>
       <c r="F394" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
@@ -8363,13 +8383,13 @@
         <v>88</v>
       </c>
       <c r="D395" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E395" s="1">
         <v>88</v>
       </c>
       <c r="F395" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
@@ -8383,13 +8403,13 @@
         <v>9001</v>
       </c>
       <c r="D396" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E396" s="1">
         <v>9001</v>
       </c>
       <c r="F396" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
@@ -8403,17 +8423,17 @@
         <v>9008</v>
       </c>
       <c r="D397" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E397" s="2">
         <v>9008</v>
       </c>
       <c r="F397" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A398" s="2">
+      <c r="A398" s="1">
         <v>396</v>
       </c>
       <c r="B398" s="1">
@@ -8423,13 +8443,13 @@
         <v>9010</v>
       </c>
       <c r="D398" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E398" s="1">
         <v>9010</v>
       </c>
       <c r="F398" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
@@ -8443,13 +8463,13 @@
         <v>46</v>
       </c>
       <c r="D399" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E399" s="1">
         <v>46</v>
       </c>
       <c r="F399" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
@@ -8463,13 +8483,13 @@
         <v>73</v>
       </c>
       <c r="D400" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E400" s="1">
         <v>73</v>
       </c>
       <c r="F400" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
@@ -8483,13 +8503,13 @@
         <v>88</v>
       </c>
       <c r="D401" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E401" s="1">
         <v>88</v>
       </c>
       <c r="F401" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
@@ -8503,13 +8523,13 @@
         <v>9001</v>
       </c>
       <c r="D402" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E402" s="1">
         <v>9001</v>
       </c>
       <c r="F402" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
@@ -8523,13 +8543,13 @@
         <v>9008</v>
       </c>
       <c r="D403" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E403" s="2">
         <v>9008</v>
       </c>
       <c r="F403" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
@@ -8543,13 +8563,13 @@
         <v>9010</v>
       </c>
       <c r="D404" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E404" s="1">
         <v>9010</v>
       </c>
       <c r="F404" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
@@ -8563,17 +8583,17 @@
         <v>46</v>
       </c>
       <c r="D405" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E405" s="1">
         <v>46</v>
       </c>
       <c r="F405" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A406" s="2">
+      <c r="A406" s="1">
         <v>404</v>
       </c>
       <c r="B406" s="1">
@@ -8583,13 +8603,13 @@
         <v>73</v>
       </c>
       <c r="D406" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E406" s="1">
         <v>73</v>
       </c>
       <c r="F406" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
@@ -8603,13 +8623,13 @@
         <v>88</v>
       </c>
       <c r="D407" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E407" s="1">
         <v>88</v>
       </c>
       <c r="F407" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
@@ -8623,13 +8643,13 @@
         <v>9001</v>
       </c>
       <c r="D408" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E408" s="1">
         <v>9001</v>
       </c>
       <c r="F408" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
@@ -8643,13 +8663,13 @@
         <v>9008</v>
       </c>
       <c r="D409" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E409" s="2">
         <v>9008</v>
       </c>
       <c r="F409" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
@@ -8663,13 +8683,13 @@
         <v>9010</v>
       </c>
       <c r="D410" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E410" s="1">
         <v>9010</v>
       </c>
       <c r="F410" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
@@ -8683,13 +8703,13 @@
         <v>46</v>
       </c>
       <c r="D411" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E411" s="1">
         <v>46</v>
       </c>
       <c r="F411" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
@@ -8703,13 +8723,13 @@
         <v>73</v>
       </c>
       <c r="D412" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E412" s="1">
         <v>73</v>
       </c>
       <c r="F412" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
@@ -8723,17 +8743,17 @@
         <v>88</v>
       </c>
       <c r="D413" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E413" s="1">
         <v>88</v>
       </c>
       <c r="F413" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A414" s="2">
+      <c r="A414" s="1">
         <v>412</v>
       </c>
       <c r="B414" s="1">
@@ -8743,13 +8763,13 @@
         <v>9001</v>
       </c>
       <c r="D414" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E414" s="1">
         <v>9001</v>
       </c>
       <c r="F414" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
@@ -8763,13 +8783,13 @@
         <v>9008</v>
       </c>
       <c r="D415" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E415" s="2">
         <v>9008</v>
       </c>
       <c r="F415" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
@@ -8783,13 +8803,13 @@
         <v>9010</v>
       </c>
       <c r="D416" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E416" s="1">
         <v>9010</v>
       </c>
       <c r="F416" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
@@ -8803,13 +8823,13 @@
         <v>46</v>
       </c>
       <c r="D417" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E417" s="1">
         <v>46</v>
       </c>
       <c r="F417" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
@@ -8823,13 +8843,13 @@
         <v>73</v>
       </c>
       <c r="D418" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E418" s="1">
         <v>73</v>
       </c>
       <c r="F418" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
@@ -8843,13 +8863,13 @@
         <v>88</v>
       </c>
       <c r="D419" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E419" s="1">
         <v>88</v>
       </c>
       <c r="F419" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
@@ -8863,13 +8883,13 @@
         <v>9001</v>
       </c>
       <c r="D420" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E420" s="1">
         <v>9001</v>
       </c>
       <c r="F420" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
@@ -8883,17 +8903,17 @@
         <v>9008</v>
       </c>
       <c r="D421" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E421" s="2">
         <v>9008</v>
       </c>
       <c r="F421" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A422" s="2">
+      <c r="A422" s="1">
         <v>420</v>
       </c>
       <c r="B422" s="1">
@@ -8903,13 +8923,13 @@
         <v>9010</v>
       </c>
       <c r="D422" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E422" s="1">
         <v>9010</v>
       </c>
       <c r="F422" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
@@ -8923,13 +8943,13 @@
         <v>46</v>
       </c>
       <c r="D423" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E423" s="1">
         <v>46</v>
       </c>
       <c r="F423" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
@@ -8943,13 +8963,13 @@
         <v>73</v>
       </c>
       <c r="D424" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E424" s="1">
         <v>73</v>
       </c>
       <c r="F424" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
@@ -8963,13 +8983,13 @@
         <v>88</v>
       </c>
       <c r="D425" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E425" s="1">
         <v>88</v>
       </c>
       <c r="F425" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
@@ -8983,13 +9003,13 @@
         <v>9001</v>
       </c>
       <c r="D426" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E426" s="1">
         <v>9001</v>
       </c>
       <c r="F426" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
@@ -9003,13 +9023,13 @@
         <v>9008</v>
       </c>
       <c r="D427" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E427" s="2">
         <v>9008</v>
       </c>
       <c r="F427" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
@@ -9023,13 +9043,13 @@
         <v>9010</v>
       </c>
       <c r="D428" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E428" s="1">
         <v>9010</v>
       </c>
       <c r="F428" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
@@ -9043,17 +9063,17 @@
         <v>46</v>
       </c>
       <c r="D429" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E429" s="1">
         <v>46</v>
       </c>
       <c r="F429" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A430" s="2">
+      <c r="A430" s="1">
         <v>428</v>
       </c>
       <c r="B430" s="1">
@@ -9063,13 +9083,13 @@
         <v>73</v>
       </c>
       <c r="D430" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E430" s="1">
         <v>73</v>
       </c>
       <c r="F430" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
@@ -9083,13 +9103,13 @@
         <v>88</v>
       </c>
       <c r="D431" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E431" s="1">
         <v>88</v>
       </c>
       <c r="F431" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
@@ -9103,13 +9123,13 @@
         <v>9001</v>
       </c>
       <c r="D432" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E432" s="1">
         <v>9001</v>
       </c>
       <c r="F432" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
@@ -9123,13 +9143,13 @@
         <v>9008</v>
       </c>
       <c r="D433" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E433" s="2">
         <v>9008</v>
       </c>
       <c r="F433" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
@@ -9143,13 +9163,13 @@
         <v>9010</v>
       </c>
       <c r="D434" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E434" s="1">
         <v>9010</v>
       </c>
       <c r="F434" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
@@ -9163,13 +9183,13 @@
         <v>46</v>
       </c>
       <c r="D435" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E435" s="1">
         <v>46</v>
       </c>
       <c r="F435" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
@@ -9183,13 +9203,13 @@
         <v>73</v>
       </c>
       <c r="D436" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E436" s="1">
         <v>73</v>
       </c>
       <c r="F436" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
@@ -9203,17 +9223,17 @@
         <v>88</v>
       </c>
       <c r="D437" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E437" s="1">
         <v>88</v>
       </c>
       <c r="F437" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A438" s="2">
+      <c r="A438" s="1">
         <v>436</v>
       </c>
       <c r="B438" s="1">
@@ -9223,13 +9243,13 @@
         <v>9001</v>
       </c>
       <c r="D438" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E438" s="1">
         <v>9001</v>
       </c>
       <c r="F438" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
@@ -9243,13 +9263,13 @@
         <v>9008</v>
       </c>
       <c r="D439" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E439" s="2">
         <v>9008</v>
       </c>
       <c r="F439" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
@@ -9263,13 +9283,13 @@
         <v>9010</v>
       </c>
       <c r="D440" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E440" s="1">
         <v>9010</v>
       </c>
       <c r="F440" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
@@ -9283,13 +9303,13 @@
         <v>46</v>
       </c>
       <c r="D441" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E441" s="1">
         <v>46</v>
       </c>
       <c r="F441" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
@@ -9303,13 +9323,13 @@
         <v>73</v>
       </c>
       <c r="D442" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E442" s="1">
         <v>73</v>
       </c>
       <c r="F442" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
@@ -9323,13 +9343,13 @@
         <v>88</v>
       </c>
       <c r="D443" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E443" s="1">
         <v>88</v>
       </c>
       <c r="F443" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
@@ -9343,13 +9363,13 @@
         <v>9001</v>
       </c>
       <c r="D444" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E444" s="1">
         <v>9001</v>
       </c>
       <c r="F444" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
@@ -9363,17 +9383,17 @@
         <v>9008</v>
       </c>
       <c r="D445" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E445" s="2">
         <v>9008</v>
       </c>
       <c r="F445" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A446" s="2">
+      <c r="A446" s="1">
         <v>444</v>
       </c>
       <c r="B446" s="1">
@@ -9383,13 +9403,13 @@
         <v>9010</v>
       </c>
       <c r="D446" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E446" s="1">
         <v>9010</v>
       </c>
       <c r="F446" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
@@ -9403,13 +9423,13 @@
         <v>46</v>
       </c>
       <c r="D447" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E447" s="1">
         <v>46</v>
       </c>
       <c r="F447" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
@@ -9423,13 +9443,13 @@
         <v>73</v>
       </c>
       <c r="D448" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E448" s="1">
         <v>73</v>
       </c>
       <c r="F448" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.3">
@@ -9443,13 +9463,13 @@
         <v>88</v>
       </c>
       <c r="D449" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E449" s="1">
         <v>88</v>
       </c>
       <c r="F449" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
@@ -9463,13 +9483,13 @@
         <v>9001</v>
       </c>
       <c r="D450" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E450" s="1">
         <v>9001</v>
       </c>
       <c r="F450" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
@@ -9483,13 +9503,13 @@
         <v>9008</v>
       </c>
       <c r="D451" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E451" s="2">
         <v>9008</v>
       </c>
       <c r="F451" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
@@ -9503,13 +9523,13 @@
         <v>9010</v>
       </c>
       <c r="D452" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E452" s="1">
         <v>9010</v>
       </c>
       <c r="F452" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.3">
@@ -9523,17 +9543,17 @@
         <v>46</v>
       </c>
       <c r="D453" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E453" s="1">
         <v>46</v>
       </c>
       <c r="F453" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A454" s="2">
+      <c r="A454" s="1">
         <v>452</v>
       </c>
       <c r="B454" s="1">
@@ -9543,13 +9563,13 @@
         <v>73</v>
       </c>
       <c r="D454" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E454" s="1">
         <v>73</v>
       </c>
       <c r="F454" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
@@ -9563,13 +9583,13 @@
         <v>88</v>
       </c>
       <c r="D455" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E455" s="1">
         <v>88</v>
       </c>
       <c r="F455" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
@@ -9583,13 +9603,13 @@
         <v>9001</v>
       </c>
       <c r="D456" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E456" s="1">
         <v>9001</v>
       </c>
       <c r="F456" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
@@ -9603,13 +9623,13 @@
         <v>9008</v>
       </c>
       <c r="D457" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E457" s="2">
         <v>9008</v>
       </c>
       <c r="F457" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.3">
@@ -9623,13 +9643,13 @@
         <v>9010</v>
       </c>
       <c r="D458" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E458" s="1">
         <v>9010</v>
       </c>
       <c r="F458" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
@@ -9643,13 +9663,13 @@
         <v>46</v>
       </c>
       <c r="D459" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E459" s="1">
         <v>46</v>
       </c>
       <c r="F459" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
@@ -9663,13 +9683,13 @@
         <v>73</v>
       </c>
       <c r="D460" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E460" s="1">
         <v>73</v>
       </c>
       <c r="F460" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
@@ -9683,17 +9703,17 @@
         <v>88</v>
       </c>
       <c r="D461" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E461" s="1">
         <v>88</v>
       </c>
       <c r="F461" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A462" s="2">
+      <c r="A462" s="1">
         <v>460</v>
       </c>
       <c r="B462" s="1">
@@ -9703,13 +9723,13 @@
         <v>9001</v>
       </c>
       <c r="D462" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E462" s="1">
         <v>9001</v>
       </c>
       <c r="F462" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
@@ -9723,13 +9743,13 @@
         <v>9008</v>
       </c>
       <c r="D463" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E463" s="2">
         <v>9008</v>
       </c>
       <c r="F463" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
@@ -9743,13 +9763,13 @@
         <v>9010</v>
       </c>
       <c r="D464" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E464" s="1">
         <v>9010</v>
       </c>
       <c r="F464" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
@@ -9763,13 +9783,13 @@
         <v>46</v>
       </c>
       <c r="D465" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E465" s="1">
         <v>46</v>
       </c>
       <c r="F465" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
@@ -9783,13 +9803,13 @@
         <v>73</v>
       </c>
       <c r="D466" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E466" s="1">
         <v>73</v>
       </c>
       <c r="F466" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
@@ -9803,13 +9823,13 @@
         <v>88</v>
       </c>
       <c r="D467" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E467" s="1">
         <v>88</v>
       </c>
       <c r="F467" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
@@ -9823,13 +9843,13 @@
         <v>9001</v>
       </c>
       <c r="D468" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E468" s="1">
         <v>9001</v>
       </c>
       <c r="F468" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
@@ -9843,17 +9863,17 @@
         <v>9008</v>
       </c>
       <c r="D469" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E469" s="2">
         <v>9008</v>
       </c>
       <c r="F469" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A470" s="2">
+      <c r="A470" s="1">
         <v>468</v>
       </c>
       <c r="B470" s="1">
@@ -9863,13 +9883,13 @@
         <v>9010</v>
       </c>
       <c r="D470" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E470" s="1">
         <v>9010</v>
       </c>
       <c r="F470" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
@@ -9883,13 +9903,13 @@
         <v>46</v>
       </c>
       <c r="D471" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E471" s="1">
         <v>46</v>
       </c>
       <c r="F471" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
@@ -9903,13 +9923,13 @@
         <v>73</v>
       </c>
       <c r="D472" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E472" s="1">
         <v>73</v>
       </c>
       <c r="F472" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
@@ -9923,13 +9943,13 @@
         <v>88</v>
       </c>
       <c r="D473" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E473" s="1">
         <v>88</v>
       </c>
       <c r="F473" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
@@ -9943,13 +9963,13 @@
         <v>9001</v>
       </c>
       <c r="D474" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E474" s="1">
         <v>9001</v>
       </c>
       <c r="F474" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.3">
@@ -9963,13 +9983,13 @@
         <v>9008</v>
       </c>
       <c r="D475" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E475" s="2">
         <v>9008</v>
       </c>
       <c r="F475" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
@@ -9983,13 +10003,13 @@
         <v>9010</v>
       </c>
       <c r="D476" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E476" s="1">
         <v>9010</v>
       </c>
       <c r="F476" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.3">
@@ -10003,17 +10023,17 @@
         <v>46</v>
       </c>
       <c r="D477" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E477" s="1">
         <v>46</v>
       </c>
       <c r="F477" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A478" s="2">
+      <c r="A478" s="1">
         <v>476</v>
       </c>
       <c r="B478" s="1">
@@ -10023,13 +10043,13 @@
         <v>73</v>
       </c>
       <c r="D478" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E478" s="1">
         <v>73</v>
       </c>
       <c r="F478" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
@@ -10043,13 +10063,13 @@
         <v>88</v>
       </c>
       <c r="D479" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E479" s="1">
         <v>88</v>
       </c>
       <c r="F479" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.3">
@@ -10063,13 +10083,13 @@
         <v>9001</v>
       </c>
       <c r="D480" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E480" s="1">
         <v>9001</v>
       </c>
       <c r="F480" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.3">
@@ -10083,13 +10103,13 @@
         <v>9008</v>
       </c>
       <c r="D481" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E481" s="2">
         <v>9008</v>
       </c>
       <c r="F481" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
@@ -10103,13 +10123,13 @@
         <v>9010</v>
       </c>
       <c r="D482" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E482" s="1">
         <v>9010</v>
       </c>
       <c r="F482" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
@@ -10123,13 +10143,13 @@
         <v>46</v>
       </c>
       <c r="D483" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E483" s="1">
         <v>46</v>
       </c>
       <c r="F483" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.3">
@@ -10143,13 +10163,13 @@
         <v>73</v>
       </c>
       <c r="D484" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E484" s="1">
         <v>73</v>
       </c>
       <c r="F484" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.3">
@@ -10163,17 +10183,17 @@
         <v>88</v>
       </c>
       <c r="D485" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E485" s="1">
         <v>88</v>
       </c>
       <c r="F485" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A486" s="2">
+      <c r="A486" s="1">
         <v>484</v>
       </c>
       <c r="B486" s="1">
@@ -10183,13 +10203,13 @@
         <v>9001</v>
       </c>
       <c r="D486" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E486" s="1">
         <v>9001</v>
       </c>
       <c r="F486" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
@@ -10203,13 +10223,13 @@
         <v>9008</v>
       </c>
       <c r="D487" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E487" s="2">
         <v>9008</v>
       </c>
       <c r="F487" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.3">
@@ -10223,13 +10243,13 @@
         <v>9010</v>
       </c>
       <c r="D488" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E488" s="1">
         <v>9010</v>
       </c>
       <c r="F488" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.3">
@@ -10243,13 +10263,13 @@
         <v>46</v>
       </c>
       <c r="D489" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E489" s="1">
         <v>46</v>
       </c>
       <c r="F489" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.3">
@@ -10263,13 +10283,13 @@
         <v>73</v>
       </c>
       <c r="D490" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E490" s="1">
         <v>73</v>
       </c>
       <c r="F490" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.3">
@@ -10283,13 +10303,13 @@
         <v>88</v>
       </c>
       <c r="D491" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E491" s="1">
         <v>88</v>
       </c>
       <c r="F491" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.3">
@@ -10303,13 +10323,13 @@
         <v>9001</v>
       </c>
       <c r="D492" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E492" s="1">
         <v>9001</v>
       </c>
       <c r="F492" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.3">
@@ -10323,17 +10343,17 @@
         <v>9008</v>
       </c>
       <c r="D493" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E493" s="2">
         <v>9008</v>
       </c>
       <c r="F493" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A494" s="2">
+      <c r="A494" s="1">
         <v>492</v>
       </c>
       <c r="B494" s="1">
@@ -10343,13 +10363,13 @@
         <v>9010</v>
       </c>
       <c r="D494" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E494" s="1">
         <v>9010</v>
       </c>
       <c r="F494" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.3">
@@ -10363,13 +10383,13 @@
         <v>46</v>
       </c>
       <c r="D495" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E495" s="1">
         <v>46</v>
       </c>
       <c r="F495" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.3">
@@ -10383,13 +10403,13 @@
         <v>73</v>
       </c>
       <c r="D496" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E496" s="1">
         <v>73</v>
       </c>
       <c r="F496" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.3">
@@ -10403,13 +10423,13 @@
         <v>88</v>
       </c>
       <c r="D497" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E497" s="1">
         <v>88</v>
       </c>
       <c r="F497" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.3">
@@ -10423,13 +10443,13 @@
         <v>9001</v>
       </c>
       <c r="D498" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E498" s="1">
         <v>9001</v>
       </c>
       <c r="F498" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.3">
@@ -10443,13 +10463,13 @@
         <v>9008</v>
       </c>
       <c r="D499" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E499" s="2">
         <v>9008</v>
       </c>
       <c r="F499" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.3">
@@ -10463,13 +10483,13 @@
         <v>9010</v>
       </c>
       <c r="D500" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E500" s="1">
         <v>9010</v>
       </c>
       <c r="F500" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.3">
@@ -10483,17 +10503,17 @@
         <v>46</v>
       </c>
       <c r="D501" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E501" s="1">
         <v>46</v>
       </c>
       <c r="F501" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A502" s="2">
+      <c r="A502" s="1">
         <v>500</v>
       </c>
       <c r="B502" s="1">
@@ -10503,13 +10523,13 @@
         <v>73</v>
       </c>
       <c r="D502" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E502" s="1">
         <v>73</v>
       </c>
       <c r="F502" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.3">
@@ -10523,13 +10543,13 @@
         <v>88</v>
       </c>
       <c r="D503" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E503" s="1">
         <v>88</v>
       </c>
       <c r="F503" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.3">
@@ -10543,13 +10563,13 @@
         <v>9001</v>
       </c>
       <c r="D504" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E504" s="1">
         <v>9001</v>
       </c>
       <c r="F504" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.3">
@@ -10563,13 +10583,13 @@
         <v>9008</v>
       </c>
       <c r="D505" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E505" s="2">
         <v>9008</v>
       </c>
       <c r="F505" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.3">
@@ -10583,13 +10603,13 @@
         <v>9010</v>
       </c>
       <c r="D506" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E506" s="1">
         <v>9010</v>
       </c>
       <c r="F506" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.3">
@@ -10603,13 +10623,13 @@
         <v>46</v>
       </c>
       <c r="D507" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E507" s="1">
         <v>46</v>
       </c>
       <c r="F507" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.3">
@@ -10623,13 +10643,13 @@
         <v>73</v>
       </c>
       <c r="D508" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E508" s="1">
         <v>73</v>
       </c>
       <c r="F508" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.3">
@@ -10643,17 +10663,17 @@
         <v>88</v>
       </c>
       <c r="D509" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E509" s="1">
         <v>88</v>
       </c>
       <c r="F509" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A510" s="2">
+      <c r="A510" s="1">
         <v>508</v>
       </c>
       <c r="B510" s="1">
@@ -10663,13 +10683,13 @@
         <v>9001</v>
       </c>
       <c r="D510" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E510" s="1">
         <v>9001</v>
       </c>
       <c r="F510" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.3">
@@ -10683,13 +10703,13 @@
         <v>9008</v>
       </c>
       <c r="D511" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E511" s="2">
         <v>9008</v>
       </c>
       <c r="F511" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.3">
@@ -10703,13 +10723,13 @@
         <v>9010</v>
       </c>
       <c r="D512" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E512" s="1">
         <v>9010</v>
       </c>
       <c r="F512" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.3">
@@ -10723,13 +10743,13 @@
         <v>46</v>
       </c>
       <c r="D513" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E513" s="1">
         <v>46</v>
       </c>
       <c r="F513" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.3">
@@ -10743,13 +10763,13 @@
         <v>73</v>
       </c>
       <c r="D514" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E514" s="1">
         <v>73</v>
       </c>
       <c r="F514" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.3">
@@ -10763,13 +10783,13 @@
         <v>88</v>
       </c>
       <c r="D515" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E515" s="1">
         <v>88</v>
       </c>
       <c r="F515" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.3">
@@ -10783,13 +10803,13 @@
         <v>9001</v>
       </c>
       <c r="D516" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E516" s="1">
         <v>9001</v>
       </c>
       <c r="F516" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.3">
@@ -10803,17 +10823,17 @@
         <v>9008</v>
       </c>
       <c r="D517" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E517" s="2">
         <v>9008</v>
       </c>
       <c r="F517" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A518" s="2">
+      <c r="A518" s="1">
         <v>516</v>
       </c>
       <c r="B518" s="1">
@@ -10823,13 +10843,13 @@
         <v>9010</v>
       </c>
       <c r="D518" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E518" s="1">
         <v>9010</v>
       </c>
       <c r="F518" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.3">
@@ -10843,13 +10863,13 @@
         <v>46</v>
       </c>
       <c r="D519" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E519" s="1">
         <v>46</v>
       </c>
       <c r="F519" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.3">
@@ -10863,13 +10883,13 @@
         <v>73</v>
       </c>
       <c r="D520" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E520" s="1">
         <v>73</v>
       </c>
       <c r="F520" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.3">
@@ -10883,13 +10903,13 @@
         <v>88</v>
       </c>
       <c r="D521" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E521" s="1">
         <v>88</v>
       </c>
       <c r="F521" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.3">
@@ -10903,13 +10923,13 @@
         <v>9001</v>
       </c>
       <c r="D522" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E522" s="1">
         <v>9001</v>
       </c>
       <c r="F522" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.3">
@@ -10923,13 +10943,13 @@
         <v>9008</v>
       </c>
       <c r="D523" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E523" s="2">
         <v>9008</v>
       </c>
       <c r="F523" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.3">
@@ -10943,13 +10963,13 @@
         <v>9010</v>
       </c>
       <c r="D524" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E524" s="1">
         <v>9010</v>
       </c>
       <c r="F524" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.3">
@@ -10963,13 +10983,13 @@
         <v>46</v>
       </c>
       <c r="D525" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E525" s="1">
         <v>46</v>
       </c>
       <c r="F525" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.3">
@@ -10983,13 +11003,13 @@
         <v>73</v>
       </c>
       <c r="D526" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E526" s="1">
         <v>73</v>
       </c>
       <c r="F526" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.3">
@@ -11003,13 +11023,13 @@
         <v>88</v>
       </c>
       <c r="D527" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E527" s="1">
         <v>88</v>
       </c>
       <c r="F527" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.3">
@@ -11023,13 +11043,13 @@
         <v>9001</v>
       </c>
       <c r="D528" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E528" s="1">
         <v>9001</v>
       </c>
       <c r="F528" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.3">
@@ -11043,13 +11063,13 @@
         <v>9008</v>
       </c>
       <c r="D529" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E529" s="2">
         <v>9008</v>
       </c>
       <c r="F529" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.3">
@@ -11063,13 +11083,13 @@
         <v>9010</v>
       </c>
       <c r="D530" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E530" s="1">
         <v>9010</v>
       </c>
       <c r="F530" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.3">
@@ -11083,13 +11103,13 @@
         <v>46</v>
       </c>
       <c r="D531" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E531" s="1">
         <v>46</v>
       </c>
       <c r="F531" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.3">
@@ -11103,13 +11123,13 @@
         <v>73</v>
       </c>
       <c r="D532" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E532" s="1">
         <v>73</v>
       </c>
       <c r="F532" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.3">
@@ -11123,13 +11143,13 @@
         <v>88</v>
       </c>
       <c r="D533" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E533" s="1">
         <v>88</v>
       </c>
       <c r="F533" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.3">
@@ -11143,13 +11163,13 @@
         <v>9001</v>
       </c>
       <c r="D534" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E534" s="1">
         <v>9001</v>
       </c>
       <c r="F534" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.3">
@@ -11163,13 +11183,13 @@
         <v>9008</v>
       </c>
       <c r="D535" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E535" s="2">
         <v>9008</v>
       </c>
       <c r="F535" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.3">
@@ -11183,13 +11203,13 @@
         <v>9010</v>
       </c>
       <c r="D536" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E536" s="1">
         <v>9010</v>
       </c>
       <c r="F536" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.3">
@@ -11203,13 +11223,13 @@
         <v>46</v>
       </c>
       <c r="D537" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E537" s="1">
         <v>46</v>
       </c>
       <c r="F537" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.3">
@@ -11223,13 +11243,13 @@
         <v>73</v>
       </c>
       <c r="D538" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E538" s="1">
         <v>73</v>
       </c>
       <c r="F538" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.3">
@@ -11243,13 +11263,13 @@
         <v>88</v>
       </c>
       <c r="D539" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E539" s="1">
         <v>88</v>
       </c>
       <c r="F539" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.3">
@@ -11263,13 +11283,13 @@
         <v>9001</v>
       </c>
       <c r="D540" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E540" s="1">
         <v>9001</v>
       </c>
       <c r="F540" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.3">
@@ -11283,13 +11303,13 @@
         <v>9008</v>
       </c>
       <c r="D541" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E541" s="2">
         <v>9008</v>
       </c>
       <c r="F541" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.3">
@@ -11303,13 +11323,13 @@
         <v>9010</v>
       </c>
       <c r="D542" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E542" s="1">
         <v>9010</v>
       </c>
       <c r="F542" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.3">
@@ -11323,13 +11343,13 @@
         <v>46</v>
       </c>
       <c r="D543" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E543" s="1">
         <v>46</v>
       </c>
       <c r="F543" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.3">
@@ -11343,13 +11363,13 @@
         <v>73</v>
       </c>
       <c r="D544" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E544" s="1">
         <v>73</v>
       </c>
       <c r="F544" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.3">
@@ -11363,13 +11383,13 @@
         <v>88</v>
       </c>
       <c r="D545" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E545" s="1">
         <v>88</v>
       </c>
       <c r="F545" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.3">
@@ -11383,13 +11403,13 @@
         <v>9001</v>
       </c>
       <c r="D546" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E546" s="1">
         <v>9001</v>
       </c>
       <c r="F546" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.3">
@@ -11403,13 +11423,13 @@
         <v>9008</v>
       </c>
       <c r="D547" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E547" s="2">
         <v>9008</v>
       </c>
       <c r="F547" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.3">
@@ -11423,13 +11443,13 @@
         <v>9010</v>
       </c>
       <c r="D548" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E548" s="1">
         <v>9010</v>
       </c>
       <c r="F548" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.3">
@@ -11443,13 +11463,13 @@
         <v>46</v>
       </c>
       <c r="D549" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E549" s="1">
         <v>46</v>
       </c>
       <c r="F549" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.3">
@@ -11463,13 +11483,13 @@
         <v>73</v>
       </c>
       <c r="D550" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E550" s="1">
         <v>73</v>
       </c>
       <c r="F550" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.3">
@@ -11483,13 +11503,13 @@
         <v>88</v>
       </c>
       <c r="D551" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E551" s="1">
         <v>88</v>
       </c>
       <c r="F551" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.3">
@@ -11503,13 +11523,13 @@
         <v>9001</v>
       </c>
       <c r="D552" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E552" s="1">
         <v>9001</v>
       </c>
       <c r="F552" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.3">
@@ -11523,13 +11543,13 @@
         <v>9008</v>
       </c>
       <c r="D553" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E553" s="2">
         <v>9008</v>
       </c>
       <c r="F553" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.3">
@@ -11543,13 +11563,13 @@
         <v>9010</v>
       </c>
       <c r="D554" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E554" s="1">
         <v>9010</v>
       </c>
       <c r="F554" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.3">
@@ -11563,13 +11583,13 @@
         <v>46</v>
       </c>
       <c r="D555" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E555" s="1">
         <v>46</v>
       </c>
       <c r="F555" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.3">
@@ -11583,13 +11603,13 @@
         <v>73</v>
       </c>
       <c r="D556" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E556" s="1">
         <v>73</v>
       </c>
       <c r="F556" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.3">
@@ -11603,13 +11623,13 @@
         <v>88</v>
       </c>
       <c r="D557" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E557" s="1">
         <v>88</v>
       </c>
       <c r="F557" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.3">
@@ -11623,13 +11643,13 @@
         <v>9001</v>
       </c>
       <c r="D558" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E558" s="1">
         <v>9001</v>
       </c>
       <c r="F558" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.3">
@@ -11643,13 +11663,13 @@
         <v>9008</v>
       </c>
       <c r="D559" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E559" s="2">
         <v>9008</v>
       </c>
       <c r="F559" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.3">
@@ -11663,13 +11683,13 @@
         <v>9010</v>
       </c>
       <c r="D560" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E560" s="1">
         <v>9010</v>
       </c>
       <c r="F560" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MonthlyPass2.xlsx
+++ b/Assets/06.Table/MonthlyPass2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29A4C04-B66B-4D54-8841-E5E2F20AC47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C440ECF-C236-4000-AE96-ED10A3F36E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="monthpass2" sheetId="1" r:id="rId1"/>
@@ -478,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:F560"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A541" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D555" sqref="D555"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -523,13 +523,13 @@
         <v>46</v>
       </c>
       <c r="D2" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E2" s="1">
         <v>46</v>
       </c>
       <c r="F2" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -543,13 +543,13 @@
         <v>73</v>
       </c>
       <c r="D3" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E3" s="1">
         <v>73</v>
       </c>
       <c r="F3" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -563,13 +563,13 @@
         <v>88</v>
       </c>
       <c r="D4" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E4" s="1">
         <v>88</v>
       </c>
       <c r="F4" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -583,13 +583,13 @@
         <v>9001</v>
       </c>
       <c r="D5" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E5" s="1">
         <v>9001</v>
       </c>
       <c r="F5" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -603,13 +603,13 @@
         <v>9008</v>
       </c>
       <c r="D6" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E6" s="2">
         <v>9008</v>
       </c>
       <c r="F6" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -623,13 +623,13 @@
         <v>9010</v>
       </c>
       <c r="D7" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E7" s="1">
         <v>9010</v>
       </c>
       <c r="F7" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -640,13 +640,13 @@
         <v>2000000</v>
       </c>
       <c r="C8" s="3">
-        <v>8605</v>
+        <v>8607</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="3">
-        <v>1292</v>
+        <v>1409</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -663,13 +663,13 @@
         <v>46</v>
       </c>
       <c r="D9" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E9" s="1">
         <v>46</v>
       </c>
       <c r="F9" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -683,13 +683,13 @@
         <v>73</v>
       </c>
       <c r="D10" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E10" s="1">
         <v>73</v>
       </c>
       <c r="F10" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -703,13 +703,13 @@
         <v>88</v>
       </c>
       <c r="D11" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E11" s="1">
         <v>88</v>
       </c>
       <c r="F11" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -723,13 +723,13 @@
         <v>9001</v>
       </c>
       <c r="D12" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E12" s="1">
         <v>9001</v>
       </c>
       <c r="F12" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -743,13 +743,13 @@
         <v>9008</v>
       </c>
       <c r="D13" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E13" s="2">
         <v>9008</v>
       </c>
       <c r="F13" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -763,13 +763,13 @@
         <v>9010</v>
       </c>
       <c r="D14" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E14" s="1">
         <v>9010</v>
       </c>
       <c r="F14" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -783,13 +783,13 @@
         <v>46</v>
       </c>
       <c r="D15" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E15" s="1">
         <v>46</v>
       </c>
       <c r="F15" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -803,13 +803,13 @@
         <v>73</v>
       </c>
       <c r="D16" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E16" s="1">
         <v>73</v>
       </c>
       <c r="F16" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -823,13 +823,13 @@
         <v>88</v>
       </c>
       <c r="D17" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E17" s="1">
         <v>88</v>
       </c>
       <c r="F17" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -843,13 +843,13 @@
         <v>9001</v>
       </c>
       <c r="D18" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E18" s="1">
         <v>9001</v>
       </c>
       <c r="F18" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -863,13 +863,13 @@
         <v>9008</v>
       </c>
       <c r="D19" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E19" s="2">
         <v>9008</v>
       </c>
       <c r="F19" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -883,13 +883,13 @@
         <v>9010</v>
       </c>
       <c r="D20" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E20" s="1">
         <v>9010</v>
       </c>
       <c r="F20" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -903,13 +903,13 @@
         <v>46</v>
       </c>
       <c r="D21" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E21" s="1">
         <v>46</v>
       </c>
       <c r="F21" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -923,13 +923,13 @@
         <v>73</v>
       </c>
       <c r="D22" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E22" s="1">
         <v>73</v>
       </c>
       <c r="F22" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -943,13 +943,13 @@
         <v>88</v>
       </c>
       <c r="D23" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E23" s="1">
         <v>88</v>
       </c>
       <c r="F23" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -963,13 +963,13 @@
         <v>9001</v>
       </c>
       <c r="D24" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E24" s="1">
         <v>9001</v>
       </c>
       <c r="F24" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -983,13 +983,13 @@
         <v>9008</v>
       </c>
       <c r="D25" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E25" s="2">
         <v>9008</v>
       </c>
       <c r="F25" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1003,13 +1003,13 @@
         <v>9010</v>
       </c>
       <c r="D26" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E26" s="1">
         <v>9010</v>
       </c>
       <c r="F26" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1023,13 +1023,13 @@
         <v>46</v>
       </c>
       <c r="D27" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E27" s="1">
         <v>46</v>
       </c>
       <c r="F27" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1043,13 +1043,13 @@
         <v>73</v>
       </c>
       <c r="D28" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E28" s="1">
         <v>73</v>
       </c>
       <c r="F28" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1063,13 +1063,13 @@
         <v>88</v>
       </c>
       <c r="D29" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E29" s="1">
         <v>88</v>
       </c>
       <c r="F29" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1083,13 +1083,13 @@
         <v>9001</v>
       </c>
       <c r="D30" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E30" s="1">
         <v>9001</v>
       </c>
       <c r="F30" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1103,13 +1103,13 @@
         <v>9008</v>
       </c>
       <c r="D31" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E31" s="2">
         <v>9008</v>
       </c>
       <c r="F31" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1123,13 +1123,13 @@
         <v>9010</v>
       </c>
       <c r="D32" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E32" s="1">
         <v>9010</v>
       </c>
       <c r="F32" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1143,13 +1143,13 @@
         <v>46</v>
       </c>
       <c r="D33" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E33" s="1">
         <v>46</v>
       </c>
       <c r="F33" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1163,13 +1163,13 @@
         <v>73</v>
       </c>
       <c r="D34" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E34" s="1">
         <v>73</v>
       </c>
       <c r="F34" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1183,13 +1183,13 @@
         <v>88</v>
       </c>
       <c r="D35" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E35" s="1">
         <v>88</v>
       </c>
       <c r="F35" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1203,13 +1203,13 @@
         <v>9001</v>
       </c>
       <c r="D36" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E36" s="1">
         <v>9001</v>
       </c>
       <c r="F36" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1223,13 +1223,13 @@
         <v>9008</v>
       </c>
       <c r="D37" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E37" s="2">
         <v>9008</v>
       </c>
       <c r="F37" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1243,13 +1243,13 @@
         <v>9010</v>
       </c>
       <c r="D38" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E38" s="1">
         <v>9010</v>
       </c>
       <c r="F38" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1263,13 +1263,13 @@
         <v>46</v>
       </c>
       <c r="D39" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E39" s="1">
         <v>46</v>
       </c>
       <c r="F39" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1283,13 +1283,13 @@
         <v>73</v>
       </c>
       <c r="D40" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E40" s="1">
         <v>73</v>
       </c>
       <c r="F40" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1303,13 +1303,13 @@
         <v>88</v>
       </c>
       <c r="D41" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E41" s="1">
         <v>88</v>
       </c>
       <c r="F41" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1323,13 +1323,13 @@
         <v>9001</v>
       </c>
       <c r="D42" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E42" s="1">
         <v>9001</v>
       </c>
       <c r="F42" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1343,13 +1343,13 @@
         <v>9008</v>
       </c>
       <c r="D43" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E43" s="2">
         <v>9008</v>
       </c>
       <c r="F43" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1363,13 +1363,13 @@
         <v>9010</v>
       </c>
       <c r="D44" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E44" s="1">
         <v>9010</v>
       </c>
       <c r="F44" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1383,13 +1383,13 @@
         <v>46</v>
       </c>
       <c r="D45" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E45" s="1">
         <v>46</v>
       </c>
       <c r="F45" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1403,13 +1403,13 @@
         <v>73</v>
       </c>
       <c r="D46" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E46" s="1">
         <v>73</v>
       </c>
       <c r="F46" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1423,13 +1423,13 @@
         <v>88</v>
       </c>
       <c r="D47" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E47" s="1">
         <v>88</v>
       </c>
       <c r="F47" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1443,13 +1443,13 @@
         <v>9001</v>
       </c>
       <c r="D48" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E48" s="1">
         <v>9001</v>
       </c>
       <c r="F48" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1463,13 +1463,13 @@
         <v>9008</v>
       </c>
       <c r="D49" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E49" s="2">
         <v>9008</v>
       </c>
       <c r="F49" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1483,13 +1483,13 @@
         <v>9010</v>
       </c>
       <c r="D50" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E50" s="1">
         <v>9010</v>
       </c>
       <c r="F50" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1503,13 +1503,13 @@
         <v>46</v>
       </c>
       <c r="D51" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E51" s="1">
         <v>46</v>
       </c>
       <c r="F51" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -1523,13 +1523,13 @@
         <v>73</v>
       </c>
       <c r="D52" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E52" s="1">
         <v>73</v>
       </c>
       <c r="F52" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1543,13 +1543,13 @@
         <v>88</v>
       </c>
       <c r="D53" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E53" s="1">
         <v>88</v>
       </c>
       <c r="F53" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1563,13 +1563,13 @@
         <v>9001</v>
       </c>
       <c r="D54" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E54" s="1">
         <v>9001</v>
       </c>
       <c r="F54" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1583,13 +1583,13 @@
         <v>9008</v>
       </c>
       <c r="D55" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E55" s="2">
         <v>9008</v>
       </c>
       <c r="F55" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1603,13 +1603,13 @@
         <v>9010</v>
       </c>
       <c r="D56" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E56" s="1">
         <v>9010</v>
       </c>
       <c r="F56" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -1623,13 +1623,13 @@
         <v>46</v>
       </c>
       <c r="D57" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E57" s="1">
         <v>46</v>
       </c>
       <c r="F57" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -1643,13 +1643,13 @@
         <v>73</v>
       </c>
       <c r="D58" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E58" s="1">
         <v>73</v>
       </c>
       <c r="F58" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -1663,13 +1663,13 @@
         <v>88</v>
       </c>
       <c r="D59" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E59" s="1">
         <v>88</v>
       </c>
       <c r="F59" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -1683,13 +1683,13 @@
         <v>9001</v>
       </c>
       <c r="D60" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E60" s="1">
         <v>9001</v>
       </c>
       <c r="F60" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1703,13 +1703,13 @@
         <v>9008</v>
       </c>
       <c r="D61" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E61" s="2">
         <v>9008</v>
       </c>
       <c r="F61" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -1723,13 +1723,13 @@
         <v>9010</v>
       </c>
       <c r="D62" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E62" s="1">
         <v>9010</v>
       </c>
       <c r="F62" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -1743,13 +1743,13 @@
         <v>46</v>
       </c>
       <c r="D63" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E63" s="1">
         <v>46</v>
       </c>
       <c r="F63" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -1763,13 +1763,13 @@
         <v>73</v>
       </c>
       <c r="D64" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E64" s="1">
         <v>73</v>
       </c>
       <c r="F64" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -1783,13 +1783,13 @@
         <v>88</v>
       </c>
       <c r="D65" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E65" s="1">
         <v>88</v>
       </c>
       <c r="F65" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1803,13 +1803,13 @@
         <v>9001</v>
       </c>
       <c r="D66" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E66" s="1">
         <v>9001</v>
       </c>
       <c r="F66" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -1823,13 +1823,13 @@
         <v>9008</v>
       </c>
       <c r="D67" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E67" s="2">
         <v>9008</v>
       </c>
       <c r="F67" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -1843,13 +1843,13 @@
         <v>9010</v>
       </c>
       <c r="D68" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E68" s="1">
         <v>9010</v>
       </c>
       <c r="F68" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -1863,13 +1863,13 @@
         <v>46</v>
       </c>
       <c r="D69" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E69" s="1">
         <v>46</v>
       </c>
       <c r="F69" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -1883,13 +1883,13 @@
         <v>73</v>
       </c>
       <c r="D70" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E70" s="1">
         <v>73</v>
       </c>
       <c r="F70" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1903,13 +1903,13 @@
         <v>88</v>
       </c>
       <c r="D71" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E71" s="1">
         <v>88</v>
       </c>
       <c r="F71" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -1923,13 +1923,13 @@
         <v>9001</v>
       </c>
       <c r="D72" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E72" s="1">
         <v>9001</v>
       </c>
       <c r="F72" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -1943,13 +1943,13 @@
         <v>9008</v>
       </c>
       <c r="D73" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E73" s="2">
         <v>9008</v>
       </c>
       <c r="F73" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -1963,13 +1963,13 @@
         <v>9010</v>
       </c>
       <c r="D74" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E74" s="1">
         <v>9010</v>
       </c>
       <c r="F74" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -1983,13 +1983,13 @@
         <v>46</v>
       </c>
       <c r="D75" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E75" s="1">
         <v>46</v>
       </c>
       <c r="F75" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2003,13 +2003,13 @@
         <v>73</v>
       </c>
       <c r="D76" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E76" s="1">
         <v>73</v>
       </c>
       <c r="F76" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -2023,13 +2023,13 @@
         <v>88</v>
       </c>
       <c r="D77" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E77" s="1">
         <v>88</v>
       </c>
       <c r="F77" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2043,13 +2043,13 @@
         <v>9001</v>
       </c>
       <c r="D78" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E78" s="1">
         <v>9001</v>
       </c>
       <c r="F78" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2063,13 +2063,13 @@
         <v>9008</v>
       </c>
       <c r="D79" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E79" s="2">
         <v>9008</v>
       </c>
       <c r="F79" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2083,13 +2083,13 @@
         <v>9010</v>
       </c>
       <c r="D80" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E80" s="1">
         <v>9010</v>
       </c>
       <c r="F80" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2103,13 +2103,13 @@
         <v>46</v>
       </c>
       <c r="D81" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E81" s="1">
         <v>46</v>
       </c>
       <c r="F81" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -2123,13 +2123,13 @@
         <v>73</v>
       </c>
       <c r="D82" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E82" s="1">
         <v>73</v>
       </c>
       <c r="F82" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -2143,13 +2143,13 @@
         <v>88</v>
       </c>
       <c r="D83" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E83" s="1">
         <v>88</v>
       </c>
       <c r="F83" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -2163,13 +2163,13 @@
         <v>9001</v>
       </c>
       <c r="D84" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E84" s="1">
         <v>9001</v>
       </c>
       <c r="F84" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -2183,13 +2183,13 @@
         <v>9008</v>
       </c>
       <c r="D85" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E85" s="2">
         <v>9008</v>
       </c>
       <c r="F85" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2203,13 +2203,13 @@
         <v>9010</v>
       </c>
       <c r="D86" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E86" s="1">
         <v>9010</v>
       </c>
       <c r="F86" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -2223,13 +2223,13 @@
         <v>46</v>
       </c>
       <c r="D87" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E87" s="1">
         <v>46</v>
       </c>
       <c r="F87" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -2243,13 +2243,13 @@
         <v>73</v>
       </c>
       <c r="D88" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E88" s="1">
         <v>73</v>
       </c>
       <c r="F88" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -2263,13 +2263,13 @@
         <v>88</v>
       </c>
       <c r="D89" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E89" s="1">
         <v>88</v>
       </c>
       <c r="F89" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -2283,13 +2283,13 @@
         <v>9001</v>
       </c>
       <c r="D90" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E90" s="1">
         <v>9001</v>
       </c>
       <c r="F90" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2303,13 +2303,13 @@
         <v>9008</v>
       </c>
       <c r="D91" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E91" s="2">
         <v>9008</v>
       </c>
       <c r="F91" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -2323,13 +2323,13 @@
         <v>9010</v>
       </c>
       <c r="D92" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E92" s="1">
         <v>9010</v>
       </c>
       <c r="F92" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -2343,13 +2343,13 @@
         <v>46</v>
       </c>
       <c r="D93" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E93" s="1">
         <v>46</v>
       </c>
       <c r="F93" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -2363,13 +2363,13 @@
         <v>73</v>
       </c>
       <c r="D94" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E94" s="1">
         <v>73</v>
       </c>
       <c r="F94" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -2383,13 +2383,13 @@
         <v>88</v>
       </c>
       <c r="D95" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E95" s="1">
         <v>88</v>
       </c>
       <c r="F95" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -2403,13 +2403,13 @@
         <v>9001</v>
       </c>
       <c r="D96" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E96" s="1">
         <v>9001</v>
       </c>
       <c r="F96" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -2423,13 +2423,13 @@
         <v>9008</v>
       </c>
       <c r="D97" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E97" s="2">
         <v>9008</v>
       </c>
       <c r="F97" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -2443,13 +2443,13 @@
         <v>9010</v>
       </c>
       <c r="D98" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E98" s="1">
         <v>9010</v>
       </c>
       <c r="F98" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -2463,13 +2463,13 @@
         <v>46</v>
       </c>
       <c r="D99" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E99" s="1">
         <v>46</v>
       </c>
       <c r="F99" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -2483,13 +2483,13 @@
         <v>73</v>
       </c>
       <c r="D100" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E100" s="1">
         <v>73</v>
       </c>
       <c r="F100" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -2503,13 +2503,13 @@
         <v>88</v>
       </c>
       <c r="D101" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E101" s="1">
         <v>88</v>
       </c>
       <c r="F101" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -2523,13 +2523,13 @@
         <v>9001</v>
       </c>
       <c r="D102" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E102" s="1">
         <v>9001</v>
       </c>
       <c r="F102" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -2543,13 +2543,13 @@
         <v>9008</v>
       </c>
       <c r="D103" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E103" s="2">
         <v>9008</v>
       </c>
       <c r="F103" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -2563,13 +2563,13 @@
         <v>9010</v>
       </c>
       <c r="D104" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E104" s="1">
         <v>9010</v>
       </c>
       <c r="F104" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -2583,13 +2583,13 @@
         <v>46</v>
       </c>
       <c r="D105" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E105" s="1">
         <v>46</v>
       </c>
       <c r="F105" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -2603,13 +2603,13 @@
         <v>73</v>
       </c>
       <c r="D106" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E106" s="1">
         <v>73</v>
       </c>
       <c r="F106" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -2623,13 +2623,13 @@
         <v>88</v>
       </c>
       <c r="D107" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E107" s="1">
         <v>88</v>
       </c>
       <c r="F107" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -2643,13 +2643,13 @@
         <v>9001</v>
       </c>
       <c r="D108" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E108" s="1">
         <v>9001</v>
       </c>
       <c r="F108" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -2663,13 +2663,13 @@
         <v>9008</v>
       </c>
       <c r="D109" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E109" s="2">
         <v>9008</v>
       </c>
       <c r="F109" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -2683,13 +2683,13 @@
         <v>9010</v>
       </c>
       <c r="D110" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E110" s="1">
         <v>9010</v>
       </c>
       <c r="F110" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -2703,13 +2703,13 @@
         <v>46</v>
       </c>
       <c r="D111" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E111" s="1">
         <v>46</v>
       </c>
       <c r="F111" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -2723,13 +2723,13 @@
         <v>73</v>
       </c>
       <c r="D112" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E112" s="1">
         <v>73</v>
       </c>
       <c r="F112" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -2743,13 +2743,13 @@
         <v>88</v>
       </c>
       <c r="D113" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E113" s="1">
         <v>88</v>
       </c>
       <c r="F113" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -2763,13 +2763,13 @@
         <v>9001</v>
       </c>
       <c r="D114" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E114" s="1">
         <v>9001</v>
       </c>
       <c r="F114" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -2783,13 +2783,13 @@
         <v>9008</v>
       </c>
       <c r="D115" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E115" s="2">
         <v>9008</v>
       </c>
       <c r="F115" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -2803,13 +2803,13 @@
         <v>9010</v>
       </c>
       <c r="D116" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E116" s="1">
         <v>9010</v>
       </c>
       <c r="F116" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -2823,13 +2823,13 @@
         <v>46</v>
       </c>
       <c r="D117" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E117" s="1">
         <v>46</v>
       </c>
       <c r="F117" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -2843,13 +2843,13 @@
         <v>73</v>
       </c>
       <c r="D118" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E118" s="1">
         <v>73</v>
       </c>
       <c r="F118" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -2863,13 +2863,13 @@
         <v>88</v>
       </c>
       <c r="D119" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E119" s="1">
         <v>88</v>
       </c>
       <c r="F119" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -2883,13 +2883,13 @@
         <v>9001</v>
       </c>
       <c r="D120" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E120" s="1">
         <v>9001</v>
       </c>
       <c r="F120" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -2903,13 +2903,13 @@
         <v>9008</v>
       </c>
       <c r="D121" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E121" s="2">
         <v>9008</v>
       </c>
       <c r="F121" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -2923,13 +2923,13 @@
         <v>9010</v>
       </c>
       <c r="D122" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E122" s="1">
         <v>9010</v>
       </c>
       <c r="F122" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -2943,13 +2943,13 @@
         <v>46</v>
       </c>
       <c r="D123" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E123" s="1">
         <v>46</v>
       </c>
       <c r="F123" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -2963,13 +2963,13 @@
         <v>73</v>
       </c>
       <c r="D124" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E124" s="1">
         <v>73</v>
       </c>
       <c r="F124" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -2983,13 +2983,13 @@
         <v>88</v>
       </c>
       <c r="D125" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E125" s="1">
         <v>88</v>
       </c>
       <c r="F125" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -3003,13 +3003,13 @@
         <v>9001</v>
       </c>
       <c r="D126" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E126" s="1">
         <v>9001</v>
       </c>
       <c r="F126" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -3023,13 +3023,13 @@
         <v>9008</v>
       </c>
       <c r="D127" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E127" s="2">
         <v>9008</v>
       </c>
       <c r="F127" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -3043,13 +3043,13 @@
         <v>9010</v>
       </c>
       <c r="D128" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E128" s="1">
         <v>9010</v>
       </c>
       <c r="F128" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -3063,13 +3063,13 @@
         <v>46</v>
       </c>
       <c r="D129" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E129" s="1">
         <v>46</v>
       </c>
       <c r="F129" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -3083,13 +3083,13 @@
         <v>73</v>
       </c>
       <c r="D130" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E130" s="1">
         <v>73</v>
       </c>
       <c r="F130" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -3103,13 +3103,13 @@
         <v>88</v>
       </c>
       <c r="D131" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E131" s="1">
         <v>88</v>
       </c>
       <c r="F131" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -3123,13 +3123,13 @@
         <v>9001</v>
       </c>
       <c r="D132" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E132" s="1">
         <v>9001</v>
       </c>
       <c r="F132" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -3143,13 +3143,13 @@
         <v>9008</v>
       </c>
       <c r="D133" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E133" s="2">
         <v>9008</v>
       </c>
       <c r="F133" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -3163,13 +3163,13 @@
         <v>9010</v>
       </c>
       <c r="D134" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E134" s="1">
         <v>9010</v>
       </c>
       <c r="F134" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -3183,13 +3183,13 @@
         <v>46</v>
       </c>
       <c r="D135" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E135" s="1">
         <v>46</v>
       </c>
       <c r="F135" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -3203,13 +3203,13 @@
         <v>73</v>
       </c>
       <c r="D136" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E136" s="1">
         <v>73</v>
       </c>
       <c r="F136" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -3223,13 +3223,13 @@
         <v>88</v>
       </c>
       <c r="D137" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E137" s="1">
         <v>88</v>
       </c>
       <c r="F137" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -3243,13 +3243,13 @@
         <v>9001</v>
       </c>
       <c r="D138" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E138" s="1">
         <v>9001</v>
       </c>
       <c r="F138" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -3263,13 +3263,13 @@
         <v>9008</v>
       </c>
       <c r="D139" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E139" s="2">
         <v>9008</v>
       </c>
       <c r="F139" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -3283,13 +3283,13 @@
         <v>9010</v>
       </c>
       <c r="D140" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E140" s="1">
         <v>9010</v>
       </c>
       <c r="F140" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -3303,13 +3303,13 @@
         <v>46</v>
       </c>
       <c r="D141" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E141" s="1">
         <v>46</v>
       </c>
       <c r="F141" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -3323,13 +3323,13 @@
         <v>73</v>
       </c>
       <c r="D142" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E142" s="1">
         <v>73</v>
       </c>
       <c r="F142" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -3343,13 +3343,13 @@
         <v>88</v>
       </c>
       <c r="D143" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E143" s="1">
         <v>88</v>
       </c>
       <c r="F143" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -3363,13 +3363,13 @@
         <v>9001</v>
       </c>
       <c r="D144" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E144" s="1">
         <v>9001</v>
       </c>
       <c r="F144" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -3383,13 +3383,13 @@
         <v>9008</v>
       </c>
       <c r="D145" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E145" s="2">
         <v>9008</v>
       </c>
       <c r="F145" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -3403,13 +3403,13 @@
         <v>9010</v>
       </c>
       <c r="D146" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E146" s="1">
         <v>9010</v>
       </c>
       <c r="F146" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -3423,13 +3423,13 @@
         <v>46</v>
       </c>
       <c r="D147" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E147" s="1">
         <v>46</v>
       </c>
       <c r="F147" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -3443,13 +3443,13 @@
         <v>73</v>
       </c>
       <c r="D148" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E148" s="1">
         <v>73</v>
       </c>
       <c r="F148" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -3463,13 +3463,13 @@
         <v>88</v>
       </c>
       <c r="D149" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E149" s="1">
         <v>88</v>
       </c>
       <c r="F149" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -3483,13 +3483,13 @@
         <v>9001</v>
       </c>
       <c r="D150" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E150" s="1">
         <v>9001</v>
       </c>
       <c r="F150" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -3503,13 +3503,13 @@
         <v>9008</v>
       </c>
       <c r="D151" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E151" s="2">
         <v>9008</v>
       </c>
       <c r="F151" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -3523,13 +3523,13 @@
         <v>9010</v>
       </c>
       <c r="D152" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E152" s="1">
         <v>9010</v>
       </c>
       <c r="F152" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -3543,13 +3543,13 @@
         <v>46</v>
       </c>
       <c r="D153" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E153" s="1">
         <v>46</v>
       </c>
       <c r="F153" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -3563,13 +3563,13 @@
         <v>73</v>
       </c>
       <c r="D154" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E154" s="1">
         <v>73</v>
       </c>
       <c r="F154" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -3583,13 +3583,13 @@
         <v>88</v>
       </c>
       <c r="D155" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E155" s="1">
         <v>88</v>
       </c>
       <c r="F155" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -3603,13 +3603,13 @@
         <v>9001</v>
       </c>
       <c r="D156" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E156" s="1">
         <v>9001</v>
       </c>
       <c r="F156" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -3623,13 +3623,13 @@
         <v>9008</v>
       </c>
       <c r="D157" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E157" s="2">
         <v>9008</v>
       </c>
       <c r="F157" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -3643,13 +3643,13 @@
         <v>9010</v>
       </c>
       <c r="D158" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E158" s="1">
         <v>9010</v>
       </c>
       <c r="F158" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -3663,13 +3663,13 @@
         <v>46</v>
       </c>
       <c r="D159" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E159" s="1">
         <v>46</v>
       </c>
       <c r="F159" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -3683,13 +3683,13 @@
         <v>73</v>
       </c>
       <c r="D160" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E160" s="1">
         <v>73</v>
       </c>
       <c r="F160" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -3703,13 +3703,13 @@
         <v>88</v>
       </c>
       <c r="D161" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E161" s="1">
         <v>88</v>
       </c>
       <c r="F161" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -3723,13 +3723,13 @@
         <v>9001</v>
       </c>
       <c r="D162" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E162" s="1">
         <v>9001</v>
       </c>
       <c r="F162" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -3743,13 +3743,13 @@
         <v>9008</v>
       </c>
       <c r="D163" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E163" s="2">
         <v>9008</v>
       </c>
       <c r="F163" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -3763,13 +3763,13 @@
         <v>9010</v>
       </c>
       <c r="D164" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E164" s="1">
         <v>9010</v>
       </c>
       <c r="F164" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -3783,13 +3783,13 @@
         <v>46</v>
       </c>
       <c r="D165" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E165" s="1">
         <v>46</v>
       </c>
       <c r="F165" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -3803,13 +3803,13 @@
         <v>73</v>
       </c>
       <c r="D166" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E166" s="1">
         <v>73</v>
       </c>
       <c r="F166" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -3823,13 +3823,13 @@
         <v>88</v>
       </c>
       <c r="D167" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E167" s="1">
         <v>88</v>
       </c>
       <c r="F167" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -3843,13 +3843,13 @@
         <v>9001</v>
       </c>
       <c r="D168" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E168" s="1">
         <v>9001</v>
       </c>
       <c r="F168" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -3863,13 +3863,13 @@
         <v>9008</v>
       </c>
       <c r="D169" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E169" s="2">
         <v>9008</v>
       </c>
       <c r="F169" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -3883,13 +3883,13 @@
         <v>9010</v>
       </c>
       <c r="D170" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E170" s="1">
         <v>9010</v>
       </c>
       <c r="F170" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -3903,13 +3903,13 @@
         <v>46</v>
       </c>
       <c r="D171" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E171" s="1">
         <v>46</v>
       </c>
       <c r="F171" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -3923,13 +3923,13 @@
         <v>73</v>
       </c>
       <c r="D172" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E172" s="1">
         <v>73</v>
       </c>
       <c r="F172" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -3943,13 +3943,13 @@
         <v>88</v>
       </c>
       <c r="D173" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E173" s="1">
         <v>88</v>
       </c>
       <c r="F173" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -3963,13 +3963,13 @@
         <v>9001</v>
       </c>
       <c r="D174" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E174" s="1">
         <v>9001</v>
       </c>
       <c r="F174" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -3983,13 +3983,13 @@
         <v>9008</v>
       </c>
       <c r="D175" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E175" s="2">
         <v>9008</v>
       </c>
       <c r="F175" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -4003,13 +4003,13 @@
         <v>9010</v>
       </c>
       <c r="D176" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E176" s="1">
         <v>9010</v>
       </c>
       <c r="F176" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -4023,13 +4023,13 @@
         <v>46</v>
       </c>
       <c r="D177" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E177" s="1">
         <v>46</v>
       </c>
       <c r="F177" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -4043,13 +4043,13 @@
         <v>73</v>
       </c>
       <c r="D178" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E178" s="1">
         <v>73</v>
       </c>
       <c r="F178" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -4063,13 +4063,13 @@
         <v>88</v>
       </c>
       <c r="D179" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E179" s="1">
         <v>88</v>
       </c>
       <c r="F179" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -4083,13 +4083,13 @@
         <v>9001</v>
       </c>
       <c r="D180" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E180" s="1">
         <v>9001</v>
       </c>
       <c r="F180" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -4103,13 +4103,13 @@
         <v>9008</v>
       </c>
       <c r="D181" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E181" s="2">
         <v>9008</v>
       </c>
       <c r="F181" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -4123,13 +4123,13 @@
         <v>9010</v>
       </c>
       <c r="D182" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E182" s="1">
         <v>9010</v>
       </c>
       <c r="F182" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -4143,13 +4143,13 @@
         <v>46</v>
       </c>
       <c r="D183" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E183" s="1">
         <v>46</v>
       </c>
       <c r="F183" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -4163,13 +4163,13 @@
         <v>73</v>
       </c>
       <c r="D184" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E184" s="1">
         <v>73</v>
       </c>
       <c r="F184" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -4183,13 +4183,13 @@
         <v>88</v>
       </c>
       <c r="D185" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E185" s="1">
         <v>88</v>
       </c>
       <c r="F185" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -4203,13 +4203,13 @@
         <v>9001</v>
       </c>
       <c r="D186" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E186" s="1">
         <v>9001</v>
       </c>
       <c r="F186" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -4223,13 +4223,13 @@
         <v>9008</v>
       </c>
       <c r="D187" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E187" s="2">
         <v>9008</v>
       </c>
       <c r="F187" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -4243,13 +4243,13 @@
         <v>9010</v>
       </c>
       <c r="D188" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E188" s="1">
         <v>9010</v>
       </c>
       <c r="F188" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -4263,13 +4263,13 @@
         <v>46</v>
       </c>
       <c r="D189" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E189" s="1">
         <v>46</v>
       </c>
       <c r="F189" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -4283,13 +4283,13 @@
         <v>73</v>
       </c>
       <c r="D190" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E190" s="1">
         <v>73</v>
       </c>
       <c r="F190" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -4303,13 +4303,13 @@
         <v>88</v>
       </c>
       <c r="D191" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E191" s="1">
         <v>88</v>
       </c>
       <c r="F191" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -4323,13 +4323,13 @@
         <v>9001</v>
       </c>
       <c r="D192" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E192" s="1">
         <v>9001</v>
       </c>
       <c r="F192" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -4343,13 +4343,13 @@
         <v>9008</v>
       </c>
       <c r="D193" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E193" s="2">
         <v>9008</v>
       </c>
       <c r="F193" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -4363,13 +4363,13 @@
         <v>9010</v>
       </c>
       <c r="D194" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E194" s="1">
         <v>9010</v>
       </c>
       <c r="F194" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -4383,13 +4383,13 @@
         <v>46</v>
       </c>
       <c r="D195" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E195" s="1">
         <v>46</v>
       </c>
       <c r="F195" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -4403,13 +4403,13 @@
         <v>73</v>
       </c>
       <c r="D196" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E196" s="1">
         <v>73</v>
       </c>
       <c r="F196" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -4423,13 +4423,13 @@
         <v>88</v>
       </c>
       <c r="D197" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E197" s="1">
         <v>88</v>
       </c>
       <c r="F197" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -4443,13 +4443,13 @@
         <v>9001</v>
       </c>
       <c r="D198" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E198" s="1">
         <v>9001</v>
       </c>
       <c r="F198" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -4463,13 +4463,13 @@
         <v>9008</v>
       </c>
       <c r="D199" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E199" s="2">
         <v>9008</v>
       </c>
       <c r="F199" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -4483,13 +4483,13 @@
         <v>9010</v>
       </c>
       <c r="D200" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E200" s="1">
         <v>9010</v>
       </c>
       <c r="F200" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -4503,13 +4503,13 @@
         <v>46</v>
       </c>
       <c r="D201" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E201" s="1">
         <v>46</v>
       </c>
       <c r="F201" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -4523,13 +4523,13 @@
         <v>73</v>
       </c>
       <c r="D202" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E202" s="1">
         <v>73</v>
       </c>
       <c r="F202" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -4543,13 +4543,13 @@
         <v>88</v>
       </c>
       <c r="D203" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E203" s="1">
         <v>88</v>
       </c>
       <c r="F203" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -4563,13 +4563,13 @@
         <v>9001</v>
       </c>
       <c r="D204" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E204" s="1">
         <v>9001</v>
       </c>
       <c r="F204" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -4583,13 +4583,13 @@
         <v>9008</v>
       </c>
       <c r="D205" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E205" s="2">
         <v>9008</v>
       </c>
       <c r="F205" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -4603,13 +4603,13 @@
         <v>9010</v>
       </c>
       <c r="D206" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E206" s="1">
         <v>9010</v>
       </c>
       <c r="F206" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -4623,13 +4623,13 @@
         <v>46</v>
       </c>
       <c r="D207" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E207" s="1">
         <v>46</v>
       </c>
       <c r="F207" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -4643,13 +4643,13 @@
         <v>73</v>
       </c>
       <c r="D208" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E208" s="1">
         <v>73</v>
       </c>
       <c r="F208" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -4663,13 +4663,13 @@
         <v>88</v>
       </c>
       <c r="D209" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E209" s="1">
         <v>88</v>
       </c>
       <c r="F209" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -4683,13 +4683,13 @@
         <v>9001</v>
       </c>
       <c r="D210" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E210" s="1">
         <v>9001</v>
       </c>
       <c r="F210" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -4703,13 +4703,13 @@
         <v>9008</v>
       </c>
       <c r="D211" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E211" s="2">
         <v>9008</v>
       </c>
       <c r="F211" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -4723,13 +4723,13 @@
         <v>9010</v>
       </c>
       <c r="D212" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E212" s="1">
         <v>9010</v>
       </c>
       <c r="F212" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -4743,13 +4743,13 @@
         <v>46</v>
       </c>
       <c r="D213" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E213" s="1">
         <v>46</v>
       </c>
       <c r="F213" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -4763,13 +4763,13 @@
         <v>73</v>
       </c>
       <c r="D214" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E214" s="1">
         <v>73</v>
       </c>
       <c r="F214" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -4783,13 +4783,13 @@
         <v>88</v>
       </c>
       <c r="D215" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E215" s="1">
         <v>88</v>
       </c>
       <c r="F215" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -4803,13 +4803,13 @@
         <v>9001</v>
       </c>
       <c r="D216" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E216" s="1">
         <v>9001</v>
       </c>
       <c r="F216" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -4823,13 +4823,13 @@
         <v>9008</v>
       </c>
       <c r="D217" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E217" s="2">
         <v>9008</v>
       </c>
       <c r="F217" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -4843,13 +4843,13 @@
         <v>9010</v>
       </c>
       <c r="D218" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E218" s="1">
         <v>9010</v>
       </c>
       <c r="F218" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
@@ -4863,13 +4863,13 @@
         <v>46</v>
       </c>
       <c r="D219" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E219" s="1">
         <v>46</v>
       </c>
       <c r="F219" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -4883,13 +4883,13 @@
         <v>73</v>
       </c>
       <c r="D220" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E220" s="1">
         <v>73</v>
       </c>
       <c r="F220" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -4903,13 +4903,13 @@
         <v>88</v>
       </c>
       <c r="D221" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E221" s="1">
         <v>88</v>
       </c>
       <c r="F221" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
@@ -4923,13 +4923,13 @@
         <v>9001</v>
       </c>
       <c r="D222" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E222" s="1">
         <v>9001</v>
       </c>
       <c r="F222" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -4943,13 +4943,13 @@
         <v>9008</v>
       </c>
       <c r="D223" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E223" s="2">
         <v>9008</v>
       </c>
       <c r="F223" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -4963,13 +4963,13 @@
         <v>9010</v>
       </c>
       <c r="D224" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E224" s="1">
         <v>9010</v>
       </c>
       <c r="F224" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -4983,13 +4983,13 @@
         <v>46</v>
       </c>
       <c r="D225" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E225" s="1">
         <v>46</v>
       </c>
       <c r="F225" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -5003,13 +5003,13 @@
         <v>73</v>
       </c>
       <c r="D226" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E226" s="1">
         <v>73</v>
       </c>
       <c r="F226" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -5023,13 +5023,13 @@
         <v>88</v>
       </c>
       <c r="D227" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E227" s="1">
         <v>88</v>
       </c>
       <c r="F227" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -5043,13 +5043,13 @@
         <v>9001</v>
       </c>
       <c r="D228" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E228" s="1">
         <v>9001</v>
       </c>
       <c r="F228" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -5063,13 +5063,13 @@
         <v>9008</v>
       </c>
       <c r="D229" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E229" s="2">
         <v>9008</v>
       </c>
       <c r="F229" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -5083,13 +5083,13 @@
         <v>9010</v>
       </c>
       <c r="D230" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E230" s="1">
         <v>9010</v>
       </c>
       <c r="F230" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -5103,13 +5103,13 @@
         <v>46</v>
       </c>
       <c r="D231" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E231" s="1">
         <v>46</v>
       </c>
       <c r="F231" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
@@ -5123,13 +5123,13 @@
         <v>73</v>
       </c>
       <c r="D232" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E232" s="1">
         <v>73</v>
       </c>
       <c r="F232" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -5143,13 +5143,13 @@
         <v>88</v>
       </c>
       <c r="D233" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E233" s="1">
         <v>88</v>
       </c>
       <c r="F233" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -5163,13 +5163,13 @@
         <v>9001</v>
       </c>
       <c r="D234" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E234" s="1">
         <v>9001</v>
       </c>
       <c r="F234" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -5183,13 +5183,13 @@
         <v>9008</v>
       </c>
       <c r="D235" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E235" s="2">
         <v>9008</v>
       </c>
       <c r="F235" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -5203,13 +5203,13 @@
         <v>9010</v>
       </c>
       <c r="D236" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E236" s="1">
         <v>9010</v>
       </c>
       <c r="F236" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -5223,13 +5223,13 @@
         <v>46</v>
       </c>
       <c r="D237" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E237" s="1">
         <v>46</v>
       </c>
       <c r="F237" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -5243,13 +5243,13 @@
         <v>73</v>
       </c>
       <c r="D238" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E238" s="1">
         <v>73</v>
       </c>
       <c r="F238" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
@@ -5263,13 +5263,13 @@
         <v>88</v>
       </c>
       <c r="D239" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E239" s="1">
         <v>88</v>
       </c>
       <c r="F239" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
@@ -5283,13 +5283,13 @@
         <v>9001</v>
       </c>
       <c r="D240" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E240" s="1">
         <v>9001</v>
       </c>
       <c r="F240" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
@@ -5303,13 +5303,13 @@
         <v>9008</v>
       </c>
       <c r="D241" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E241" s="2">
         <v>9008</v>
       </c>
       <c r="F241" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
@@ -5323,13 +5323,13 @@
         <v>9010</v>
       </c>
       <c r="D242" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E242" s="1">
         <v>9010</v>
       </c>
       <c r="F242" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
@@ -5343,13 +5343,13 @@
         <v>46</v>
       </c>
       <c r="D243" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E243" s="1">
         <v>46</v>
       </c>
       <c r="F243" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
@@ -5363,13 +5363,13 @@
         <v>73</v>
       </c>
       <c r="D244" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E244" s="1">
         <v>73</v>
       </c>
       <c r="F244" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
@@ -5383,13 +5383,13 @@
         <v>88</v>
       </c>
       <c r="D245" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E245" s="1">
         <v>88</v>
       </c>
       <c r="F245" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
@@ -5403,13 +5403,13 @@
         <v>9001</v>
       </c>
       <c r="D246" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E246" s="1">
         <v>9001</v>
       </c>
       <c r="F246" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
@@ -5423,13 +5423,13 @@
         <v>9008</v>
       </c>
       <c r="D247" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E247" s="2">
         <v>9008</v>
       </c>
       <c r="F247" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
@@ -5443,13 +5443,13 @@
         <v>9010</v>
       </c>
       <c r="D248" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E248" s="1">
         <v>9010</v>
       </c>
       <c r="F248" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
@@ -5463,13 +5463,13 @@
         <v>46</v>
       </c>
       <c r="D249" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E249" s="1">
         <v>46</v>
       </c>
       <c r="F249" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -5483,13 +5483,13 @@
         <v>73</v>
       </c>
       <c r="D250" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E250" s="1">
         <v>73</v>
       </c>
       <c r="F250" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -5503,13 +5503,13 @@
         <v>88</v>
       </c>
       <c r="D251" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E251" s="1">
         <v>88</v>
       </c>
       <c r="F251" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
@@ -5523,13 +5523,13 @@
         <v>9001</v>
       </c>
       <c r="D252" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E252" s="1">
         <v>9001</v>
       </c>
       <c r="F252" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
@@ -5543,13 +5543,13 @@
         <v>9008</v>
       </c>
       <c r="D253" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E253" s="2">
         <v>9008</v>
       </c>
       <c r="F253" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
@@ -5563,13 +5563,13 @@
         <v>9010</v>
       </c>
       <c r="D254" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E254" s="1">
         <v>9010</v>
       </c>
       <c r="F254" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -5583,13 +5583,13 @@
         <v>46</v>
       </c>
       <c r="D255" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E255" s="1">
         <v>46</v>
       </c>
       <c r="F255" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -5603,13 +5603,13 @@
         <v>73</v>
       </c>
       <c r="D256" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E256" s="1">
         <v>73</v>
       </c>
       <c r="F256" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
@@ -5623,13 +5623,13 @@
         <v>88</v>
       </c>
       <c r="D257" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E257" s="1">
         <v>88</v>
       </c>
       <c r="F257" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
@@ -5643,13 +5643,13 @@
         <v>9001</v>
       </c>
       <c r="D258" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E258" s="1">
         <v>9001</v>
       </c>
       <c r="F258" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
@@ -5663,13 +5663,13 @@
         <v>9008</v>
       </c>
       <c r="D259" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E259" s="2">
         <v>9008</v>
       </c>
       <c r="F259" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
@@ -5683,13 +5683,13 @@
         <v>9010</v>
       </c>
       <c r="D260" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E260" s="1">
         <v>9010</v>
       </c>
       <c r="F260" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -5703,13 +5703,13 @@
         <v>46</v>
       </c>
       <c r="D261" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E261" s="1">
         <v>46</v>
       </c>
       <c r="F261" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
@@ -5723,13 +5723,13 @@
         <v>73</v>
       </c>
       <c r="D262" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E262" s="1">
         <v>73</v>
       </c>
       <c r="F262" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
@@ -5743,13 +5743,13 @@
         <v>88</v>
       </c>
       <c r="D263" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E263" s="1">
         <v>88</v>
       </c>
       <c r="F263" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
@@ -5763,13 +5763,13 @@
         <v>9001</v>
       </c>
       <c r="D264" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E264" s="1">
         <v>9001</v>
       </c>
       <c r="F264" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -5783,13 +5783,13 @@
         <v>9008</v>
       </c>
       <c r="D265" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E265" s="2">
         <v>9008</v>
       </c>
       <c r="F265" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -5803,13 +5803,13 @@
         <v>9010</v>
       </c>
       <c r="D266" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E266" s="1">
         <v>9010</v>
       </c>
       <c r="F266" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -5823,13 +5823,13 @@
         <v>46</v>
       </c>
       <c r="D267" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E267" s="1">
         <v>46</v>
       </c>
       <c r="F267" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
@@ -5843,13 +5843,13 @@
         <v>73</v>
       </c>
       <c r="D268" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E268" s="1">
         <v>73</v>
       </c>
       <c r="F268" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
@@ -5863,13 +5863,13 @@
         <v>88</v>
       </c>
       <c r="D269" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E269" s="1">
         <v>88</v>
       </c>
       <c r="F269" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -5883,13 +5883,13 @@
         <v>9001</v>
       </c>
       <c r="D270" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E270" s="1">
         <v>9001</v>
       </c>
       <c r="F270" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -5903,13 +5903,13 @@
         <v>9008</v>
       </c>
       <c r="D271" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E271" s="2">
         <v>9008</v>
       </c>
       <c r="F271" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -5923,13 +5923,13 @@
         <v>9010</v>
       </c>
       <c r="D272" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E272" s="1">
         <v>9010</v>
       </c>
       <c r="F272" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -5943,13 +5943,13 @@
         <v>46</v>
       </c>
       <c r="D273" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E273" s="1">
         <v>46</v>
       </c>
       <c r="F273" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
@@ -5963,13 +5963,13 @@
         <v>73</v>
       </c>
       <c r="D274" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E274" s="1">
         <v>73</v>
       </c>
       <c r="F274" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
@@ -5983,13 +5983,13 @@
         <v>88</v>
       </c>
       <c r="D275" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E275" s="1">
         <v>88</v>
       </c>
       <c r="F275" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -6003,13 +6003,13 @@
         <v>9001</v>
       </c>
       <c r="D276" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E276" s="1">
         <v>9001</v>
       </c>
       <c r="F276" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -6023,13 +6023,13 @@
         <v>9008</v>
       </c>
       <c r="D277" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E277" s="2">
         <v>9008</v>
       </c>
       <c r="F277" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -6043,13 +6043,13 @@
         <v>9010</v>
       </c>
       <c r="D278" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E278" s="1">
         <v>9010</v>
       </c>
       <c r="F278" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
@@ -6063,13 +6063,13 @@
         <v>46</v>
       </c>
       <c r="D279" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E279" s="1">
         <v>46</v>
       </c>
       <c r="F279" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
@@ -6083,13 +6083,13 @@
         <v>73</v>
       </c>
       <c r="D280" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E280" s="1">
         <v>73</v>
       </c>
       <c r="F280" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
@@ -6103,13 +6103,13 @@
         <v>88</v>
       </c>
       <c r="D281" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E281" s="1">
         <v>88</v>
       </c>
       <c r="F281" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
@@ -6123,13 +6123,13 @@
         <v>9001</v>
       </c>
       <c r="D282" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E282" s="1">
         <v>9001</v>
       </c>
       <c r="F282" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
@@ -6143,13 +6143,13 @@
         <v>9008</v>
       </c>
       <c r="D283" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E283" s="2">
         <v>9008</v>
       </c>
       <c r="F283" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
@@ -6163,13 +6163,13 @@
         <v>9010</v>
       </c>
       <c r="D284" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E284" s="1">
         <v>9010</v>
       </c>
       <c r="F284" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -6183,13 +6183,13 @@
         <v>46</v>
       </c>
       <c r="D285" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E285" s="1">
         <v>46</v>
       </c>
       <c r="F285" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -6203,13 +6203,13 @@
         <v>73</v>
       </c>
       <c r="D286" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E286" s="1">
         <v>73</v>
       </c>
       <c r="F286" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
@@ -6223,13 +6223,13 @@
         <v>88</v>
       </c>
       <c r="D287" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E287" s="1">
         <v>88</v>
       </c>
       <c r="F287" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
@@ -6243,13 +6243,13 @@
         <v>9001</v>
       </c>
       <c r="D288" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E288" s="1">
         <v>9001</v>
       </c>
       <c r="F288" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
@@ -6263,13 +6263,13 @@
         <v>9008</v>
       </c>
       <c r="D289" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E289" s="2">
         <v>9008</v>
       </c>
       <c r="F289" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
@@ -6283,13 +6283,13 @@
         <v>9010</v>
       </c>
       <c r="D290" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E290" s="1">
         <v>9010</v>
       </c>
       <c r="F290" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
@@ -6303,13 +6303,13 @@
         <v>46</v>
       </c>
       <c r="D291" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E291" s="1">
         <v>46</v>
       </c>
       <c r="F291" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
@@ -6323,13 +6323,13 @@
         <v>73</v>
       </c>
       <c r="D292" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E292" s="1">
         <v>73</v>
       </c>
       <c r="F292" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
@@ -6343,13 +6343,13 @@
         <v>88</v>
       </c>
       <c r="D293" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E293" s="1">
         <v>88</v>
       </c>
       <c r="F293" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
@@ -6363,13 +6363,13 @@
         <v>9001</v>
       </c>
       <c r="D294" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E294" s="1">
         <v>9001</v>
       </c>
       <c r="F294" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
@@ -6383,13 +6383,13 @@
         <v>9008</v>
       </c>
       <c r="D295" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E295" s="2">
         <v>9008</v>
       </c>
       <c r="F295" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -6403,13 +6403,13 @@
         <v>9010</v>
       </c>
       <c r="D296" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E296" s="1">
         <v>9010</v>
       </c>
       <c r="F296" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
@@ -6423,13 +6423,13 @@
         <v>46</v>
       </c>
       <c r="D297" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E297" s="1">
         <v>46</v>
       </c>
       <c r="F297" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
@@ -6443,13 +6443,13 @@
         <v>73</v>
       </c>
       <c r="D298" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E298" s="1">
         <v>73</v>
       </c>
       <c r="F298" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -6463,13 +6463,13 @@
         <v>88</v>
       </c>
       <c r="D299" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E299" s="1">
         <v>88</v>
       </c>
       <c r="F299" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
@@ -6483,13 +6483,13 @@
         <v>9001</v>
       </c>
       <c r="D300" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E300" s="1">
         <v>9001</v>
       </c>
       <c r="F300" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
@@ -6503,13 +6503,13 @@
         <v>9008</v>
       </c>
       <c r="D301" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E301" s="2">
         <v>9008</v>
       </c>
       <c r="F301" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
@@ -6523,13 +6523,13 @@
         <v>9010</v>
       </c>
       <c r="D302" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E302" s="1">
         <v>9010</v>
       </c>
       <c r="F302" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
@@ -6543,13 +6543,13 @@
         <v>46</v>
       </c>
       <c r="D303" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E303" s="1">
         <v>46</v>
       </c>
       <c r="F303" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
@@ -6563,13 +6563,13 @@
         <v>73</v>
       </c>
       <c r="D304" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E304" s="1">
         <v>73</v>
       </c>
       <c r="F304" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -6583,13 +6583,13 @@
         <v>88</v>
       </c>
       <c r="D305" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E305" s="1">
         <v>88</v>
       </c>
       <c r="F305" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
@@ -6603,13 +6603,13 @@
         <v>9001</v>
       </c>
       <c r="D306" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E306" s="1">
         <v>9001</v>
       </c>
       <c r="F306" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
@@ -6623,13 +6623,13 @@
         <v>9008</v>
       </c>
       <c r="D307" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E307" s="2">
         <v>9008</v>
       </c>
       <c r="F307" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
@@ -6643,13 +6643,13 @@
         <v>9010</v>
       </c>
       <c r="D308" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E308" s="1">
         <v>9010</v>
       </c>
       <c r="F308" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
@@ -6663,13 +6663,13 @@
         <v>46</v>
       </c>
       <c r="D309" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E309" s="1">
         <v>46</v>
       </c>
       <c r="F309" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
@@ -6683,13 +6683,13 @@
         <v>73</v>
       </c>
       <c r="D310" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E310" s="1">
         <v>73</v>
       </c>
       <c r="F310" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
@@ -6703,13 +6703,13 @@
         <v>88</v>
       </c>
       <c r="D311" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E311" s="1">
         <v>88</v>
       </c>
       <c r="F311" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
@@ -6723,13 +6723,13 @@
         <v>9001</v>
       </c>
       <c r="D312" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E312" s="1">
         <v>9001</v>
       </c>
       <c r="F312" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
@@ -6743,13 +6743,13 @@
         <v>9008</v>
       </c>
       <c r="D313" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E313" s="2">
         <v>9008</v>
       </c>
       <c r="F313" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
@@ -6763,13 +6763,13 @@
         <v>9010</v>
       </c>
       <c r="D314" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E314" s="1">
         <v>9010</v>
       </c>
       <c r="F314" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
@@ -6783,13 +6783,13 @@
         <v>46</v>
       </c>
       <c r="D315" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E315" s="1">
         <v>46</v>
       </c>
       <c r="F315" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
@@ -6803,13 +6803,13 @@
         <v>73</v>
       </c>
       <c r="D316" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E316" s="1">
         <v>73</v>
       </c>
       <c r="F316" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
@@ -6823,13 +6823,13 @@
         <v>88</v>
       </c>
       <c r="D317" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E317" s="1">
         <v>88</v>
       </c>
       <c r="F317" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
@@ -6843,13 +6843,13 @@
         <v>9001</v>
       </c>
       <c r="D318" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E318" s="1">
         <v>9001</v>
       </c>
       <c r="F318" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -6863,13 +6863,13 @@
         <v>9008</v>
       </c>
       <c r="D319" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E319" s="2">
         <v>9008</v>
       </c>
       <c r="F319" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
@@ -6883,13 +6883,13 @@
         <v>9010</v>
       </c>
       <c r="D320" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E320" s="1">
         <v>9010</v>
       </c>
       <c r="F320" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
@@ -6903,13 +6903,13 @@
         <v>46</v>
       </c>
       <c r="D321" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E321" s="1">
         <v>46</v>
       </c>
       <c r="F321" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
@@ -6923,13 +6923,13 @@
         <v>73</v>
       </c>
       <c r="D322" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E322" s="1">
         <v>73</v>
       </c>
       <c r="F322" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
@@ -6943,13 +6943,13 @@
         <v>88</v>
       </c>
       <c r="D323" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E323" s="1">
         <v>88</v>
       </c>
       <c r="F323" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
@@ -6963,13 +6963,13 @@
         <v>9001</v>
       </c>
       <c r="D324" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E324" s="1">
         <v>9001</v>
       </c>
       <c r="F324" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
@@ -6983,13 +6983,13 @@
         <v>9008</v>
       </c>
       <c r="D325" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E325" s="2">
         <v>9008</v>
       </c>
       <c r="F325" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
@@ -7003,13 +7003,13 @@
         <v>9010</v>
       </c>
       <c r="D326" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E326" s="1">
         <v>9010</v>
       </c>
       <c r="F326" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
@@ -7023,13 +7023,13 @@
         <v>46</v>
       </c>
       <c r="D327" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E327" s="1">
         <v>46</v>
       </c>
       <c r="F327" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
@@ -7043,13 +7043,13 @@
         <v>73</v>
       </c>
       <c r="D328" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E328" s="1">
         <v>73</v>
       </c>
       <c r="F328" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
@@ -7063,13 +7063,13 @@
         <v>88</v>
       </c>
       <c r="D329" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E329" s="1">
         <v>88</v>
       </c>
       <c r="F329" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
@@ -7083,13 +7083,13 @@
         <v>9001</v>
       </c>
       <c r="D330" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E330" s="1">
         <v>9001</v>
       </c>
       <c r="F330" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
@@ -7103,13 +7103,13 @@
         <v>9008</v>
       </c>
       <c r="D331" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E331" s="2">
         <v>9008</v>
       </c>
       <c r="F331" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
@@ -7123,13 +7123,13 @@
         <v>9010</v>
       </c>
       <c r="D332" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E332" s="1">
         <v>9010</v>
       </c>
       <c r="F332" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
@@ -7143,13 +7143,13 @@
         <v>46</v>
       </c>
       <c r="D333" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E333" s="1">
         <v>46</v>
       </c>
       <c r="F333" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
@@ -7163,13 +7163,13 @@
         <v>73</v>
       </c>
       <c r="D334" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E334" s="1">
         <v>73</v>
       </c>
       <c r="F334" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
@@ -7183,13 +7183,13 @@
         <v>88</v>
       </c>
       <c r="D335" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E335" s="1">
         <v>88</v>
       </c>
       <c r="F335" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
@@ -7203,13 +7203,13 @@
         <v>9001</v>
       </c>
       <c r="D336" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E336" s="1">
         <v>9001</v>
       </c>
       <c r="F336" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
@@ -7223,13 +7223,13 @@
         <v>9008</v>
       </c>
       <c r="D337" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E337" s="2">
         <v>9008</v>
       </c>
       <c r="F337" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
@@ -7243,13 +7243,13 @@
         <v>9010</v>
       </c>
       <c r="D338" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E338" s="1">
         <v>9010</v>
       </c>
       <c r="F338" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
@@ -7263,13 +7263,13 @@
         <v>46</v>
       </c>
       <c r="D339" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E339" s="1">
         <v>46</v>
       </c>
       <c r="F339" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
@@ -7283,13 +7283,13 @@
         <v>73</v>
       </c>
       <c r="D340" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E340" s="1">
         <v>73</v>
       </c>
       <c r="F340" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
@@ -7303,13 +7303,13 @@
         <v>88</v>
       </c>
       <c r="D341" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E341" s="1">
         <v>88</v>
       </c>
       <c r="F341" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
@@ -7323,13 +7323,13 @@
         <v>9001</v>
       </c>
       <c r="D342" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E342" s="1">
         <v>9001</v>
       </c>
       <c r="F342" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
@@ -7343,13 +7343,13 @@
         <v>9008</v>
       </c>
       <c r="D343" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E343" s="2">
         <v>9008</v>
       </c>
       <c r="F343" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
@@ -7363,13 +7363,13 @@
         <v>9010</v>
       </c>
       <c r="D344" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E344" s="1">
         <v>9010</v>
       </c>
       <c r="F344" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
@@ -7383,13 +7383,13 @@
         <v>46</v>
       </c>
       <c r="D345" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E345" s="1">
         <v>46</v>
       </c>
       <c r="F345" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
@@ -7403,13 +7403,13 @@
         <v>73</v>
       </c>
       <c r="D346" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E346" s="1">
         <v>73</v>
       </c>
       <c r="F346" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
@@ -7423,13 +7423,13 @@
         <v>88</v>
       </c>
       <c r="D347" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E347" s="1">
         <v>88</v>
       </c>
       <c r="F347" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
@@ -7443,13 +7443,13 @@
         <v>9001</v>
       </c>
       <c r="D348" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E348" s="1">
         <v>9001</v>
       </c>
       <c r="F348" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
@@ -7463,13 +7463,13 @@
         <v>9008</v>
       </c>
       <c r="D349" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E349" s="2">
         <v>9008</v>
       </c>
       <c r="F349" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
@@ -7483,13 +7483,13 @@
         <v>9010</v>
       </c>
       <c r="D350" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E350" s="1">
         <v>9010</v>
       </c>
       <c r="F350" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
@@ -7503,13 +7503,13 @@
         <v>46</v>
       </c>
       <c r="D351" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E351" s="1">
         <v>46</v>
       </c>
       <c r="F351" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
@@ -7523,13 +7523,13 @@
         <v>73</v>
       </c>
       <c r="D352" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E352" s="1">
         <v>73</v>
       </c>
       <c r="F352" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -7543,13 +7543,13 @@
         <v>88</v>
       </c>
       <c r="D353" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E353" s="1">
         <v>88</v>
       </c>
       <c r="F353" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
@@ -7563,13 +7563,13 @@
         <v>9001</v>
       </c>
       <c r="D354" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E354" s="1">
         <v>9001</v>
       </c>
       <c r="F354" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -7583,13 +7583,13 @@
         <v>9008</v>
       </c>
       <c r="D355" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E355" s="2">
         <v>9008</v>
       </c>
       <c r="F355" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
@@ -7603,13 +7603,13 @@
         <v>9010</v>
       </c>
       <c r="D356" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E356" s="1">
         <v>9010</v>
       </c>
       <c r="F356" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -7623,13 +7623,13 @@
         <v>46</v>
       </c>
       <c r="D357" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E357" s="1">
         <v>46</v>
       </c>
       <c r="F357" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
@@ -7643,13 +7643,13 @@
         <v>73</v>
       </c>
       <c r="D358" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E358" s="1">
         <v>73</v>
       </c>
       <c r="F358" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
@@ -7663,13 +7663,13 @@
         <v>88</v>
       </c>
       <c r="D359" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E359" s="1">
         <v>88</v>
       </c>
       <c r="F359" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
@@ -7683,13 +7683,13 @@
         <v>9001</v>
       </c>
       <c r="D360" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E360" s="1">
         <v>9001</v>
       </c>
       <c r="F360" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -7703,13 +7703,13 @@
         <v>9008</v>
       </c>
       <c r="D361" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E361" s="2">
         <v>9008</v>
       </c>
       <c r="F361" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
@@ -7723,13 +7723,13 @@
         <v>9010</v>
       </c>
       <c r="D362" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E362" s="1">
         <v>9010</v>
       </c>
       <c r="F362" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
@@ -7743,13 +7743,13 @@
         <v>46</v>
       </c>
       <c r="D363" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E363" s="1">
         <v>46</v>
       </c>
       <c r="F363" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -7763,13 +7763,13 @@
         <v>73</v>
       </c>
       <c r="D364" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E364" s="1">
         <v>73</v>
       </c>
       <c r="F364" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -7783,13 +7783,13 @@
         <v>88</v>
       </c>
       <c r="D365" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E365" s="1">
         <v>88</v>
       </c>
       <c r="F365" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
@@ -7803,13 +7803,13 @@
         <v>9001</v>
       </c>
       <c r="D366" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E366" s="1">
         <v>9001</v>
       </c>
       <c r="F366" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
@@ -7823,13 +7823,13 @@
         <v>9008</v>
       </c>
       <c r="D367" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E367" s="2">
         <v>9008</v>
       </c>
       <c r="F367" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
@@ -7843,13 +7843,13 @@
         <v>9010</v>
       </c>
       <c r="D368" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E368" s="1">
         <v>9010</v>
       </c>
       <c r="F368" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
@@ -7863,13 +7863,13 @@
         <v>46</v>
       </c>
       <c r="D369" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E369" s="1">
         <v>46</v>
       </c>
       <c r="F369" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
@@ -7883,13 +7883,13 @@
         <v>73</v>
       </c>
       <c r="D370" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E370" s="1">
         <v>73</v>
       </c>
       <c r="F370" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
@@ -7903,13 +7903,13 @@
         <v>88</v>
       </c>
       <c r="D371" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E371" s="1">
         <v>88</v>
       </c>
       <c r="F371" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
@@ -7923,13 +7923,13 @@
         <v>9001</v>
       </c>
       <c r="D372" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E372" s="1">
         <v>9001</v>
       </c>
       <c r="F372" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
@@ -7943,13 +7943,13 @@
         <v>9008</v>
       </c>
       <c r="D373" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E373" s="2">
         <v>9008</v>
       </c>
       <c r="F373" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
@@ -7963,13 +7963,13 @@
         <v>9010</v>
       </c>
       <c r="D374" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E374" s="1">
         <v>9010</v>
       </c>
       <c r="F374" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
@@ -7983,13 +7983,13 @@
         <v>46</v>
       </c>
       <c r="D375" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E375" s="1">
         <v>46</v>
       </c>
       <c r="F375" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
@@ -8003,13 +8003,13 @@
         <v>73</v>
       </c>
       <c r="D376" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E376" s="1">
         <v>73</v>
       </c>
       <c r="F376" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
@@ -8023,13 +8023,13 @@
         <v>88</v>
       </c>
       <c r="D377" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E377" s="1">
         <v>88</v>
       </c>
       <c r="F377" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
@@ -8043,13 +8043,13 @@
         <v>9001</v>
       </c>
       <c r="D378" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E378" s="1">
         <v>9001</v>
       </c>
       <c r="F378" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
@@ -8063,13 +8063,13 @@
         <v>9008</v>
       </c>
       <c r="D379" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E379" s="2">
         <v>9008</v>
       </c>
       <c r="F379" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
@@ -8083,13 +8083,13 @@
         <v>9010</v>
       </c>
       <c r="D380" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E380" s="1">
         <v>9010</v>
       </c>
       <c r="F380" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
@@ -8103,13 +8103,13 @@
         <v>46</v>
       </c>
       <c r="D381" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E381" s="1">
         <v>46</v>
       </c>
       <c r="F381" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
@@ -8123,13 +8123,13 @@
         <v>73</v>
       </c>
       <c r="D382" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E382" s="1">
         <v>73</v>
       </c>
       <c r="F382" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
@@ -8143,13 +8143,13 @@
         <v>88</v>
       </c>
       <c r="D383" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E383" s="1">
         <v>88</v>
       </c>
       <c r="F383" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
@@ -8163,13 +8163,13 @@
         <v>9001</v>
       </c>
       <c r="D384" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E384" s="1">
         <v>9001</v>
       </c>
       <c r="F384" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
@@ -8183,13 +8183,13 @@
         <v>9008</v>
       </c>
       <c r="D385" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E385" s="2">
         <v>9008</v>
       </c>
       <c r="F385" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
@@ -8203,13 +8203,13 @@
         <v>9010</v>
       </c>
       <c r="D386" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E386" s="1">
         <v>9010</v>
       </c>
       <c r="F386" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
@@ -8223,13 +8223,13 @@
         <v>46</v>
       </c>
       <c r="D387" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E387" s="1">
         <v>46</v>
       </c>
       <c r="F387" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
@@ -8243,13 +8243,13 @@
         <v>73</v>
       </c>
       <c r="D388" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E388" s="1">
         <v>73</v>
       </c>
       <c r="F388" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
@@ -8263,13 +8263,13 @@
         <v>88</v>
       </c>
       <c r="D389" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E389" s="1">
         <v>88</v>
       </c>
       <c r="F389" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
@@ -8283,13 +8283,13 @@
         <v>9001</v>
       </c>
       <c r="D390" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E390" s="1">
         <v>9001</v>
       </c>
       <c r="F390" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
@@ -8303,13 +8303,13 @@
         <v>9008</v>
       </c>
       <c r="D391" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E391" s="2">
         <v>9008</v>
       </c>
       <c r="F391" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
@@ -8323,13 +8323,13 @@
         <v>9010</v>
       </c>
       <c r="D392" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E392" s="1">
         <v>9010</v>
       </c>
       <c r="F392" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
@@ -8343,13 +8343,13 @@
         <v>46</v>
       </c>
       <c r="D393" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E393" s="1">
         <v>46</v>
       </c>
       <c r="F393" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
@@ -8363,13 +8363,13 @@
         <v>73</v>
       </c>
       <c r="D394" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E394" s="1">
         <v>73</v>
       </c>
       <c r="F394" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
@@ -8383,13 +8383,13 @@
         <v>88</v>
       </c>
       <c r="D395" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E395" s="1">
         <v>88</v>
       </c>
       <c r="F395" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
@@ -8403,13 +8403,13 @@
         <v>9001</v>
       </c>
       <c r="D396" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E396" s="1">
         <v>9001</v>
       </c>
       <c r="F396" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
@@ -8423,13 +8423,13 @@
         <v>9008</v>
       </c>
       <c r="D397" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E397" s="2">
         <v>9008</v>
       </c>
       <c r="F397" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
@@ -8443,13 +8443,13 @@
         <v>9010</v>
       </c>
       <c r="D398" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E398" s="1">
         <v>9010</v>
       </c>
       <c r="F398" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
@@ -8463,13 +8463,13 @@
         <v>46</v>
       </c>
       <c r="D399" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E399" s="1">
         <v>46</v>
       </c>
       <c r="F399" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
@@ -8483,13 +8483,13 @@
         <v>73</v>
       </c>
       <c r="D400" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E400" s="1">
         <v>73</v>
       </c>
       <c r="F400" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
@@ -8503,13 +8503,13 @@
         <v>88</v>
       </c>
       <c r="D401" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E401" s="1">
         <v>88</v>
       </c>
       <c r="F401" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
@@ -8523,13 +8523,13 @@
         <v>9001</v>
       </c>
       <c r="D402" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E402" s="1">
         <v>9001</v>
       </c>
       <c r="F402" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
@@ -8543,13 +8543,13 @@
         <v>9008</v>
       </c>
       <c r="D403" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E403" s="2">
         <v>9008</v>
       </c>
       <c r="F403" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
@@ -8563,13 +8563,13 @@
         <v>9010</v>
       </c>
       <c r="D404" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E404" s="1">
         <v>9010</v>
       </c>
       <c r="F404" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
@@ -8583,13 +8583,13 @@
         <v>46</v>
       </c>
       <c r="D405" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E405" s="1">
         <v>46</v>
       </c>
       <c r="F405" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
@@ -8603,13 +8603,13 @@
         <v>73</v>
       </c>
       <c r="D406" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E406" s="1">
         <v>73</v>
       </c>
       <c r="F406" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
@@ -8623,13 +8623,13 @@
         <v>88</v>
       </c>
       <c r="D407" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E407" s="1">
         <v>88</v>
       </c>
       <c r="F407" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
@@ -8643,13 +8643,13 @@
         <v>9001</v>
       </c>
       <c r="D408" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E408" s="1">
         <v>9001</v>
       </c>
       <c r="F408" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
@@ -8663,13 +8663,13 @@
         <v>9008</v>
       </c>
       <c r="D409" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E409" s="2">
         <v>9008</v>
       </c>
       <c r="F409" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
@@ -8683,13 +8683,13 @@
         <v>9010</v>
       </c>
       <c r="D410" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E410" s="1">
         <v>9010</v>
       </c>
       <c r="F410" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
@@ -8703,13 +8703,13 @@
         <v>46</v>
       </c>
       <c r="D411" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E411" s="1">
         <v>46</v>
       </c>
       <c r="F411" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
@@ -8723,13 +8723,13 @@
         <v>73</v>
       </c>
       <c r="D412" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E412" s="1">
         <v>73</v>
       </c>
       <c r="F412" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
@@ -8743,13 +8743,13 @@
         <v>88</v>
       </c>
       <c r="D413" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E413" s="1">
         <v>88</v>
       </c>
       <c r="F413" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
@@ -8763,13 +8763,13 @@
         <v>9001</v>
       </c>
       <c r="D414" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E414" s="1">
         <v>9001</v>
       </c>
       <c r="F414" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
@@ -8783,13 +8783,13 @@
         <v>9008</v>
       </c>
       <c r="D415" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E415" s="2">
         <v>9008</v>
       </c>
       <c r="F415" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
@@ -8803,13 +8803,13 @@
         <v>9010</v>
       </c>
       <c r="D416" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E416" s="1">
         <v>9010</v>
       </c>
       <c r="F416" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
@@ -8823,13 +8823,13 @@
         <v>46</v>
       </c>
       <c r="D417" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E417" s="1">
         <v>46</v>
       </c>
       <c r="F417" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
@@ -8843,13 +8843,13 @@
         <v>73</v>
       </c>
       <c r="D418" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E418" s="1">
         <v>73</v>
       </c>
       <c r="F418" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
@@ -8863,13 +8863,13 @@
         <v>88</v>
       </c>
       <c r="D419" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E419" s="1">
         <v>88</v>
       </c>
       <c r="F419" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
@@ -8883,13 +8883,13 @@
         <v>9001</v>
       </c>
       <c r="D420" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E420" s="1">
         <v>9001</v>
       </c>
       <c r="F420" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
@@ -8903,13 +8903,13 @@
         <v>9008</v>
       </c>
       <c r="D421" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E421" s="2">
         <v>9008</v>
       </c>
       <c r="F421" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
@@ -8923,13 +8923,13 @@
         <v>9010</v>
       </c>
       <c r="D422" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E422" s="1">
         <v>9010</v>
       </c>
       <c r="F422" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
@@ -8943,13 +8943,13 @@
         <v>46</v>
       </c>
       <c r="D423" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E423" s="1">
         <v>46</v>
       </c>
       <c r="F423" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
@@ -8963,13 +8963,13 @@
         <v>73</v>
       </c>
       <c r="D424" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E424" s="1">
         <v>73</v>
       </c>
       <c r="F424" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
@@ -8983,13 +8983,13 @@
         <v>88</v>
       </c>
       <c r="D425" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E425" s="1">
         <v>88</v>
       </c>
       <c r="F425" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
@@ -9003,13 +9003,13 @@
         <v>9001</v>
       </c>
       <c r="D426" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E426" s="1">
         <v>9001</v>
       </c>
       <c r="F426" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
@@ -9023,13 +9023,13 @@
         <v>9008</v>
       </c>
       <c r="D427" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E427" s="2">
         <v>9008</v>
       </c>
       <c r="F427" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
@@ -9043,13 +9043,13 @@
         <v>9010</v>
       </c>
       <c r="D428" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E428" s="1">
         <v>9010</v>
       </c>
       <c r="F428" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
@@ -9063,13 +9063,13 @@
         <v>46</v>
       </c>
       <c r="D429" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E429" s="1">
         <v>46</v>
       </c>
       <c r="F429" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
@@ -9083,13 +9083,13 @@
         <v>73</v>
       </c>
       <c r="D430" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E430" s="1">
         <v>73</v>
       </c>
       <c r="F430" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
@@ -9103,13 +9103,13 @@
         <v>88</v>
       </c>
       <c r="D431" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E431" s="1">
         <v>88</v>
       </c>
       <c r="F431" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
@@ -9123,13 +9123,13 @@
         <v>9001</v>
       </c>
       <c r="D432" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E432" s="1">
         <v>9001</v>
       </c>
       <c r="F432" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
@@ -9143,13 +9143,13 @@
         <v>9008</v>
       </c>
       <c r="D433" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E433" s="2">
         <v>9008</v>
       </c>
       <c r="F433" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
@@ -9163,13 +9163,13 @@
         <v>9010</v>
       </c>
       <c r="D434" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E434" s="1">
         <v>9010</v>
       </c>
       <c r="F434" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
@@ -9183,13 +9183,13 @@
         <v>46</v>
       </c>
       <c r="D435" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E435" s="1">
         <v>46</v>
       </c>
       <c r="F435" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
@@ -9203,13 +9203,13 @@
         <v>73</v>
       </c>
       <c r="D436" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E436" s="1">
         <v>73</v>
       </c>
       <c r="F436" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
@@ -9223,13 +9223,13 @@
         <v>88</v>
       </c>
       <c r="D437" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E437" s="1">
         <v>88</v>
       </c>
       <c r="F437" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
@@ -9243,13 +9243,13 @@
         <v>9001</v>
       </c>
       <c r="D438" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E438" s="1">
         <v>9001</v>
       </c>
       <c r="F438" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
@@ -9263,13 +9263,13 @@
         <v>9008</v>
       </c>
       <c r="D439" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E439" s="2">
         <v>9008</v>
       </c>
       <c r="F439" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
@@ -9283,13 +9283,13 @@
         <v>9010</v>
       </c>
       <c r="D440" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E440" s="1">
         <v>9010</v>
       </c>
       <c r="F440" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
@@ -9303,13 +9303,13 @@
         <v>46</v>
       </c>
       <c r="D441" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E441" s="1">
         <v>46</v>
       </c>
       <c r="F441" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
@@ -9323,13 +9323,13 @@
         <v>73</v>
       </c>
       <c r="D442" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E442" s="1">
         <v>73</v>
       </c>
       <c r="F442" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
@@ -9343,13 +9343,13 @@
         <v>88</v>
       </c>
       <c r="D443" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E443" s="1">
         <v>88</v>
       </c>
       <c r="F443" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
@@ -9363,13 +9363,13 @@
         <v>9001</v>
       </c>
       <c r="D444" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E444" s="1">
         <v>9001</v>
       </c>
       <c r="F444" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
@@ -9383,13 +9383,13 @@
         <v>9008</v>
       </c>
       <c r="D445" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E445" s="2">
         <v>9008</v>
       </c>
       <c r="F445" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
@@ -9403,13 +9403,13 @@
         <v>9010</v>
       </c>
       <c r="D446" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E446" s="1">
         <v>9010</v>
       </c>
       <c r="F446" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
@@ -9423,13 +9423,13 @@
         <v>46</v>
       </c>
       <c r="D447" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E447" s="1">
         <v>46</v>
       </c>
       <c r="F447" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
@@ -9443,13 +9443,13 @@
         <v>73</v>
       </c>
       <c r="D448" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E448" s="1">
         <v>73</v>
       </c>
       <c r="F448" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.3">
@@ -9463,13 +9463,13 @@
         <v>88</v>
       </c>
       <c r="D449" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E449" s="1">
         <v>88</v>
       </c>
       <c r="F449" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
@@ -9483,13 +9483,13 @@
         <v>9001</v>
       </c>
       <c r="D450" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E450" s="1">
         <v>9001</v>
       </c>
       <c r="F450" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
@@ -9503,13 +9503,13 @@
         <v>9008</v>
       </c>
       <c r="D451" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E451" s="2">
         <v>9008</v>
       </c>
       <c r="F451" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
@@ -9523,13 +9523,13 @@
         <v>9010</v>
       </c>
       <c r="D452" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E452" s="1">
         <v>9010</v>
       </c>
       <c r="F452" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.3">
@@ -9543,13 +9543,13 @@
         <v>46</v>
       </c>
       <c r="D453" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E453" s="1">
         <v>46</v>
       </c>
       <c r="F453" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.3">
@@ -9563,13 +9563,13 @@
         <v>73</v>
       </c>
       <c r="D454" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E454" s="1">
         <v>73</v>
       </c>
       <c r="F454" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
@@ -9583,13 +9583,13 @@
         <v>88</v>
       </c>
       <c r="D455" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E455" s="1">
         <v>88</v>
       </c>
       <c r="F455" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
@@ -9603,13 +9603,13 @@
         <v>9001</v>
       </c>
       <c r="D456" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E456" s="1">
         <v>9001</v>
       </c>
       <c r="F456" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
@@ -9623,13 +9623,13 @@
         <v>9008</v>
       </c>
       <c r="D457" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E457" s="2">
         <v>9008</v>
       </c>
       <c r="F457" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.3">
@@ -9643,13 +9643,13 @@
         <v>9010</v>
       </c>
       <c r="D458" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E458" s="1">
         <v>9010</v>
       </c>
       <c r="F458" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
@@ -9663,13 +9663,13 @@
         <v>46</v>
       </c>
       <c r="D459" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E459" s="1">
         <v>46</v>
       </c>
       <c r="F459" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
@@ -9683,13 +9683,13 @@
         <v>73</v>
       </c>
       <c r="D460" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E460" s="1">
         <v>73</v>
       </c>
       <c r="F460" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
@@ -9703,13 +9703,13 @@
         <v>88</v>
       </c>
       <c r="D461" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E461" s="1">
         <v>88</v>
       </c>
       <c r="F461" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
@@ -9723,13 +9723,13 @@
         <v>9001</v>
       </c>
       <c r="D462" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E462" s="1">
         <v>9001</v>
       </c>
       <c r="F462" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
@@ -9743,13 +9743,13 @@
         <v>9008</v>
       </c>
       <c r="D463" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E463" s="2">
         <v>9008</v>
       </c>
       <c r="F463" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
@@ -9763,13 +9763,13 @@
         <v>9010</v>
       </c>
       <c r="D464" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E464" s="1">
         <v>9010</v>
       </c>
       <c r="F464" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
@@ -9783,13 +9783,13 @@
         <v>46</v>
       </c>
       <c r="D465" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E465" s="1">
         <v>46</v>
       </c>
       <c r="F465" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
@@ -9803,13 +9803,13 @@
         <v>73</v>
       </c>
       <c r="D466" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E466" s="1">
         <v>73</v>
       </c>
       <c r="F466" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
@@ -9823,13 +9823,13 @@
         <v>88</v>
       </c>
       <c r="D467" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E467" s="1">
         <v>88</v>
       </c>
       <c r="F467" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
@@ -9843,13 +9843,13 @@
         <v>9001</v>
       </c>
       <c r="D468" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E468" s="1">
         <v>9001</v>
       </c>
       <c r="F468" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
@@ -9863,13 +9863,13 @@
         <v>9008</v>
       </c>
       <c r="D469" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E469" s="2">
         <v>9008</v>
       </c>
       <c r="F469" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
@@ -9883,13 +9883,13 @@
         <v>9010</v>
       </c>
       <c r="D470" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E470" s="1">
         <v>9010</v>
       </c>
       <c r="F470" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
@@ -9903,13 +9903,13 @@
         <v>46</v>
       </c>
       <c r="D471" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E471" s="1">
         <v>46</v>
       </c>
       <c r="F471" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
@@ -9923,13 +9923,13 @@
         <v>73</v>
       </c>
       <c r="D472" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E472" s="1">
         <v>73</v>
       </c>
       <c r="F472" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
@@ -9943,13 +9943,13 @@
         <v>88</v>
       </c>
       <c r="D473" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E473" s="1">
         <v>88</v>
       </c>
       <c r="F473" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
@@ -9963,13 +9963,13 @@
         <v>9001</v>
       </c>
       <c r="D474" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E474" s="1">
         <v>9001</v>
       </c>
       <c r="F474" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.3">
@@ -9983,13 +9983,13 @@
         <v>9008</v>
       </c>
       <c r="D475" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E475" s="2">
         <v>9008</v>
       </c>
       <c r="F475" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
@@ -10003,13 +10003,13 @@
         <v>9010</v>
       </c>
       <c r="D476" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E476" s="1">
         <v>9010</v>
       </c>
       <c r="F476" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.3">
@@ -10023,13 +10023,13 @@
         <v>46</v>
       </c>
       <c r="D477" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E477" s="1">
         <v>46</v>
       </c>
       <c r="F477" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
@@ -10043,13 +10043,13 @@
         <v>73</v>
       </c>
       <c r="D478" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E478" s="1">
         <v>73</v>
       </c>
       <c r="F478" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
@@ -10063,13 +10063,13 @@
         <v>88</v>
       </c>
       <c r="D479" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E479" s="1">
         <v>88</v>
       </c>
       <c r="F479" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.3">
@@ -10083,13 +10083,13 @@
         <v>9001</v>
       </c>
       <c r="D480" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E480" s="1">
         <v>9001</v>
       </c>
       <c r="F480" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.3">
@@ -10103,13 +10103,13 @@
         <v>9008</v>
       </c>
       <c r="D481" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E481" s="2">
         <v>9008</v>
       </c>
       <c r="F481" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
@@ -10123,13 +10123,13 @@
         <v>9010</v>
       </c>
       <c r="D482" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E482" s="1">
         <v>9010</v>
       </c>
       <c r="F482" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
@@ -10143,13 +10143,13 @@
         <v>46</v>
       </c>
       <c r="D483" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E483" s="1">
         <v>46</v>
       </c>
       <c r="F483" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.3">
@@ -10163,13 +10163,13 @@
         <v>73</v>
       </c>
       <c r="D484" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E484" s="1">
         <v>73</v>
       </c>
       <c r="F484" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.3">
@@ -10183,13 +10183,13 @@
         <v>88</v>
       </c>
       <c r="D485" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E485" s="1">
         <v>88</v>
       </c>
       <c r="F485" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.3">
@@ -10203,13 +10203,13 @@
         <v>9001</v>
       </c>
       <c r="D486" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E486" s="1">
         <v>9001</v>
       </c>
       <c r="F486" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
@@ -10223,13 +10223,13 @@
         <v>9008</v>
       </c>
       <c r="D487" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E487" s="2">
         <v>9008</v>
       </c>
       <c r="F487" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.3">
@@ -10243,13 +10243,13 @@
         <v>9010</v>
       </c>
       <c r="D488" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E488" s="1">
         <v>9010</v>
       </c>
       <c r="F488" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.3">
@@ -10263,13 +10263,13 @@
         <v>46</v>
       </c>
       <c r="D489" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E489" s="1">
         <v>46</v>
       </c>
       <c r="F489" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.3">
@@ -10283,13 +10283,13 @@
         <v>73</v>
       </c>
       <c r="D490" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E490" s="1">
         <v>73</v>
       </c>
       <c r="F490" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.3">
@@ -10303,13 +10303,13 @@
         <v>88</v>
       </c>
       <c r="D491" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E491" s="1">
         <v>88</v>
       </c>
       <c r="F491" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.3">
@@ -10323,13 +10323,13 @@
         <v>9001</v>
       </c>
       <c r="D492" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E492" s="1">
         <v>9001</v>
       </c>
       <c r="F492" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.3">
@@ -10343,13 +10343,13 @@
         <v>9008</v>
       </c>
       <c r="D493" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E493" s="2">
         <v>9008</v>
       </c>
       <c r="F493" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.3">
@@ -10363,13 +10363,13 @@
         <v>9010</v>
       </c>
       <c r="D494" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E494" s="1">
         <v>9010</v>
       </c>
       <c r="F494" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.3">
@@ -10383,13 +10383,13 @@
         <v>46</v>
       </c>
       <c r="D495" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E495" s="1">
         <v>46</v>
       </c>
       <c r="F495" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.3">
@@ -10403,13 +10403,13 @@
         <v>73</v>
       </c>
       <c r="D496" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E496" s="1">
         <v>73</v>
       </c>
       <c r="F496" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.3">
@@ -10423,13 +10423,13 @@
         <v>88</v>
       </c>
       <c r="D497" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E497" s="1">
         <v>88</v>
       </c>
       <c r="F497" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.3">
@@ -10443,13 +10443,13 @@
         <v>9001</v>
       </c>
       <c r="D498" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E498" s="1">
         <v>9001</v>
       </c>
       <c r="F498" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.3">
@@ -10463,13 +10463,13 @@
         <v>9008</v>
       </c>
       <c r="D499" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E499" s="2">
         <v>9008</v>
       </c>
       <c r="F499" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.3">
@@ -10483,13 +10483,13 @@
         <v>9010</v>
       </c>
       <c r="D500" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E500" s="1">
         <v>9010</v>
       </c>
       <c r="F500" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.3">
@@ -10503,13 +10503,13 @@
         <v>46</v>
       </c>
       <c r="D501" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E501" s="1">
         <v>46</v>
       </c>
       <c r="F501" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.3">
@@ -10523,13 +10523,13 @@
         <v>73</v>
       </c>
       <c r="D502" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E502" s="1">
         <v>73</v>
       </c>
       <c r="F502" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.3">
@@ -10543,13 +10543,13 @@
         <v>88</v>
       </c>
       <c r="D503" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E503" s="1">
         <v>88</v>
       </c>
       <c r="F503" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.3">
@@ -10563,13 +10563,13 @@
         <v>9001</v>
       </c>
       <c r="D504" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E504" s="1">
         <v>9001</v>
       </c>
       <c r="F504" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.3">
@@ -10583,13 +10583,13 @@
         <v>9008</v>
       </c>
       <c r="D505" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E505" s="2">
         <v>9008</v>
       </c>
       <c r="F505" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.3">
@@ -10603,13 +10603,13 @@
         <v>9010</v>
       </c>
       <c r="D506" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E506" s="1">
         <v>9010</v>
       </c>
       <c r="F506" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.3">
@@ -10623,13 +10623,13 @@
         <v>46</v>
       </c>
       <c r="D507" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E507" s="1">
         <v>46</v>
       </c>
       <c r="F507" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.3">
@@ -10643,13 +10643,13 @@
         <v>73</v>
       </c>
       <c r="D508" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E508" s="1">
         <v>73</v>
       </c>
       <c r="F508" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.3">
@@ -10663,13 +10663,13 @@
         <v>88</v>
       </c>
       <c r="D509" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E509" s="1">
         <v>88</v>
       </c>
       <c r="F509" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.3">
@@ -10683,13 +10683,13 @@
         <v>9001</v>
       </c>
       <c r="D510" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E510" s="1">
         <v>9001</v>
       </c>
       <c r="F510" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.3">
@@ -10703,13 +10703,13 @@
         <v>9008</v>
       </c>
       <c r="D511" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E511" s="2">
         <v>9008</v>
       </c>
       <c r="F511" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.3">
@@ -10723,13 +10723,13 @@
         <v>9010</v>
       </c>
       <c r="D512" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E512" s="1">
         <v>9010</v>
       </c>
       <c r="F512" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.3">
@@ -10743,13 +10743,13 @@
         <v>46</v>
       </c>
       <c r="D513" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E513" s="1">
         <v>46</v>
       </c>
       <c r="F513" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.3">
@@ -10763,13 +10763,13 @@
         <v>73</v>
       </c>
       <c r="D514" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E514" s="1">
         <v>73</v>
       </c>
       <c r="F514" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.3">
@@ -10783,13 +10783,13 @@
         <v>88</v>
       </c>
       <c r="D515" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E515" s="1">
         <v>88</v>
       </c>
       <c r="F515" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.3">
@@ -10803,13 +10803,13 @@
         <v>9001</v>
       </c>
       <c r="D516" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E516" s="1">
         <v>9001</v>
       </c>
       <c r="F516" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.3">
@@ -10823,13 +10823,13 @@
         <v>9008</v>
       </c>
       <c r="D517" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E517" s="2">
         <v>9008</v>
       </c>
       <c r="F517" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.3">
@@ -10843,13 +10843,13 @@
         <v>9010</v>
       </c>
       <c r="D518" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E518" s="1">
         <v>9010</v>
       </c>
       <c r="F518" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.3">
@@ -10863,13 +10863,13 @@
         <v>46</v>
       </c>
       <c r="D519" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E519" s="1">
         <v>46</v>
       </c>
       <c r="F519" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.3">
@@ -10883,13 +10883,13 @@
         <v>73</v>
       </c>
       <c r="D520" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E520" s="1">
         <v>73</v>
       </c>
       <c r="F520" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.3">
@@ -10903,13 +10903,13 @@
         <v>88</v>
       </c>
       <c r="D521" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E521" s="1">
         <v>88</v>
       </c>
       <c r="F521" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.3">
@@ -10923,13 +10923,13 @@
         <v>9001</v>
       </c>
       <c r="D522" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E522" s="1">
         <v>9001</v>
       </c>
       <c r="F522" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.3">
@@ -10943,13 +10943,13 @@
         <v>9008</v>
       </c>
       <c r="D523" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E523" s="2">
         <v>9008</v>
       </c>
       <c r="F523" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.3">
@@ -10963,13 +10963,13 @@
         <v>9010</v>
       </c>
       <c r="D524" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E524" s="1">
         <v>9010</v>
       </c>
       <c r="F524" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.3">
@@ -10983,13 +10983,13 @@
         <v>46</v>
       </c>
       <c r="D525" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E525" s="1">
         <v>46</v>
       </c>
       <c r="F525" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.3">
@@ -11003,13 +11003,13 @@
         <v>73</v>
       </c>
       <c r="D526" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E526" s="1">
         <v>73</v>
       </c>
       <c r="F526" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.3">
@@ -11023,13 +11023,13 @@
         <v>88</v>
       </c>
       <c r="D527" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E527" s="1">
         <v>88</v>
       </c>
       <c r="F527" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.3">
@@ -11043,13 +11043,13 @@
         <v>9001</v>
       </c>
       <c r="D528" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E528" s="1">
         <v>9001</v>
       </c>
       <c r="F528" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.3">
@@ -11063,13 +11063,13 @@
         <v>9008</v>
       </c>
       <c r="D529" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E529" s="2">
         <v>9008</v>
       </c>
       <c r="F529" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.3">
@@ -11083,13 +11083,13 @@
         <v>9010</v>
       </c>
       <c r="D530" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E530" s="1">
         <v>9010</v>
       </c>
       <c r="F530" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.3">
@@ -11103,13 +11103,13 @@
         <v>46</v>
       </c>
       <c r="D531" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E531" s="1">
         <v>46</v>
       </c>
       <c r="F531" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.3">
@@ -11123,13 +11123,13 @@
         <v>73</v>
       </c>
       <c r="D532" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E532" s="1">
         <v>73</v>
       </c>
       <c r="F532" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.3">
@@ -11143,13 +11143,13 @@
         <v>88</v>
       </c>
       <c r="D533" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E533" s="1">
         <v>88</v>
       </c>
       <c r="F533" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.3">
@@ -11163,13 +11163,13 @@
         <v>9001</v>
       </c>
       <c r="D534" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E534" s="1">
         <v>9001</v>
       </c>
       <c r="F534" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.3">
@@ -11183,13 +11183,13 @@
         <v>9008</v>
       </c>
       <c r="D535" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E535" s="2">
         <v>9008</v>
       </c>
       <c r="F535" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.3">
@@ -11203,13 +11203,13 @@
         <v>9010</v>
       </c>
       <c r="D536" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E536" s="1">
         <v>9010</v>
       </c>
       <c r="F536" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.3">
@@ -11223,13 +11223,13 @@
         <v>46</v>
       </c>
       <c r="D537" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E537" s="1">
         <v>46</v>
       </c>
       <c r="F537" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.3">
@@ -11243,13 +11243,13 @@
         <v>73</v>
       </c>
       <c r="D538" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E538" s="1">
         <v>73</v>
       </c>
       <c r="F538" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.3">
@@ -11263,13 +11263,13 @@
         <v>88</v>
       </c>
       <c r="D539" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E539" s="1">
         <v>88</v>
       </c>
       <c r="F539" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.3">
@@ -11283,13 +11283,13 @@
         <v>9001</v>
       </c>
       <c r="D540" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E540" s="1">
         <v>9001</v>
       </c>
       <c r="F540" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.3">
@@ -11303,13 +11303,13 @@
         <v>9008</v>
       </c>
       <c r="D541" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E541" s="2">
         <v>9008</v>
       </c>
       <c r="F541" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.3">
@@ -11323,13 +11323,13 @@
         <v>9010</v>
       </c>
       <c r="D542" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E542" s="1">
         <v>9010</v>
       </c>
       <c r="F542" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.3">
@@ -11343,13 +11343,13 @@
         <v>46</v>
       </c>
       <c r="D543" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E543" s="1">
         <v>46</v>
       </c>
       <c r="F543" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.3">
@@ -11363,13 +11363,13 @@
         <v>73</v>
       </c>
       <c r="D544" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E544" s="1">
         <v>73</v>
       </c>
       <c r="F544" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.3">
@@ -11383,13 +11383,13 @@
         <v>88</v>
       </c>
       <c r="D545" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E545" s="1">
         <v>88</v>
       </c>
       <c r="F545" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.3">
@@ -11403,13 +11403,13 @@
         <v>9001</v>
       </c>
       <c r="D546" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E546" s="1">
         <v>9001</v>
       </c>
       <c r="F546" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.3">
@@ -11423,13 +11423,13 @@
         <v>9008</v>
       </c>
       <c r="D547" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E547" s="2">
         <v>9008</v>
       </c>
       <c r="F547" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.3">
@@ -11443,13 +11443,13 @@
         <v>9010</v>
       </c>
       <c r="D548" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E548" s="1">
         <v>9010</v>
       </c>
       <c r="F548" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.3">
@@ -11463,13 +11463,13 @@
         <v>46</v>
       </c>
       <c r="D549" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E549" s="1">
         <v>46</v>
       </c>
       <c r="F549" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.3">
@@ -11483,13 +11483,13 @@
         <v>73</v>
       </c>
       <c r="D550" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E550" s="1">
         <v>73</v>
       </c>
       <c r="F550" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.3">
@@ -11503,13 +11503,13 @@
         <v>88</v>
       </c>
       <c r="D551" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E551" s="1">
         <v>88</v>
       </c>
       <c r="F551" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.3">
@@ -11523,13 +11523,13 @@
         <v>9001</v>
       </c>
       <c r="D552" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E552" s="1">
         <v>9001</v>
       </c>
       <c r="F552" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.3">
@@ -11543,13 +11543,13 @@
         <v>9008</v>
       </c>
       <c r="D553" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E553" s="2">
         <v>9008</v>
       </c>
       <c r="F553" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.3">
@@ -11563,13 +11563,13 @@
         <v>9010</v>
       </c>
       <c r="D554" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E554" s="1">
         <v>9010</v>
       </c>
       <c r="F554" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.3">
@@ -11583,13 +11583,13 @@
         <v>46</v>
       </c>
       <c r="D555" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E555" s="1">
         <v>46</v>
       </c>
       <c r="F555" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.3">
@@ -11603,13 +11603,13 @@
         <v>73</v>
       </c>
       <c r="D556" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E556" s="1">
         <v>73</v>
       </c>
       <c r="F556" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.3">
@@ -11623,13 +11623,13 @@
         <v>88</v>
       </c>
       <c r="D557" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E557" s="1">
         <v>88</v>
       </c>
       <c r="F557" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.3">
@@ -11643,13 +11643,13 @@
         <v>9001</v>
       </c>
       <c r="D558" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E558" s="1">
         <v>9001</v>
       </c>
       <c r="F558" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.3">
@@ -11663,13 +11663,13 @@
         <v>9008</v>
       </c>
       <c r="D559" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E559" s="2">
         <v>9008</v>
       </c>
       <c r="F559" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.3">
@@ -11683,13 +11683,13 @@
         <v>9010</v>
       </c>
       <c r="D560" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="E560" s="1">
         <v>9010</v>
       </c>
       <c r="F560" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MonthlyPass2.xlsx
+++ b/Assets/06.Table/MonthlyPass2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C440ECF-C236-4000-AE96-ED10A3F36E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1703E50E-60B4-4EF5-8DCA-1C0357FB0D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="monthpass2" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
   <dimension ref="A1:F560"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -523,13 +523,13 @@
         <v>46</v>
       </c>
       <c r="D2" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E2" s="1">
         <v>46</v>
       </c>
       <c r="F2" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -543,13 +543,13 @@
         <v>73</v>
       </c>
       <c r="D3" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E3" s="1">
         <v>73</v>
       </c>
       <c r="F3" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -563,13 +563,13 @@
         <v>88</v>
       </c>
       <c r="D4" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E4" s="1">
         <v>88</v>
       </c>
       <c r="F4" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -583,13 +583,13 @@
         <v>9001</v>
       </c>
       <c r="D5" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E5" s="1">
         <v>9001</v>
       </c>
       <c r="F5" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -603,13 +603,13 @@
         <v>9008</v>
       </c>
       <c r="D6" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E6" s="2">
         <v>9008</v>
       </c>
       <c r="F6" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -623,13 +623,13 @@
         <v>9010</v>
       </c>
       <c r="D7" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E7" s="1">
         <v>9010</v>
       </c>
       <c r="F7" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -640,13 +640,13 @@
         <v>2000000</v>
       </c>
       <c r="C8" s="3">
-        <v>8607</v>
+        <v>8609</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="3">
-        <v>1409</v>
+        <v>1431</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -663,13 +663,13 @@
         <v>46</v>
       </c>
       <c r="D9" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E9" s="1">
         <v>46</v>
       </c>
       <c r="F9" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -683,13 +683,13 @@
         <v>73</v>
       </c>
       <c r="D10" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E10" s="1">
         <v>73</v>
       </c>
       <c r="F10" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -703,13 +703,13 @@
         <v>88</v>
       </c>
       <c r="D11" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E11" s="1">
         <v>88</v>
       </c>
       <c r="F11" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -723,13 +723,13 @@
         <v>9001</v>
       </c>
       <c r="D12" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E12" s="1">
         <v>9001</v>
       </c>
       <c r="F12" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -743,13 +743,13 @@
         <v>9008</v>
       </c>
       <c r="D13" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E13" s="2">
         <v>9008</v>
       </c>
       <c r="F13" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -763,13 +763,13 @@
         <v>9010</v>
       </c>
       <c r="D14" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E14" s="1">
         <v>9010</v>
       </c>
       <c r="F14" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -783,13 +783,13 @@
         <v>46</v>
       </c>
       <c r="D15" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E15" s="1">
         <v>46</v>
       </c>
       <c r="F15" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -803,13 +803,13 @@
         <v>73</v>
       </c>
       <c r="D16" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E16" s="1">
         <v>73</v>
       </c>
       <c r="F16" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -823,13 +823,13 @@
         <v>88</v>
       </c>
       <c r="D17" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E17" s="1">
         <v>88</v>
       </c>
       <c r="F17" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -843,13 +843,13 @@
         <v>9001</v>
       </c>
       <c r="D18" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E18" s="1">
         <v>9001</v>
       </c>
       <c r="F18" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -863,13 +863,13 @@
         <v>9008</v>
       </c>
       <c r="D19" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E19" s="2">
         <v>9008</v>
       </c>
       <c r="F19" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -883,13 +883,13 @@
         <v>9010</v>
       </c>
       <c r="D20" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E20" s="1">
         <v>9010</v>
       </c>
       <c r="F20" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -903,13 +903,13 @@
         <v>46</v>
       </c>
       <c r="D21" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E21" s="1">
         <v>46</v>
       </c>
       <c r="F21" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -923,13 +923,13 @@
         <v>73</v>
       </c>
       <c r="D22" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E22" s="1">
         <v>73</v>
       </c>
       <c r="F22" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -943,13 +943,13 @@
         <v>88</v>
       </c>
       <c r="D23" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E23" s="1">
         <v>88</v>
       </c>
       <c r="F23" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -963,13 +963,13 @@
         <v>9001</v>
       </c>
       <c r="D24" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E24" s="1">
         <v>9001</v>
       </c>
       <c r="F24" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -983,13 +983,13 @@
         <v>9008</v>
       </c>
       <c r="D25" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E25" s="2">
         <v>9008</v>
       </c>
       <c r="F25" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1003,13 +1003,13 @@
         <v>9010</v>
       </c>
       <c r="D26" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E26" s="1">
         <v>9010</v>
       </c>
       <c r="F26" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1023,13 +1023,13 @@
         <v>46</v>
       </c>
       <c r="D27" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E27" s="1">
         <v>46</v>
       </c>
       <c r="F27" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1043,13 +1043,13 @@
         <v>73</v>
       </c>
       <c r="D28" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E28" s="1">
         <v>73</v>
       </c>
       <c r="F28" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1063,13 +1063,13 @@
         <v>88</v>
       </c>
       <c r="D29" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E29" s="1">
         <v>88</v>
       </c>
       <c r="F29" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1083,13 +1083,13 @@
         <v>9001</v>
       </c>
       <c r="D30" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E30" s="1">
         <v>9001</v>
       </c>
       <c r="F30" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1103,13 +1103,13 @@
         <v>9008</v>
       </c>
       <c r="D31" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E31" s="2">
         <v>9008</v>
       </c>
       <c r="F31" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1123,13 +1123,13 @@
         <v>9010</v>
       </c>
       <c r="D32" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E32" s="1">
         <v>9010</v>
       </c>
       <c r="F32" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1143,13 +1143,13 @@
         <v>46</v>
       </c>
       <c r="D33" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E33" s="1">
         <v>46</v>
       </c>
       <c r="F33" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1163,13 +1163,13 @@
         <v>73</v>
       </c>
       <c r="D34" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E34" s="1">
         <v>73</v>
       </c>
       <c r="F34" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1183,13 +1183,13 @@
         <v>88</v>
       </c>
       <c r="D35" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E35" s="1">
         <v>88</v>
       </c>
       <c r="F35" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1203,13 +1203,13 @@
         <v>9001</v>
       </c>
       <c r="D36" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E36" s="1">
         <v>9001</v>
       </c>
       <c r="F36" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1223,13 +1223,13 @@
         <v>9008</v>
       </c>
       <c r="D37" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E37" s="2">
         <v>9008</v>
       </c>
       <c r="F37" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1243,13 +1243,13 @@
         <v>9010</v>
       </c>
       <c r="D38" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E38" s="1">
         <v>9010</v>
       </c>
       <c r="F38" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1263,13 +1263,13 @@
         <v>46</v>
       </c>
       <c r="D39" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E39" s="1">
         <v>46</v>
       </c>
       <c r="F39" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1283,13 +1283,13 @@
         <v>73</v>
       </c>
       <c r="D40" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E40" s="1">
         <v>73</v>
       </c>
       <c r="F40" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1303,13 +1303,13 @@
         <v>88</v>
       </c>
       <c r="D41" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E41" s="1">
         <v>88</v>
       </c>
       <c r="F41" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1323,13 +1323,13 @@
         <v>9001</v>
       </c>
       <c r="D42" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E42" s="1">
         <v>9001</v>
       </c>
       <c r="F42" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1343,13 +1343,13 @@
         <v>9008</v>
       </c>
       <c r="D43" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E43" s="2">
         <v>9008</v>
       </c>
       <c r="F43" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1363,13 +1363,13 @@
         <v>9010</v>
       </c>
       <c r="D44" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E44" s="1">
         <v>9010</v>
       </c>
       <c r="F44" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1383,13 +1383,13 @@
         <v>46</v>
       </c>
       <c r="D45" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E45" s="1">
         <v>46</v>
       </c>
       <c r="F45" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1403,13 +1403,13 @@
         <v>73</v>
       </c>
       <c r="D46" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E46" s="1">
         <v>73</v>
       </c>
       <c r="F46" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1423,13 +1423,13 @@
         <v>88</v>
       </c>
       <c r="D47" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E47" s="1">
         <v>88</v>
       </c>
       <c r="F47" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1443,13 +1443,13 @@
         <v>9001</v>
       </c>
       <c r="D48" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E48" s="1">
         <v>9001</v>
       </c>
       <c r="F48" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1463,13 +1463,13 @@
         <v>9008</v>
       </c>
       <c r="D49" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E49" s="2">
         <v>9008</v>
       </c>
       <c r="F49" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1483,13 +1483,13 @@
         <v>9010</v>
       </c>
       <c r="D50" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E50" s="1">
         <v>9010</v>
       </c>
       <c r="F50" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1503,13 +1503,13 @@
         <v>46</v>
       </c>
       <c r="D51" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E51" s="1">
         <v>46</v>
       </c>
       <c r="F51" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -1523,13 +1523,13 @@
         <v>73</v>
       </c>
       <c r="D52" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E52" s="1">
         <v>73</v>
       </c>
       <c r="F52" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1543,13 +1543,13 @@
         <v>88</v>
       </c>
       <c r="D53" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E53" s="1">
         <v>88</v>
       </c>
       <c r="F53" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1563,13 +1563,13 @@
         <v>9001</v>
       </c>
       <c r="D54" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E54" s="1">
         <v>9001</v>
       </c>
       <c r="F54" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1583,13 +1583,13 @@
         <v>9008</v>
       </c>
       <c r="D55" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E55" s="2">
         <v>9008</v>
       </c>
       <c r="F55" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1603,13 +1603,13 @@
         <v>9010</v>
       </c>
       <c r="D56" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E56" s="1">
         <v>9010</v>
       </c>
       <c r="F56" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -1623,13 +1623,13 @@
         <v>46</v>
       </c>
       <c r="D57" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E57" s="1">
         <v>46</v>
       </c>
       <c r="F57" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -1643,13 +1643,13 @@
         <v>73</v>
       </c>
       <c r="D58" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E58" s="1">
         <v>73</v>
       </c>
       <c r="F58" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -1663,13 +1663,13 @@
         <v>88</v>
       </c>
       <c r="D59" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E59" s="1">
         <v>88</v>
       </c>
       <c r="F59" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -1683,13 +1683,13 @@
         <v>9001</v>
       </c>
       <c r="D60" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E60" s="1">
         <v>9001</v>
       </c>
       <c r="F60" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1703,13 +1703,13 @@
         <v>9008</v>
       </c>
       <c r="D61" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E61" s="2">
         <v>9008</v>
       </c>
       <c r="F61" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -1723,13 +1723,13 @@
         <v>9010</v>
       </c>
       <c r="D62" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E62" s="1">
         <v>9010</v>
       </c>
       <c r="F62" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -1743,13 +1743,13 @@
         <v>46</v>
       </c>
       <c r="D63" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E63" s="1">
         <v>46</v>
       </c>
       <c r="F63" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -1763,13 +1763,13 @@
         <v>73</v>
       </c>
       <c r="D64" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E64" s="1">
         <v>73</v>
       </c>
       <c r="F64" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -1783,13 +1783,13 @@
         <v>88</v>
       </c>
       <c r="D65" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E65" s="1">
         <v>88</v>
       </c>
       <c r="F65" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1803,13 +1803,13 @@
         <v>9001</v>
       </c>
       <c r="D66" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E66" s="1">
         <v>9001</v>
       </c>
       <c r="F66" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -1823,13 +1823,13 @@
         <v>9008</v>
       </c>
       <c r="D67" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E67" s="2">
         <v>9008</v>
       </c>
       <c r="F67" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -1843,13 +1843,13 @@
         <v>9010</v>
       </c>
       <c r="D68" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E68" s="1">
         <v>9010</v>
       </c>
       <c r="F68" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -1863,13 +1863,13 @@
         <v>46</v>
       </c>
       <c r="D69" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E69" s="1">
         <v>46</v>
       </c>
       <c r="F69" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -1883,13 +1883,13 @@
         <v>73</v>
       </c>
       <c r="D70" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E70" s="1">
         <v>73</v>
       </c>
       <c r="F70" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1903,13 +1903,13 @@
         <v>88</v>
       </c>
       <c r="D71" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E71" s="1">
         <v>88</v>
       </c>
       <c r="F71" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -1923,13 +1923,13 @@
         <v>9001</v>
       </c>
       <c r="D72" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E72" s="1">
         <v>9001</v>
       </c>
       <c r="F72" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -1943,13 +1943,13 @@
         <v>9008</v>
       </c>
       <c r="D73" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E73" s="2">
         <v>9008</v>
       </c>
       <c r="F73" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -1963,13 +1963,13 @@
         <v>9010</v>
       </c>
       <c r="D74" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E74" s="1">
         <v>9010</v>
       </c>
       <c r="F74" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -1983,13 +1983,13 @@
         <v>46</v>
       </c>
       <c r="D75" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E75" s="1">
         <v>46</v>
       </c>
       <c r="F75" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2003,13 +2003,13 @@
         <v>73</v>
       </c>
       <c r="D76" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E76" s="1">
         <v>73</v>
       </c>
       <c r="F76" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -2023,13 +2023,13 @@
         <v>88</v>
       </c>
       <c r="D77" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E77" s="1">
         <v>88</v>
       </c>
       <c r="F77" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2043,13 +2043,13 @@
         <v>9001</v>
       </c>
       <c r="D78" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E78" s="1">
         <v>9001</v>
       </c>
       <c r="F78" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2063,13 +2063,13 @@
         <v>9008</v>
       </c>
       <c r="D79" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E79" s="2">
         <v>9008</v>
       </c>
       <c r="F79" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2083,13 +2083,13 @@
         <v>9010</v>
       </c>
       <c r="D80" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E80" s="1">
         <v>9010</v>
       </c>
       <c r="F80" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2103,13 +2103,13 @@
         <v>46</v>
       </c>
       <c r="D81" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E81" s="1">
         <v>46</v>
       </c>
       <c r="F81" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -2123,13 +2123,13 @@
         <v>73</v>
       </c>
       <c r="D82" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E82" s="1">
         <v>73</v>
       </c>
       <c r="F82" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -2143,13 +2143,13 @@
         <v>88</v>
       </c>
       <c r="D83" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E83" s="1">
         <v>88</v>
       </c>
       <c r="F83" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -2163,13 +2163,13 @@
         <v>9001</v>
       </c>
       <c r="D84" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E84" s="1">
         <v>9001</v>
       </c>
       <c r="F84" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -2183,13 +2183,13 @@
         <v>9008</v>
       </c>
       <c r="D85" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E85" s="2">
         <v>9008</v>
       </c>
       <c r="F85" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2203,13 +2203,13 @@
         <v>9010</v>
       </c>
       <c r="D86" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E86" s="1">
         <v>9010</v>
       </c>
       <c r="F86" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -2223,13 +2223,13 @@
         <v>46</v>
       </c>
       <c r="D87" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E87" s="1">
         <v>46</v>
       </c>
       <c r="F87" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -2243,13 +2243,13 @@
         <v>73</v>
       </c>
       <c r="D88" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E88" s="1">
         <v>73</v>
       </c>
       <c r="F88" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -2263,13 +2263,13 @@
         <v>88</v>
       </c>
       <c r="D89" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E89" s="1">
         <v>88</v>
       </c>
       <c r="F89" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -2283,13 +2283,13 @@
         <v>9001</v>
       </c>
       <c r="D90" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E90" s="1">
         <v>9001</v>
       </c>
       <c r="F90" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2303,13 +2303,13 @@
         <v>9008</v>
       </c>
       <c r="D91" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E91" s="2">
         <v>9008</v>
       </c>
       <c r="F91" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -2323,13 +2323,13 @@
         <v>9010</v>
       </c>
       <c r="D92" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E92" s="1">
         <v>9010</v>
       </c>
       <c r="F92" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -2343,13 +2343,13 @@
         <v>46</v>
       </c>
       <c r="D93" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E93" s="1">
         <v>46</v>
       </c>
       <c r="F93" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -2363,13 +2363,13 @@
         <v>73</v>
       </c>
       <c r="D94" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E94" s="1">
         <v>73</v>
       </c>
       <c r="F94" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -2383,13 +2383,13 @@
         <v>88</v>
       </c>
       <c r="D95" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E95" s="1">
         <v>88</v>
       </c>
       <c r="F95" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -2403,13 +2403,13 @@
         <v>9001</v>
       </c>
       <c r="D96" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E96" s="1">
         <v>9001</v>
       </c>
       <c r="F96" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -2423,13 +2423,13 @@
         <v>9008</v>
       </c>
       <c r="D97" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E97" s="2">
         <v>9008</v>
       </c>
       <c r="F97" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -2443,13 +2443,13 @@
         <v>9010</v>
       </c>
       <c r="D98" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E98" s="1">
         <v>9010</v>
       </c>
       <c r="F98" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -2463,13 +2463,13 @@
         <v>46</v>
       </c>
       <c r="D99" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E99" s="1">
         <v>46</v>
       </c>
       <c r="F99" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -2483,13 +2483,13 @@
         <v>73</v>
       </c>
       <c r="D100" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E100" s="1">
         <v>73</v>
       </c>
       <c r="F100" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -2503,13 +2503,13 @@
         <v>88</v>
       </c>
       <c r="D101" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E101" s="1">
         <v>88</v>
       </c>
       <c r="F101" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -2523,13 +2523,13 @@
         <v>9001</v>
       </c>
       <c r="D102" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E102" s="1">
         <v>9001</v>
       </c>
       <c r="F102" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -2543,13 +2543,13 @@
         <v>9008</v>
       </c>
       <c r="D103" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E103" s="2">
         <v>9008</v>
       </c>
       <c r="F103" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -2563,13 +2563,13 @@
         <v>9010</v>
       </c>
       <c r="D104" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E104" s="1">
         <v>9010</v>
       </c>
       <c r="F104" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -2583,13 +2583,13 @@
         <v>46</v>
       </c>
       <c r="D105" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E105" s="1">
         <v>46</v>
       </c>
       <c r="F105" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -2603,13 +2603,13 @@
         <v>73</v>
       </c>
       <c r="D106" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E106" s="1">
         <v>73</v>
       </c>
       <c r="F106" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -2623,13 +2623,13 @@
         <v>88</v>
       </c>
       <c r="D107" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E107" s="1">
         <v>88</v>
       </c>
       <c r="F107" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -2643,13 +2643,13 @@
         <v>9001</v>
       </c>
       <c r="D108" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E108" s="1">
         <v>9001</v>
       </c>
       <c r="F108" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -2663,13 +2663,13 @@
         <v>9008</v>
       </c>
       <c r="D109" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E109" s="2">
         <v>9008</v>
       </c>
       <c r="F109" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -2683,13 +2683,13 @@
         <v>9010</v>
       </c>
       <c r="D110" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E110" s="1">
         <v>9010</v>
       </c>
       <c r="F110" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -2703,13 +2703,13 @@
         <v>46</v>
       </c>
       <c r="D111" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E111" s="1">
         <v>46</v>
       </c>
       <c r="F111" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -2723,13 +2723,13 @@
         <v>73</v>
       </c>
       <c r="D112" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E112" s="1">
         <v>73</v>
       </c>
       <c r="F112" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -2743,13 +2743,13 @@
         <v>88</v>
       </c>
       <c r="D113" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E113" s="1">
         <v>88</v>
       </c>
       <c r="F113" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -2763,13 +2763,13 @@
         <v>9001</v>
       </c>
       <c r="D114" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E114" s="1">
         <v>9001</v>
       </c>
       <c r="F114" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -2783,13 +2783,13 @@
         <v>9008</v>
       </c>
       <c r="D115" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E115" s="2">
         <v>9008</v>
       </c>
       <c r="F115" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -2803,13 +2803,13 @@
         <v>9010</v>
       </c>
       <c r="D116" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E116" s="1">
         <v>9010</v>
       </c>
       <c r="F116" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -2823,13 +2823,13 @@
         <v>46</v>
       </c>
       <c r="D117" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E117" s="1">
         <v>46</v>
       </c>
       <c r="F117" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -2843,13 +2843,13 @@
         <v>73</v>
       </c>
       <c r="D118" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E118" s="1">
         <v>73</v>
       </c>
       <c r="F118" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -2863,13 +2863,13 @@
         <v>88</v>
       </c>
       <c r="D119" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E119" s="1">
         <v>88</v>
       </c>
       <c r="F119" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -2883,13 +2883,13 @@
         <v>9001</v>
       </c>
       <c r="D120" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E120" s="1">
         <v>9001</v>
       </c>
       <c r="F120" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -2903,13 +2903,13 @@
         <v>9008</v>
       </c>
       <c r="D121" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E121" s="2">
         <v>9008</v>
       </c>
       <c r="F121" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -2923,13 +2923,13 @@
         <v>9010</v>
       </c>
       <c r="D122" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E122" s="1">
         <v>9010</v>
       </c>
       <c r="F122" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -2943,13 +2943,13 @@
         <v>46</v>
       </c>
       <c r="D123" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E123" s="1">
         <v>46</v>
       </c>
       <c r="F123" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -2963,13 +2963,13 @@
         <v>73</v>
       </c>
       <c r="D124" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E124" s="1">
         <v>73</v>
       </c>
       <c r="F124" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -2983,13 +2983,13 @@
         <v>88</v>
       </c>
       <c r="D125" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E125" s="1">
         <v>88</v>
       </c>
       <c r="F125" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -3003,13 +3003,13 @@
         <v>9001</v>
       </c>
       <c r="D126" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E126" s="1">
         <v>9001</v>
       </c>
       <c r="F126" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -3023,13 +3023,13 @@
         <v>9008</v>
       </c>
       <c r="D127" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E127" s="2">
         <v>9008</v>
       </c>
       <c r="F127" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -3043,13 +3043,13 @@
         <v>9010</v>
       </c>
       <c r="D128" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E128" s="1">
         <v>9010</v>
       </c>
       <c r="F128" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -3063,13 +3063,13 @@
         <v>46</v>
       </c>
       <c r="D129" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E129" s="1">
         <v>46</v>
       </c>
       <c r="F129" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -3083,13 +3083,13 @@
         <v>73</v>
       </c>
       <c r="D130" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E130" s="1">
         <v>73</v>
       </c>
       <c r="F130" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -3103,13 +3103,13 @@
         <v>88</v>
       </c>
       <c r="D131" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E131" s="1">
         <v>88</v>
       </c>
       <c r="F131" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -3123,13 +3123,13 @@
         <v>9001</v>
       </c>
       <c r="D132" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E132" s="1">
         <v>9001</v>
       </c>
       <c r="F132" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -3143,13 +3143,13 @@
         <v>9008</v>
       </c>
       <c r="D133" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E133" s="2">
         <v>9008</v>
       </c>
       <c r="F133" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -3163,13 +3163,13 @@
         <v>9010</v>
       </c>
       <c r="D134" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E134" s="1">
         <v>9010</v>
       </c>
       <c r="F134" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -3183,13 +3183,13 @@
         <v>46</v>
       </c>
       <c r="D135" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E135" s="1">
         <v>46</v>
       </c>
       <c r="F135" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -3203,13 +3203,13 @@
         <v>73</v>
       </c>
       <c r="D136" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E136" s="1">
         <v>73</v>
       </c>
       <c r="F136" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -3223,13 +3223,13 @@
         <v>88</v>
       </c>
       <c r="D137" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E137" s="1">
         <v>88</v>
       </c>
       <c r="F137" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -3243,13 +3243,13 @@
         <v>9001</v>
       </c>
       <c r="D138" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E138" s="1">
         <v>9001</v>
       </c>
       <c r="F138" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -3263,13 +3263,13 @@
         <v>9008</v>
       </c>
       <c r="D139" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E139" s="2">
         <v>9008</v>
       </c>
       <c r="F139" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -3283,13 +3283,13 @@
         <v>9010</v>
       </c>
       <c r="D140" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E140" s="1">
         <v>9010</v>
       </c>
       <c r="F140" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -3303,13 +3303,13 @@
         <v>46</v>
       </c>
       <c r="D141" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E141" s="1">
         <v>46</v>
       </c>
       <c r="F141" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -3323,13 +3323,13 @@
         <v>73</v>
       </c>
       <c r="D142" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E142" s="1">
         <v>73</v>
       </c>
       <c r="F142" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -3343,13 +3343,13 @@
         <v>88</v>
       </c>
       <c r="D143" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E143" s="1">
         <v>88</v>
       </c>
       <c r="F143" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -3363,13 +3363,13 @@
         <v>9001</v>
       </c>
       <c r="D144" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E144" s="1">
         <v>9001</v>
       </c>
       <c r="F144" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -3383,13 +3383,13 @@
         <v>9008</v>
       </c>
       <c r="D145" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E145" s="2">
         <v>9008</v>
       </c>
       <c r="F145" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -3403,13 +3403,13 @@
         <v>9010</v>
       </c>
       <c r="D146" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E146" s="1">
         <v>9010</v>
       </c>
       <c r="F146" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -3423,13 +3423,13 @@
         <v>46</v>
       </c>
       <c r="D147" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E147" s="1">
         <v>46</v>
       </c>
       <c r="F147" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -3443,13 +3443,13 @@
         <v>73</v>
       </c>
       <c r="D148" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E148" s="1">
         <v>73</v>
       </c>
       <c r="F148" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -3463,13 +3463,13 @@
         <v>88</v>
       </c>
       <c r="D149" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E149" s="1">
         <v>88</v>
       </c>
       <c r="F149" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -3483,13 +3483,13 @@
         <v>9001</v>
       </c>
       <c r="D150" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E150" s="1">
         <v>9001</v>
       </c>
       <c r="F150" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -3503,13 +3503,13 @@
         <v>9008</v>
       </c>
       <c r="D151" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E151" s="2">
         <v>9008</v>
       </c>
       <c r="F151" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -3523,13 +3523,13 @@
         <v>9010</v>
       </c>
       <c r="D152" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E152" s="1">
         <v>9010</v>
       </c>
       <c r="F152" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -3543,13 +3543,13 @@
         <v>46</v>
       </c>
       <c r="D153" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E153" s="1">
         <v>46</v>
       </c>
       <c r="F153" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -3563,13 +3563,13 @@
         <v>73</v>
       </c>
       <c r="D154" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E154" s="1">
         <v>73</v>
       </c>
       <c r="F154" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -3583,13 +3583,13 @@
         <v>88</v>
       </c>
       <c r="D155" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E155" s="1">
         <v>88</v>
       </c>
       <c r="F155" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -3603,13 +3603,13 @@
         <v>9001</v>
       </c>
       <c r="D156" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E156" s="1">
         <v>9001</v>
       </c>
       <c r="F156" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -3623,13 +3623,13 @@
         <v>9008</v>
       </c>
       <c r="D157" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E157" s="2">
         <v>9008</v>
       </c>
       <c r="F157" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -3643,13 +3643,13 @@
         <v>9010</v>
       </c>
       <c r="D158" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E158" s="1">
         <v>9010</v>
       </c>
       <c r="F158" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -3663,13 +3663,13 @@
         <v>46</v>
       </c>
       <c r="D159" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E159" s="1">
         <v>46</v>
       </c>
       <c r="F159" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -3683,13 +3683,13 @@
         <v>73</v>
       </c>
       <c r="D160" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E160" s="1">
         <v>73</v>
       </c>
       <c r="F160" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -3703,13 +3703,13 @@
         <v>88</v>
       </c>
       <c r="D161" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E161" s="1">
         <v>88</v>
       </c>
       <c r="F161" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -3723,13 +3723,13 @@
         <v>9001</v>
       </c>
       <c r="D162" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E162" s="1">
         <v>9001</v>
       </c>
       <c r="F162" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -3743,13 +3743,13 @@
         <v>9008</v>
       </c>
       <c r="D163" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E163" s="2">
         <v>9008</v>
       </c>
       <c r="F163" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -3763,13 +3763,13 @@
         <v>9010</v>
       </c>
       <c r="D164" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E164" s="1">
         <v>9010</v>
       </c>
       <c r="F164" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -3783,13 +3783,13 @@
         <v>46</v>
       </c>
       <c r="D165" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E165" s="1">
         <v>46</v>
       </c>
       <c r="F165" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -3803,13 +3803,13 @@
         <v>73</v>
       </c>
       <c r="D166" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E166" s="1">
         <v>73</v>
       </c>
       <c r="F166" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -3823,13 +3823,13 @@
         <v>88</v>
       </c>
       <c r="D167" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E167" s="1">
         <v>88</v>
       </c>
       <c r="F167" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -3843,13 +3843,13 @@
         <v>9001</v>
       </c>
       <c r="D168" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E168" s="1">
         <v>9001</v>
       </c>
       <c r="F168" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -3863,13 +3863,13 @@
         <v>9008</v>
       </c>
       <c r="D169" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E169" s="2">
         <v>9008</v>
       </c>
       <c r="F169" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -3883,13 +3883,13 @@
         <v>9010</v>
       </c>
       <c r="D170" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E170" s="1">
         <v>9010</v>
       </c>
       <c r="F170" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -3903,13 +3903,13 @@
         <v>46</v>
       </c>
       <c r="D171" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E171" s="1">
         <v>46</v>
       </c>
       <c r="F171" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -3923,13 +3923,13 @@
         <v>73</v>
       </c>
       <c r="D172" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E172" s="1">
         <v>73</v>
       </c>
       <c r="F172" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -3943,13 +3943,13 @@
         <v>88</v>
       </c>
       <c r="D173" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E173" s="1">
         <v>88</v>
       </c>
       <c r="F173" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -3963,13 +3963,13 @@
         <v>9001</v>
       </c>
       <c r="D174" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E174" s="1">
         <v>9001</v>
       </c>
       <c r="F174" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -3983,13 +3983,13 @@
         <v>9008</v>
       </c>
       <c r="D175" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E175" s="2">
         <v>9008</v>
       </c>
       <c r="F175" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -4003,13 +4003,13 @@
         <v>9010</v>
       </c>
       <c r="D176" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E176" s="1">
         <v>9010</v>
       </c>
       <c r="F176" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -4023,13 +4023,13 @@
         <v>46</v>
       </c>
       <c r="D177" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E177" s="1">
         <v>46</v>
       </c>
       <c r="F177" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -4043,13 +4043,13 @@
         <v>73</v>
       </c>
       <c r="D178" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E178" s="1">
         <v>73</v>
       </c>
       <c r="F178" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -4063,13 +4063,13 @@
         <v>88</v>
       </c>
       <c r="D179" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E179" s="1">
         <v>88</v>
       </c>
       <c r="F179" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -4083,13 +4083,13 @@
         <v>9001</v>
       </c>
       <c r="D180" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E180" s="1">
         <v>9001</v>
       </c>
       <c r="F180" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -4103,13 +4103,13 @@
         <v>9008</v>
       </c>
       <c r="D181" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E181" s="2">
         <v>9008</v>
       </c>
       <c r="F181" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -4123,13 +4123,13 @@
         <v>9010</v>
       </c>
       <c r="D182" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E182" s="1">
         <v>9010</v>
       </c>
       <c r="F182" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -4143,13 +4143,13 @@
         <v>46</v>
       </c>
       <c r="D183" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E183" s="1">
         <v>46</v>
       </c>
       <c r="F183" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -4163,13 +4163,13 @@
         <v>73</v>
       </c>
       <c r="D184" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E184" s="1">
         <v>73</v>
       </c>
       <c r="F184" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -4183,13 +4183,13 @@
         <v>88</v>
       </c>
       <c r="D185" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E185" s="1">
         <v>88</v>
       </c>
       <c r="F185" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -4203,13 +4203,13 @@
         <v>9001</v>
       </c>
       <c r="D186" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E186" s="1">
         <v>9001</v>
       </c>
       <c r="F186" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -4223,13 +4223,13 @@
         <v>9008</v>
       </c>
       <c r="D187" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E187" s="2">
         <v>9008</v>
       </c>
       <c r="F187" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -4243,13 +4243,13 @@
         <v>9010</v>
       </c>
       <c r="D188" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E188" s="1">
         <v>9010</v>
       </c>
       <c r="F188" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -4263,13 +4263,13 @@
         <v>46</v>
       </c>
       <c r="D189" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E189" s="1">
         <v>46</v>
       </c>
       <c r="F189" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -4283,13 +4283,13 @@
         <v>73</v>
       </c>
       <c r="D190" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E190" s="1">
         <v>73</v>
       </c>
       <c r="F190" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -4303,13 +4303,13 @@
         <v>88</v>
       </c>
       <c r="D191" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E191" s="1">
         <v>88</v>
       </c>
       <c r="F191" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -4323,13 +4323,13 @@
         <v>9001</v>
       </c>
       <c r="D192" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E192" s="1">
         <v>9001</v>
       </c>
       <c r="F192" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -4343,13 +4343,13 @@
         <v>9008</v>
       </c>
       <c r="D193" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E193" s="2">
         <v>9008</v>
       </c>
       <c r="F193" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -4363,13 +4363,13 @@
         <v>9010</v>
       </c>
       <c r="D194" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E194" s="1">
         <v>9010</v>
       </c>
       <c r="F194" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -4383,13 +4383,13 @@
         <v>46</v>
       </c>
       <c r="D195" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E195" s="1">
         <v>46</v>
       </c>
       <c r="F195" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -4403,13 +4403,13 @@
         <v>73</v>
       </c>
       <c r="D196" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E196" s="1">
         <v>73</v>
       </c>
       <c r="F196" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -4423,13 +4423,13 @@
         <v>88</v>
       </c>
       <c r="D197" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E197" s="1">
         <v>88</v>
       </c>
       <c r="F197" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -4443,13 +4443,13 @@
         <v>9001</v>
       </c>
       <c r="D198" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E198" s="1">
         <v>9001</v>
       </c>
       <c r="F198" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -4463,13 +4463,13 @@
         <v>9008</v>
       </c>
       <c r="D199" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E199" s="2">
         <v>9008</v>
       </c>
       <c r="F199" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -4483,13 +4483,13 @@
         <v>9010</v>
       </c>
       <c r="D200" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E200" s="1">
         <v>9010</v>
       </c>
       <c r="F200" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -4503,13 +4503,13 @@
         <v>46</v>
       </c>
       <c r="D201" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E201" s="1">
         <v>46</v>
       </c>
       <c r="F201" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -4523,13 +4523,13 @@
         <v>73</v>
       </c>
       <c r="D202" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E202" s="1">
         <v>73</v>
       </c>
       <c r="F202" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -4543,13 +4543,13 @@
         <v>88</v>
       </c>
       <c r="D203" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E203" s="1">
         <v>88</v>
       </c>
       <c r="F203" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -4563,13 +4563,13 @@
         <v>9001</v>
       </c>
       <c r="D204" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E204" s="1">
         <v>9001</v>
       </c>
       <c r="F204" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -4583,13 +4583,13 @@
         <v>9008</v>
       </c>
       <c r="D205" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E205" s="2">
         <v>9008</v>
       </c>
       <c r="F205" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -4603,13 +4603,13 @@
         <v>9010</v>
       </c>
       <c r="D206" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E206" s="1">
         <v>9010</v>
       </c>
       <c r="F206" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -4623,13 +4623,13 @@
         <v>46</v>
       </c>
       <c r="D207" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E207" s="1">
         <v>46</v>
       </c>
       <c r="F207" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -4643,13 +4643,13 @@
         <v>73</v>
       </c>
       <c r="D208" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E208" s="1">
         <v>73</v>
       </c>
       <c r="F208" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -4663,13 +4663,13 @@
         <v>88</v>
       </c>
       <c r="D209" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E209" s="1">
         <v>88</v>
       </c>
       <c r="F209" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -4683,13 +4683,13 @@
         <v>9001</v>
       </c>
       <c r="D210" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E210" s="1">
         <v>9001</v>
       </c>
       <c r="F210" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -4703,13 +4703,13 @@
         <v>9008</v>
       </c>
       <c r="D211" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E211" s="2">
         <v>9008</v>
       </c>
       <c r="F211" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -4723,13 +4723,13 @@
         <v>9010</v>
       </c>
       <c r="D212" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E212" s="1">
         <v>9010</v>
       </c>
       <c r="F212" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -4743,13 +4743,13 @@
         <v>46</v>
       </c>
       <c r="D213" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E213" s="1">
         <v>46</v>
       </c>
       <c r="F213" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -4763,13 +4763,13 @@
         <v>73</v>
       </c>
       <c r="D214" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E214" s="1">
         <v>73</v>
       </c>
       <c r="F214" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -4783,13 +4783,13 @@
         <v>88</v>
       </c>
       <c r="D215" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E215" s="1">
         <v>88</v>
       </c>
       <c r="F215" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -4803,13 +4803,13 @@
         <v>9001</v>
       </c>
       <c r="D216" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E216" s="1">
         <v>9001</v>
       </c>
       <c r="F216" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -4823,13 +4823,13 @@
         <v>9008</v>
       </c>
       <c r="D217" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E217" s="2">
         <v>9008</v>
       </c>
       <c r="F217" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -4843,13 +4843,13 @@
         <v>9010</v>
       </c>
       <c r="D218" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E218" s="1">
         <v>9010</v>
       </c>
       <c r="F218" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
@@ -4863,13 +4863,13 @@
         <v>46</v>
       </c>
       <c r="D219" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E219" s="1">
         <v>46</v>
       </c>
       <c r="F219" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -4883,13 +4883,13 @@
         <v>73</v>
       </c>
       <c r="D220" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E220" s="1">
         <v>73</v>
       </c>
       <c r="F220" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -4903,13 +4903,13 @@
         <v>88</v>
       </c>
       <c r="D221" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E221" s="1">
         <v>88</v>
       </c>
       <c r="F221" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
@@ -4923,13 +4923,13 @@
         <v>9001</v>
       </c>
       <c r="D222" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E222" s="1">
         <v>9001</v>
       </c>
       <c r="F222" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -4943,13 +4943,13 @@
         <v>9008</v>
       </c>
       <c r="D223" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E223" s="2">
         <v>9008</v>
       </c>
       <c r="F223" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -4963,13 +4963,13 @@
         <v>9010</v>
       </c>
       <c r="D224" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E224" s="1">
         <v>9010</v>
       </c>
       <c r="F224" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -4983,13 +4983,13 @@
         <v>46</v>
       </c>
       <c r="D225" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E225" s="1">
         <v>46</v>
       </c>
       <c r="F225" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -5003,13 +5003,13 @@
         <v>73</v>
       </c>
       <c r="D226" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E226" s="1">
         <v>73</v>
       </c>
       <c r="F226" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -5023,13 +5023,13 @@
         <v>88</v>
       </c>
       <c r="D227" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E227" s="1">
         <v>88</v>
       </c>
       <c r="F227" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -5043,13 +5043,13 @@
         <v>9001</v>
       </c>
       <c r="D228" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E228" s="1">
         <v>9001</v>
       </c>
       <c r="F228" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -5063,13 +5063,13 @@
         <v>9008</v>
       </c>
       <c r="D229" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E229" s="2">
         <v>9008</v>
       </c>
       <c r="F229" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -5083,13 +5083,13 @@
         <v>9010</v>
       </c>
       <c r="D230" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E230" s="1">
         <v>9010</v>
       </c>
       <c r="F230" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -5103,13 +5103,13 @@
         <v>46</v>
       </c>
       <c r="D231" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E231" s="1">
         <v>46</v>
       </c>
       <c r="F231" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
@@ -5123,13 +5123,13 @@
         <v>73</v>
       </c>
       <c r="D232" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E232" s="1">
         <v>73</v>
       </c>
       <c r="F232" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -5143,13 +5143,13 @@
         <v>88</v>
       </c>
       <c r="D233" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E233" s="1">
         <v>88</v>
       </c>
       <c r="F233" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -5163,13 +5163,13 @@
         <v>9001</v>
       </c>
       <c r="D234" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E234" s="1">
         <v>9001</v>
       </c>
       <c r="F234" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -5183,13 +5183,13 @@
         <v>9008</v>
       </c>
       <c r="D235" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E235" s="2">
         <v>9008</v>
       </c>
       <c r="F235" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -5203,13 +5203,13 @@
         <v>9010</v>
       </c>
       <c r="D236" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E236" s="1">
         <v>9010</v>
       </c>
       <c r="F236" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -5223,13 +5223,13 @@
         <v>46</v>
       </c>
       <c r="D237" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E237" s="1">
         <v>46</v>
       </c>
       <c r="F237" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -5243,13 +5243,13 @@
         <v>73</v>
       </c>
       <c r="D238" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E238" s="1">
         <v>73</v>
       </c>
       <c r="F238" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
@@ -5263,13 +5263,13 @@
         <v>88</v>
       </c>
       <c r="D239" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E239" s="1">
         <v>88</v>
       </c>
       <c r="F239" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
@@ -5283,13 +5283,13 @@
         <v>9001</v>
       </c>
       <c r="D240" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E240" s="1">
         <v>9001</v>
       </c>
       <c r="F240" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
@@ -5303,13 +5303,13 @@
         <v>9008</v>
       </c>
       <c r="D241" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E241" s="2">
         <v>9008</v>
       </c>
       <c r="F241" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
@@ -5323,13 +5323,13 @@
         <v>9010</v>
       </c>
       <c r="D242" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E242" s="1">
         <v>9010</v>
       </c>
       <c r="F242" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
@@ -5343,13 +5343,13 @@
         <v>46</v>
       </c>
       <c r="D243" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E243" s="1">
         <v>46</v>
       </c>
       <c r="F243" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
@@ -5363,13 +5363,13 @@
         <v>73</v>
       </c>
       <c r="D244" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E244" s="1">
         <v>73</v>
       </c>
       <c r="F244" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
@@ -5383,13 +5383,13 @@
         <v>88</v>
       </c>
       <c r="D245" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E245" s="1">
         <v>88</v>
       </c>
       <c r="F245" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
@@ -5403,13 +5403,13 @@
         <v>9001</v>
       </c>
       <c r="D246" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E246" s="1">
         <v>9001</v>
       </c>
       <c r="F246" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
@@ -5423,13 +5423,13 @@
         <v>9008</v>
       </c>
       <c r="D247" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E247" s="2">
         <v>9008</v>
       </c>
       <c r="F247" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
@@ -5443,13 +5443,13 @@
         <v>9010</v>
       </c>
       <c r="D248" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E248" s="1">
         <v>9010</v>
       </c>
       <c r="F248" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
@@ -5463,13 +5463,13 @@
         <v>46</v>
       </c>
       <c r="D249" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E249" s="1">
         <v>46</v>
       </c>
       <c r="F249" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -5483,13 +5483,13 @@
         <v>73</v>
       </c>
       <c r="D250" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E250" s="1">
         <v>73</v>
       </c>
       <c r="F250" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -5503,13 +5503,13 @@
         <v>88</v>
       </c>
       <c r="D251" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E251" s="1">
         <v>88</v>
       </c>
       <c r="F251" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
@@ -5523,13 +5523,13 @@
         <v>9001</v>
       </c>
       <c r="D252" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E252" s="1">
         <v>9001</v>
       </c>
       <c r="F252" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
@@ -5543,13 +5543,13 @@
         <v>9008</v>
       </c>
       <c r="D253" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E253" s="2">
         <v>9008</v>
       </c>
       <c r="F253" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
@@ -5563,13 +5563,13 @@
         <v>9010</v>
       </c>
       <c r="D254" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E254" s="1">
         <v>9010</v>
       </c>
       <c r="F254" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -5583,13 +5583,13 @@
         <v>46</v>
       </c>
       <c r="D255" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E255" s="1">
         <v>46</v>
       </c>
       <c r="F255" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -5603,13 +5603,13 @@
         <v>73</v>
       </c>
       <c r="D256" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E256" s="1">
         <v>73</v>
       </c>
       <c r="F256" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
@@ -5623,13 +5623,13 @@
         <v>88</v>
       </c>
       <c r="D257" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E257" s="1">
         <v>88</v>
       </c>
       <c r="F257" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
@@ -5643,13 +5643,13 @@
         <v>9001</v>
       </c>
       <c r="D258" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E258" s="1">
         <v>9001</v>
       </c>
       <c r="F258" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
@@ -5663,13 +5663,13 @@
         <v>9008</v>
       </c>
       <c r="D259" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E259" s="2">
         <v>9008</v>
       </c>
       <c r="F259" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
@@ -5683,13 +5683,13 @@
         <v>9010</v>
       </c>
       <c r="D260" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E260" s="1">
         <v>9010</v>
       </c>
       <c r="F260" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -5703,13 +5703,13 @@
         <v>46</v>
       </c>
       <c r="D261" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E261" s="1">
         <v>46</v>
       </c>
       <c r="F261" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
@@ -5723,13 +5723,13 @@
         <v>73</v>
       </c>
       <c r="D262" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E262" s="1">
         <v>73</v>
       </c>
       <c r="F262" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
@@ -5743,13 +5743,13 @@
         <v>88</v>
       </c>
       <c r="D263" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E263" s="1">
         <v>88</v>
       </c>
       <c r="F263" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
@@ -5763,13 +5763,13 @@
         <v>9001</v>
       </c>
       <c r="D264" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E264" s="1">
         <v>9001</v>
       </c>
       <c r="F264" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -5783,13 +5783,13 @@
         <v>9008</v>
       </c>
       <c r="D265" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E265" s="2">
         <v>9008</v>
       </c>
       <c r="F265" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -5803,13 +5803,13 @@
         <v>9010</v>
       </c>
       <c r="D266" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E266" s="1">
         <v>9010</v>
       </c>
       <c r="F266" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -5823,13 +5823,13 @@
         <v>46</v>
       </c>
       <c r="D267" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E267" s="1">
         <v>46</v>
       </c>
       <c r="F267" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
@@ -5843,13 +5843,13 @@
         <v>73</v>
       </c>
       <c r="D268" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E268" s="1">
         <v>73</v>
       </c>
       <c r="F268" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
@@ -5863,13 +5863,13 @@
         <v>88</v>
       </c>
       <c r="D269" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E269" s="1">
         <v>88</v>
       </c>
       <c r="F269" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -5883,13 +5883,13 @@
         <v>9001</v>
       </c>
       <c r="D270" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E270" s="1">
         <v>9001</v>
       </c>
       <c r="F270" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -5903,13 +5903,13 @@
         <v>9008</v>
       </c>
       <c r="D271" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E271" s="2">
         <v>9008</v>
       </c>
       <c r="F271" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -5923,13 +5923,13 @@
         <v>9010</v>
       </c>
       <c r="D272" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E272" s="1">
         <v>9010</v>
       </c>
       <c r="F272" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -5943,13 +5943,13 @@
         <v>46</v>
       </c>
       <c r="D273" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E273" s="1">
         <v>46</v>
       </c>
       <c r="F273" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
@@ -5963,13 +5963,13 @@
         <v>73</v>
       </c>
       <c r="D274" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E274" s="1">
         <v>73</v>
       </c>
       <c r="F274" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
@@ -5983,13 +5983,13 @@
         <v>88</v>
       </c>
       <c r="D275" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E275" s="1">
         <v>88</v>
       </c>
       <c r="F275" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -6003,13 +6003,13 @@
         <v>9001</v>
       </c>
       <c r="D276" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E276" s="1">
         <v>9001</v>
       </c>
       <c r="F276" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -6023,13 +6023,13 @@
         <v>9008</v>
       </c>
       <c r="D277" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E277" s="2">
         <v>9008</v>
       </c>
       <c r="F277" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -6043,13 +6043,13 @@
         <v>9010</v>
       </c>
       <c r="D278" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E278" s="1">
         <v>9010</v>
       </c>
       <c r="F278" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
@@ -6063,13 +6063,13 @@
         <v>46</v>
       </c>
       <c r="D279" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E279" s="1">
         <v>46</v>
       </c>
       <c r="F279" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
@@ -6083,13 +6083,13 @@
         <v>73</v>
       </c>
       <c r="D280" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E280" s="1">
         <v>73</v>
       </c>
       <c r="F280" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
@@ -6103,13 +6103,13 @@
         <v>88</v>
       </c>
       <c r="D281" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E281" s="1">
         <v>88</v>
       </c>
       <c r="F281" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
@@ -6123,13 +6123,13 @@
         <v>9001</v>
       </c>
       <c r="D282" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E282" s="1">
         <v>9001</v>
       </c>
       <c r="F282" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
@@ -6143,13 +6143,13 @@
         <v>9008</v>
       </c>
       <c r="D283" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E283" s="2">
         <v>9008</v>
       </c>
       <c r="F283" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
@@ -6163,13 +6163,13 @@
         <v>9010</v>
       </c>
       <c r="D284" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E284" s="1">
         <v>9010</v>
       </c>
       <c r="F284" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -6183,13 +6183,13 @@
         <v>46</v>
       </c>
       <c r="D285" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E285" s="1">
         <v>46</v>
       </c>
       <c r="F285" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -6203,13 +6203,13 @@
         <v>73</v>
       </c>
       <c r="D286" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E286" s="1">
         <v>73</v>
       </c>
       <c r="F286" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
@@ -6223,13 +6223,13 @@
         <v>88</v>
       </c>
       <c r="D287" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E287" s="1">
         <v>88</v>
       </c>
       <c r="F287" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
@@ -6243,13 +6243,13 @@
         <v>9001</v>
       </c>
       <c r="D288" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E288" s="1">
         <v>9001</v>
       </c>
       <c r="F288" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
@@ -6263,13 +6263,13 @@
         <v>9008</v>
       </c>
       <c r="D289" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E289" s="2">
         <v>9008</v>
       </c>
       <c r="F289" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
@@ -6283,13 +6283,13 @@
         <v>9010</v>
       </c>
       <c r="D290" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E290" s="1">
         <v>9010</v>
       </c>
       <c r="F290" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
@@ -6303,13 +6303,13 @@
         <v>46</v>
       </c>
       <c r="D291" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E291" s="1">
         <v>46</v>
       </c>
       <c r="F291" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
@@ -6323,13 +6323,13 @@
         <v>73</v>
       </c>
       <c r="D292" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E292" s="1">
         <v>73</v>
       </c>
       <c r="F292" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
@@ -6343,13 +6343,13 @@
         <v>88</v>
       </c>
       <c r="D293" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E293" s="1">
         <v>88</v>
       </c>
       <c r="F293" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
@@ -6363,13 +6363,13 @@
         <v>9001</v>
       </c>
       <c r="D294" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E294" s="1">
         <v>9001</v>
       </c>
       <c r="F294" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
@@ -6383,13 +6383,13 @@
         <v>9008</v>
       </c>
       <c r="D295" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E295" s="2">
         <v>9008</v>
       </c>
       <c r="F295" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -6403,13 +6403,13 @@
         <v>9010</v>
       </c>
       <c r="D296" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E296" s="1">
         <v>9010</v>
       </c>
       <c r="F296" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
@@ -6423,13 +6423,13 @@
         <v>46</v>
       </c>
       <c r="D297" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E297" s="1">
         <v>46</v>
       </c>
       <c r="F297" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
@@ -6443,13 +6443,13 @@
         <v>73</v>
       </c>
       <c r="D298" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E298" s="1">
         <v>73</v>
       </c>
       <c r="F298" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -6463,13 +6463,13 @@
         <v>88</v>
       </c>
       <c r="D299" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E299" s="1">
         <v>88</v>
       </c>
       <c r="F299" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
@@ -6483,13 +6483,13 @@
         <v>9001</v>
       </c>
       <c r="D300" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E300" s="1">
         <v>9001</v>
       </c>
       <c r="F300" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
@@ -6503,13 +6503,13 @@
         <v>9008</v>
       </c>
       <c r="D301" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E301" s="2">
         <v>9008</v>
       </c>
       <c r="F301" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
@@ -6523,13 +6523,13 @@
         <v>9010</v>
       </c>
       <c r="D302" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E302" s="1">
         <v>9010</v>
       </c>
       <c r="F302" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
@@ -6543,13 +6543,13 @@
         <v>46</v>
       </c>
       <c r="D303" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E303" s="1">
         <v>46</v>
       </c>
       <c r="F303" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
@@ -6563,13 +6563,13 @@
         <v>73</v>
       </c>
       <c r="D304" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E304" s="1">
         <v>73</v>
       </c>
       <c r="F304" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -6583,13 +6583,13 @@
         <v>88</v>
       </c>
       <c r="D305" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E305" s="1">
         <v>88</v>
       </c>
       <c r="F305" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
@@ -6603,13 +6603,13 @@
         <v>9001</v>
       </c>
       <c r="D306" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E306" s="1">
         <v>9001</v>
       </c>
       <c r="F306" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
@@ -6623,13 +6623,13 @@
         <v>9008</v>
       </c>
       <c r="D307" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E307" s="2">
         <v>9008</v>
       </c>
       <c r="F307" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
@@ -6643,13 +6643,13 @@
         <v>9010</v>
       </c>
       <c r="D308" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E308" s="1">
         <v>9010</v>
       </c>
       <c r="F308" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
@@ -6663,13 +6663,13 @@
         <v>46</v>
       </c>
       <c r="D309" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E309" s="1">
         <v>46</v>
       </c>
       <c r="F309" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
@@ -6683,13 +6683,13 @@
         <v>73</v>
       </c>
       <c r="D310" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E310" s="1">
         <v>73</v>
       </c>
       <c r="F310" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
@@ -6703,13 +6703,13 @@
         <v>88</v>
       </c>
       <c r="D311" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E311" s="1">
         <v>88</v>
       </c>
       <c r="F311" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
@@ -6723,13 +6723,13 @@
         <v>9001</v>
       </c>
       <c r="D312" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E312" s="1">
         <v>9001</v>
       </c>
       <c r="F312" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
@@ -6743,13 +6743,13 @@
         <v>9008</v>
       </c>
       <c r="D313" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E313" s="2">
         <v>9008</v>
       </c>
       <c r="F313" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
@@ -6763,13 +6763,13 @@
         <v>9010</v>
       </c>
       <c r="D314" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E314" s="1">
         <v>9010</v>
       </c>
       <c r="F314" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
@@ -6783,13 +6783,13 @@
         <v>46</v>
       </c>
       <c r="D315" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E315" s="1">
         <v>46</v>
       </c>
       <c r="F315" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
@@ -6803,13 +6803,13 @@
         <v>73</v>
       </c>
       <c r="D316" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E316" s="1">
         <v>73</v>
       </c>
       <c r="F316" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
@@ -6823,13 +6823,13 @@
         <v>88</v>
       </c>
       <c r="D317" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E317" s="1">
         <v>88</v>
       </c>
       <c r="F317" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
@@ -6843,13 +6843,13 @@
         <v>9001</v>
       </c>
       <c r="D318" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E318" s="1">
         <v>9001</v>
       </c>
       <c r="F318" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -6863,13 +6863,13 @@
         <v>9008</v>
       </c>
       <c r="D319" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E319" s="2">
         <v>9008</v>
       </c>
       <c r="F319" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
@@ -6883,13 +6883,13 @@
         <v>9010</v>
       </c>
       <c r="D320" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E320" s="1">
         <v>9010</v>
       </c>
       <c r="F320" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
@@ -6903,13 +6903,13 @@
         <v>46</v>
       </c>
       <c r="D321" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E321" s="1">
         <v>46</v>
       </c>
       <c r="F321" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
@@ -6923,13 +6923,13 @@
         <v>73</v>
       </c>
       <c r="D322" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E322" s="1">
         <v>73</v>
       </c>
       <c r="F322" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
@@ -6943,13 +6943,13 @@
         <v>88</v>
       </c>
       <c r="D323" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E323" s="1">
         <v>88</v>
       </c>
       <c r="F323" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
@@ -6963,13 +6963,13 @@
         <v>9001</v>
       </c>
       <c r="D324" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E324" s="1">
         <v>9001</v>
       </c>
       <c r="F324" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
@@ -6983,13 +6983,13 @@
         <v>9008</v>
       </c>
       <c r="D325" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E325" s="2">
         <v>9008</v>
       </c>
       <c r="F325" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
@@ -7003,13 +7003,13 @@
         <v>9010</v>
       </c>
       <c r="D326" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E326" s="1">
         <v>9010</v>
       </c>
       <c r="F326" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
@@ -7023,13 +7023,13 @@
         <v>46</v>
       </c>
       <c r="D327" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E327" s="1">
         <v>46</v>
       </c>
       <c r="F327" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
@@ -7043,13 +7043,13 @@
         <v>73</v>
       </c>
       <c r="D328" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E328" s="1">
         <v>73</v>
       </c>
       <c r="F328" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
@@ -7063,13 +7063,13 @@
         <v>88</v>
       </c>
       <c r="D329" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E329" s="1">
         <v>88</v>
       </c>
       <c r="F329" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
@@ -7083,13 +7083,13 @@
         <v>9001</v>
       </c>
       <c r="D330" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E330" s="1">
         <v>9001</v>
       </c>
       <c r="F330" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
@@ -7103,13 +7103,13 @@
         <v>9008</v>
       </c>
       <c r="D331" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E331" s="2">
         <v>9008</v>
       </c>
       <c r="F331" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
@@ -7123,13 +7123,13 @@
         <v>9010</v>
       </c>
       <c r="D332" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E332" s="1">
         <v>9010</v>
       </c>
       <c r="F332" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
@@ -7143,13 +7143,13 @@
         <v>46</v>
       </c>
       <c r="D333" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E333" s="1">
         <v>46</v>
       </c>
       <c r="F333" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
@@ -7163,13 +7163,13 @@
         <v>73</v>
       </c>
       <c r="D334" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E334" s="1">
         <v>73</v>
       </c>
       <c r="F334" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
@@ -7183,13 +7183,13 @@
         <v>88</v>
       </c>
       <c r="D335" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E335" s="1">
         <v>88</v>
       </c>
       <c r="F335" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
@@ -7203,13 +7203,13 @@
         <v>9001</v>
       </c>
       <c r="D336" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E336" s="1">
         <v>9001</v>
       </c>
       <c r="F336" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
@@ -7223,13 +7223,13 @@
         <v>9008</v>
       </c>
       <c r="D337" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E337" s="2">
         <v>9008</v>
       </c>
       <c r="F337" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
@@ -7243,13 +7243,13 @@
         <v>9010</v>
       </c>
       <c r="D338" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E338" s="1">
         <v>9010</v>
       </c>
       <c r="F338" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
@@ -7263,13 +7263,13 @@
         <v>46</v>
       </c>
       <c r="D339" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E339" s="1">
         <v>46</v>
       </c>
       <c r="F339" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
@@ -7283,13 +7283,13 @@
         <v>73</v>
       </c>
       <c r="D340" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E340" s="1">
         <v>73</v>
       </c>
       <c r="F340" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
@@ -7303,13 +7303,13 @@
         <v>88</v>
       </c>
       <c r="D341" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E341" s="1">
         <v>88</v>
       </c>
       <c r="F341" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
@@ -7323,13 +7323,13 @@
         <v>9001</v>
       </c>
       <c r="D342" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E342" s="1">
         <v>9001</v>
       </c>
       <c r="F342" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
@@ -7343,13 +7343,13 @@
         <v>9008</v>
       </c>
       <c r="D343" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E343" s="2">
         <v>9008</v>
       </c>
       <c r="F343" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
@@ -7363,13 +7363,13 @@
         <v>9010</v>
       </c>
       <c r="D344" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E344" s="1">
         <v>9010</v>
       </c>
       <c r="F344" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
@@ -7383,13 +7383,13 @@
         <v>46</v>
       </c>
       <c r="D345" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E345" s="1">
         <v>46</v>
       </c>
       <c r="F345" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
@@ -7403,13 +7403,13 @@
         <v>73</v>
       </c>
       <c r="D346" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E346" s="1">
         <v>73</v>
       </c>
       <c r="F346" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
@@ -7423,13 +7423,13 @@
         <v>88</v>
       </c>
       <c r="D347" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E347" s="1">
         <v>88</v>
       </c>
       <c r="F347" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
@@ -7443,13 +7443,13 @@
         <v>9001</v>
       </c>
       <c r="D348" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E348" s="1">
         <v>9001</v>
       </c>
       <c r="F348" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
@@ -7463,13 +7463,13 @@
         <v>9008</v>
       </c>
       <c r="D349" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E349" s="2">
         <v>9008</v>
       </c>
       <c r="F349" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
@@ -7483,13 +7483,13 @@
         <v>9010</v>
       </c>
       <c r="D350" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E350" s="1">
         <v>9010</v>
       </c>
       <c r="F350" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
@@ -7503,13 +7503,13 @@
         <v>46</v>
       </c>
       <c r="D351" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E351" s="1">
         <v>46</v>
       </c>
       <c r="F351" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
@@ -7523,13 +7523,13 @@
         <v>73</v>
       </c>
       <c r="D352" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E352" s="1">
         <v>73</v>
       </c>
       <c r="F352" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -7543,13 +7543,13 @@
         <v>88</v>
       </c>
       <c r="D353" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E353" s="1">
         <v>88</v>
       </c>
       <c r="F353" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
@@ -7563,13 +7563,13 @@
         <v>9001</v>
       </c>
       <c r="D354" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E354" s="1">
         <v>9001</v>
       </c>
       <c r="F354" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -7583,13 +7583,13 @@
         <v>9008</v>
       </c>
       <c r="D355" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E355" s="2">
         <v>9008</v>
       </c>
       <c r="F355" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
@@ -7603,13 +7603,13 @@
         <v>9010</v>
       </c>
       <c r="D356" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E356" s="1">
         <v>9010</v>
       </c>
       <c r="F356" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -7623,13 +7623,13 @@
         <v>46</v>
       </c>
       <c r="D357" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E357" s="1">
         <v>46</v>
       </c>
       <c r="F357" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
@@ -7643,13 +7643,13 @@
         <v>73</v>
       </c>
       <c r="D358" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E358" s="1">
         <v>73</v>
       </c>
       <c r="F358" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
@@ -7663,13 +7663,13 @@
         <v>88</v>
       </c>
       <c r="D359" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E359" s="1">
         <v>88</v>
       </c>
       <c r="F359" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
@@ -7683,13 +7683,13 @@
         <v>9001</v>
       </c>
       <c r="D360" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E360" s="1">
         <v>9001</v>
       </c>
       <c r="F360" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -7703,13 +7703,13 @@
         <v>9008</v>
       </c>
       <c r="D361" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E361" s="2">
         <v>9008</v>
       </c>
       <c r="F361" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
@@ -7723,13 +7723,13 @@
         <v>9010</v>
       </c>
       <c r="D362" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E362" s="1">
         <v>9010</v>
       </c>
       <c r="F362" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
@@ -7743,13 +7743,13 @@
         <v>46</v>
       </c>
       <c r="D363" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E363" s="1">
         <v>46</v>
       </c>
       <c r="F363" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -7763,13 +7763,13 @@
         <v>73</v>
       </c>
       <c r="D364" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E364" s="1">
         <v>73</v>
       </c>
       <c r="F364" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -7783,13 +7783,13 @@
         <v>88</v>
       </c>
       <c r="D365" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E365" s="1">
         <v>88</v>
       </c>
       <c r="F365" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
@@ -7803,13 +7803,13 @@
         <v>9001</v>
       </c>
       <c r="D366" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E366" s="1">
         <v>9001</v>
       </c>
       <c r="F366" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
@@ -7823,13 +7823,13 @@
         <v>9008</v>
       </c>
       <c r="D367" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E367" s="2">
         <v>9008</v>
       </c>
       <c r="F367" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
@@ -7843,13 +7843,13 @@
         <v>9010</v>
       </c>
       <c r="D368" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E368" s="1">
         <v>9010</v>
       </c>
       <c r="F368" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
@@ -7863,13 +7863,13 @@
         <v>46</v>
       </c>
       <c r="D369" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E369" s="1">
         <v>46</v>
       </c>
       <c r="F369" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
@@ -7883,13 +7883,13 @@
         <v>73</v>
       </c>
       <c r="D370" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E370" s="1">
         <v>73</v>
       </c>
       <c r="F370" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
@@ -7903,13 +7903,13 @@
         <v>88</v>
       </c>
       <c r="D371" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E371" s="1">
         <v>88</v>
       </c>
       <c r="F371" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
@@ -7923,13 +7923,13 @@
         <v>9001</v>
       </c>
       <c r="D372" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E372" s="1">
         <v>9001</v>
       </c>
       <c r="F372" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
@@ -7943,13 +7943,13 @@
         <v>9008</v>
       </c>
       <c r="D373" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E373" s="2">
         <v>9008</v>
       </c>
       <c r="F373" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
@@ -7963,13 +7963,13 @@
         <v>9010</v>
       </c>
       <c r="D374" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E374" s="1">
         <v>9010</v>
       </c>
       <c r="F374" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
@@ -7983,13 +7983,13 @@
         <v>46</v>
       </c>
       <c r="D375" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E375" s="1">
         <v>46</v>
       </c>
       <c r="F375" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
@@ -8003,13 +8003,13 @@
         <v>73</v>
       </c>
       <c r="D376" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E376" s="1">
         <v>73</v>
       </c>
       <c r="F376" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
@@ -8023,13 +8023,13 @@
         <v>88</v>
       </c>
       <c r="D377" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E377" s="1">
         <v>88</v>
       </c>
       <c r="F377" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
@@ -8043,13 +8043,13 @@
         <v>9001</v>
       </c>
       <c r="D378" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E378" s="1">
         <v>9001</v>
       </c>
       <c r="F378" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
@@ -8063,13 +8063,13 @@
         <v>9008</v>
       </c>
       <c r="D379" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E379" s="2">
         <v>9008</v>
       </c>
       <c r="F379" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
@@ -8083,13 +8083,13 @@
         <v>9010</v>
       </c>
       <c r="D380" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E380" s="1">
         <v>9010</v>
       </c>
       <c r="F380" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
@@ -8103,13 +8103,13 @@
         <v>46</v>
       </c>
       <c r="D381" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E381" s="1">
         <v>46</v>
       </c>
       <c r="F381" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
@@ -8123,13 +8123,13 @@
         <v>73</v>
       </c>
       <c r="D382" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E382" s="1">
         <v>73</v>
       </c>
       <c r="F382" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
@@ -8143,13 +8143,13 @@
         <v>88</v>
       </c>
       <c r="D383" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E383" s="1">
         <v>88</v>
       </c>
       <c r="F383" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
@@ -8163,13 +8163,13 @@
         <v>9001</v>
       </c>
       <c r="D384" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E384" s="1">
         <v>9001</v>
       </c>
       <c r="F384" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
@@ -8183,13 +8183,13 @@
         <v>9008</v>
       </c>
       <c r="D385" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E385" s="2">
         <v>9008</v>
       </c>
       <c r="F385" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
@@ -8203,13 +8203,13 @@
         <v>9010</v>
       </c>
       <c r="D386" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E386" s="1">
         <v>9010</v>
       </c>
       <c r="F386" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
@@ -8223,13 +8223,13 @@
         <v>46</v>
       </c>
       <c r="D387" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E387" s="1">
         <v>46</v>
       </c>
       <c r="F387" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
@@ -8243,13 +8243,13 @@
         <v>73</v>
       </c>
       <c r="D388" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E388" s="1">
         <v>73</v>
       </c>
       <c r="F388" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
@@ -8263,13 +8263,13 @@
         <v>88</v>
       </c>
       <c r="D389" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E389" s="1">
         <v>88</v>
       </c>
       <c r="F389" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
@@ -8283,13 +8283,13 @@
         <v>9001</v>
       </c>
       <c r="D390" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E390" s="1">
         <v>9001</v>
       </c>
       <c r="F390" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
@@ -8303,13 +8303,13 @@
         <v>9008</v>
       </c>
       <c r="D391" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E391" s="2">
         <v>9008</v>
       </c>
       <c r="F391" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
@@ -8323,13 +8323,13 @@
         <v>9010</v>
       </c>
       <c r="D392" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E392" s="1">
         <v>9010</v>
       </c>
       <c r="F392" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
@@ -8343,13 +8343,13 @@
         <v>46</v>
       </c>
       <c r="D393" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E393" s="1">
         <v>46</v>
       </c>
       <c r="F393" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
@@ -8363,13 +8363,13 @@
         <v>73</v>
       </c>
       <c r="D394" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E394" s="1">
         <v>73</v>
       </c>
       <c r="F394" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
@@ -8383,13 +8383,13 @@
         <v>88</v>
       </c>
       <c r="D395" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E395" s="1">
         <v>88</v>
       </c>
       <c r="F395" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
@@ -8403,13 +8403,13 @@
         <v>9001</v>
       </c>
       <c r="D396" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E396" s="1">
         <v>9001</v>
       </c>
       <c r="F396" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
@@ -8423,13 +8423,13 @@
         <v>9008</v>
       </c>
       <c r="D397" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E397" s="2">
         <v>9008</v>
       </c>
       <c r="F397" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
@@ -8443,13 +8443,13 @@
         <v>9010</v>
       </c>
       <c r="D398" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E398" s="1">
         <v>9010</v>
       </c>
       <c r="F398" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
@@ -8463,13 +8463,13 @@
         <v>46</v>
       </c>
       <c r="D399" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E399" s="1">
         <v>46</v>
       </c>
       <c r="F399" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
@@ -8483,13 +8483,13 @@
         <v>73</v>
       </c>
       <c r="D400" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E400" s="1">
         <v>73</v>
       </c>
       <c r="F400" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
@@ -8503,13 +8503,13 @@
         <v>88</v>
       </c>
       <c r="D401" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E401" s="1">
         <v>88</v>
       </c>
       <c r="F401" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
@@ -8523,13 +8523,13 @@
         <v>9001</v>
       </c>
       <c r="D402" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E402" s="1">
         <v>9001</v>
       </c>
       <c r="F402" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
@@ -8543,13 +8543,13 @@
         <v>9008</v>
       </c>
       <c r="D403" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E403" s="2">
         <v>9008</v>
       </c>
       <c r="F403" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
@@ -8563,13 +8563,13 @@
         <v>9010</v>
       </c>
       <c r="D404" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E404" s="1">
         <v>9010</v>
       </c>
       <c r="F404" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
@@ -8583,13 +8583,13 @@
         <v>46</v>
       </c>
       <c r="D405" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E405" s="1">
         <v>46</v>
       </c>
       <c r="F405" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
@@ -8603,13 +8603,13 @@
         <v>73</v>
       </c>
       <c r="D406" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E406" s="1">
         <v>73</v>
       </c>
       <c r="F406" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
@@ -8623,13 +8623,13 @@
         <v>88</v>
       </c>
       <c r="D407" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E407" s="1">
         <v>88</v>
       </c>
       <c r="F407" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
@@ -8643,13 +8643,13 @@
         <v>9001</v>
       </c>
       <c r="D408" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E408" s="1">
         <v>9001</v>
       </c>
       <c r="F408" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
@@ -8663,13 +8663,13 @@
         <v>9008</v>
       </c>
       <c r="D409" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E409" s="2">
         <v>9008</v>
       </c>
       <c r="F409" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
@@ -8683,13 +8683,13 @@
         <v>9010</v>
       </c>
       <c r="D410" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E410" s="1">
         <v>9010</v>
       </c>
       <c r="F410" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
@@ -8703,13 +8703,13 @@
         <v>46</v>
       </c>
       <c r="D411" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E411" s="1">
         <v>46</v>
       </c>
       <c r="F411" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
@@ -8723,13 +8723,13 @@
         <v>73</v>
       </c>
       <c r="D412" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E412" s="1">
         <v>73</v>
       </c>
       <c r="F412" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
@@ -8743,13 +8743,13 @@
         <v>88</v>
       </c>
       <c r="D413" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E413" s="1">
         <v>88</v>
       </c>
       <c r="F413" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
@@ -8763,13 +8763,13 @@
         <v>9001</v>
       </c>
       <c r="D414" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E414" s="1">
         <v>9001</v>
       </c>
       <c r="F414" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
@@ -8783,13 +8783,13 @@
         <v>9008</v>
       </c>
       <c r="D415" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E415" s="2">
         <v>9008</v>
       </c>
       <c r="F415" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
@@ -8803,13 +8803,13 @@
         <v>9010</v>
       </c>
       <c r="D416" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E416" s="1">
         <v>9010</v>
       </c>
       <c r="F416" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
@@ -8823,13 +8823,13 @@
         <v>46</v>
       </c>
       <c r="D417" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E417" s="1">
         <v>46</v>
       </c>
       <c r="F417" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
@@ -8843,13 +8843,13 @@
         <v>73</v>
       </c>
       <c r="D418" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E418" s="1">
         <v>73</v>
       </c>
       <c r="F418" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
@@ -8863,13 +8863,13 @@
         <v>88</v>
       </c>
       <c r="D419" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E419" s="1">
         <v>88</v>
       </c>
       <c r="F419" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
@@ -8883,13 +8883,13 @@
         <v>9001</v>
       </c>
       <c r="D420" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E420" s="1">
         <v>9001</v>
       </c>
       <c r="F420" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
@@ -8903,13 +8903,13 @@
         <v>9008</v>
       </c>
       <c r="D421" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E421" s="2">
         <v>9008</v>
       </c>
       <c r="F421" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
@@ -8923,13 +8923,13 @@
         <v>9010</v>
       </c>
       <c r="D422" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E422" s="1">
         <v>9010</v>
       </c>
       <c r="F422" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
@@ -8943,13 +8943,13 @@
         <v>46</v>
       </c>
       <c r="D423" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E423" s="1">
         <v>46</v>
       </c>
       <c r="F423" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
@@ -8963,13 +8963,13 @@
         <v>73</v>
       </c>
       <c r="D424" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E424" s="1">
         <v>73</v>
       </c>
       <c r="F424" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
@@ -8983,13 +8983,13 @@
         <v>88</v>
       </c>
       <c r="D425" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E425" s="1">
         <v>88</v>
       </c>
       <c r="F425" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
@@ -9003,13 +9003,13 @@
         <v>9001</v>
       </c>
       <c r="D426" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E426" s="1">
         <v>9001</v>
       </c>
       <c r="F426" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
@@ -9023,13 +9023,13 @@
         <v>9008</v>
       </c>
       <c r="D427" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E427" s="2">
         <v>9008</v>
       </c>
       <c r="F427" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
@@ -9043,13 +9043,13 @@
         <v>9010</v>
       </c>
       <c r="D428" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E428" s="1">
         <v>9010</v>
       </c>
       <c r="F428" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
@@ -9063,13 +9063,13 @@
         <v>46</v>
       </c>
       <c r="D429" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E429" s="1">
         <v>46</v>
       </c>
       <c r="F429" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
@@ -9083,13 +9083,13 @@
         <v>73</v>
       </c>
       <c r="D430" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E430" s="1">
         <v>73</v>
       </c>
       <c r="F430" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
@@ -9103,13 +9103,13 @@
         <v>88</v>
       </c>
       <c r="D431" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E431" s="1">
         <v>88</v>
       </c>
       <c r="F431" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
@@ -9123,13 +9123,13 @@
         <v>9001</v>
       </c>
       <c r="D432" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E432" s="1">
         <v>9001</v>
       </c>
       <c r="F432" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
@@ -9143,13 +9143,13 @@
         <v>9008</v>
       </c>
       <c r="D433" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E433" s="2">
         <v>9008</v>
       </c>
       <c r="F433" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
@@ -9163,13 +9163,13 @@
         <v>9010</v>
       </c>
       <c r="D434" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E434" s="1">
         <v>9010</v>
       </c>
       <c r="F434" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
@@ -9183,13 +9183,13 @@
         <v>46</v>
       </c>
       <c r="D435" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E435" s="1">
         <v>46</v>
       </c>
       <c r="F435" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
@@ -9203,13 +9203,13 @@
         <v>73</v>
       </c>
       <c r="D436" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E436" s="1">
         <v>73</v>
       </c>
       <c r="F436" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
@@ -9223,13 +9223,13 @@
         <v>88</v>
       </c>
       <c r="D437" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E437" s="1">
         <v>88</v>
       </c>
       <c r="F437" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
@@ -9243,13 +9243,13 @@
         <v>9001</v>
       </c>
       <c r="D438" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E438" s="1">
         <v>9001</v>
       </c>
       <c r="F438" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
@@ -9263,13 +9263,13 @@
         <v>9008</v>
       </c>
       <c r="D439" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E439" s="2">
         <v>9008</v>
       </c>
       <c r="F439" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
@@ -9283,13 +9283,13 @@
         <v>9010</v>
       </c>
       <c r="D440" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E440" s="1">
         <v>9010</v>
       </c>
       <c r="F440" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
@@ -9303,13 +9303,13 @@
         <v>46</v>
       </c>
       <c r="D441" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E441" s="1">
         <v>46</v>
       </c>
       <c r="F441" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
@@ -9323,13 +9323,13 @@
         <v>73</v>
       </c>
       <c r="D442" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E442" s="1">
         <v>73</v>
       </c>
       <c r="F442" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
@@ -9343,13 +9343,13 @@
         <v>88</v>
       </c>
       <c r="D443" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E443" s="1">
         <v>88</v>
       </c>
       <c r="F443" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
@@ -9363,13 +9363,13 @@
         <v>9001</v>
       </c>
       <c r="D444" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E444" s="1">
         <v>9001</v>
       </c>
       <c r="F444" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
@@ -9383,13 +9383,13 @@
         <v>9008</v>
       </c>
       <c r="D445" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E445" s="2">
         <v>9008</v>
       </c>
       <c r="F445" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
@@ -9403,13 +9403,13 @@
         <v>9010</v>
       </c>
       <c r="D446" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E446" s="1">
         <v>9010</v>
       </c>
       <c r="F446" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
@@ -9423,13 +9423,13 @@
         <v>46</v>
       </c>
       <c r="D447" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E447" s="1">
         <v>46</v>
       </c>
       <c r="F447" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
@@ -9443,13 +9443,13 @@
         <v>73</v>
       </c>
       <c r="D448" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E448" s="1">
         <v>73</v>
       </c>
       <c r="F448" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.3">
@@ -9463,13 +9463,13 @@
         <v>88</v>
       </c>
       <c r="D449" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E449" s="1">
         <v>88</v>
       </c>
       <c r="F449" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
@@ -9483,13 +9483,13 @@
         <v>9001</v>
       </c>
       <c r="D450" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E450" s="1">
         <v>9001</v>
       </c>
       <c r="F450" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
@@ -9503,13 +9503,13 @@
         <v>9008</v>
       </c>
       <c r="D451" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E451" s="2">
         <v>9008</v>
       </c>
       <c r="F451" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
@@ -9523,13 +9523,13 @@
         <v>9010</v>
       </c>
       <c r="D452" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E452" s="1">
         <v>9010</v>
       </c>
       <c r="F452" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.3">
@@ -9543,13 +9543,13 @@
         <v>46</v>
       </c>
       <c r="D453" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E453" s="1">
         <v>46</v>
       </c>
       <c r="F453" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.3">
@@ -9563,13 +9563,13 @@
         <v>73</v>
       </c>
       <c r="D454" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E454" s="1">
         <v>73</v>
       </c>
       <c r="F454" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
@@ -9583,13 +9583,13 @@
         <v>88</v>
       </c>
       <c r="D455" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E455" s="1">
         <v>88</v>
       </c>
       <c r="F455" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
@@ -9603,13 +9603,13 @@
         <v>9001</v>
       </c>
       <c r="D456" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E456" s="1">
         <v>9001</v>
       </c>
       <c r="F456" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
@@ -9623,13 +9623,13 @@
         <v>9008</v>
       </c>
       <c r="D457" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E457" s="2">
         <v>9008</v>
       </c>
       <c r="F457" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.3">
@@ -9643,13 +9643,13 @@
         <v>9010</v>
       </c>
       <c r="D458" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E458" s="1">
         <v>9010</v>
       </c>
       <c r="F458" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
@@ -9663,13 +9663,13 @@
         <v>46</v>
       </c>
       <c r="D459" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E459" s="1">
         <v>46</v>
       </c>
       <c r="F459" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
@@ -9683,13 +9683,13 @@
         <v>73</v>
       </c>
       <c r="D460" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E460" s="1">
         <v>73</v>
       </c>
       <c r="F460" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
@@ -9703,13 +9703,13 @@
         <v>88</v>
       </c>
       <c r="D461" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E461" s="1">
         <v>88</v>
       </c>
       <c r="F461" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
@@ -9723,13 +9723,13 @@
         <v>9001</v>
       </c>
       <c r="D462" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E462" s="1">
         <v>9001</v>
       </c>
       <c r="F462" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
@@ -9743,13 +9743,13 @@
         <v>9008</v>
       </c>
       <c r="D463" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E463" s="2">
         <v>9008</v>
       </c>
       <c r="F463" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
@@ -9763,13 +9763,13 @@
         <v>9010</v>
       </c>
       <c r="D464" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E464" s="1">
         <v>9010</v>
       </c>
       <c r="F464" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
@@ -9783,13 +9783,13 @@
         <v>46</v>
       </c>
       <c r="D465" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E465" s="1">
         <v>46</v>
       </c>
       <c r="F465" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
@@ -9803,13 +9803,13 @@
         <v>73</v>
       </c>
       <c r="D466" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E466" s="1">
         <v>73</v>
       </c>
       <c r="F466" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
@@ -9823,13 +9823,13 @@
         <v>88</v>
       </c>
       <c r="D467" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E467" s="1">
         <v>88</v>
       </c>
       <c r="F467" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
@@ -9843,13 +9843,13 @@
         <v>9001</v>
       </c>
       <c r="D468" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E468" s="1">
         <v>9001</v>
       </c>
       <c r="F468" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
@@ -9863,13 +9863,13 @@
         <v>9008</v>
       </c>
       <c r="D469" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E469" s="2">
         <v>9008</v>
       </c>
       <c r="F469" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
@@ -9883,13 +9883,13 @@
         <v>9010</v>
       </c>
       <c r="D470" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E470" s="1">
         <v>9010</v>
       </c>
       <c r="F470" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
@@ -9903,13 +9903,13 @@
         <v>46</v>
       </c>
       <c r="D471" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E471" s="1">
         <v>46</v>
       </c>
       <c r="F471" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
@@ -9923,13 +9923,13 @@
         <v>73</v>
       </c>
       <c r="D472" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E472" s="1">
         <v>73</v>
       </c>
       <c r="F472" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
@@ -9943,13 +9943,13 @@
         <v>88</v>
       </c>
       <c r="D473" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E473" s="1">
         <v>88</v>
       </c>
       <c r="F473" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
@@ -9963,13 +9963,13 @@
         <v>9001</v>
       </c>
       <c r="D474" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E474" s="1">
         <v>9001</v>
       </c>
       <c r="F474" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.3">
@@ -9983,13 +9983,13 @@
         <v>9008</v>
       </c>
       <c r="D475" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E475" s="2">
         <v>9008</v>
       </c>
       <c r="F475" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
@@ -10003,13 +10003,13 @@
         <v>9010</v>
       </c>
       <c r="D476" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E476" s="1">
         <v>9010</v>
       </c>
       <c r="F476" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.3">
@@ -10023,13 +10023,13 @@
         <v>46</v>
       </c>
       <c r="D477" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E477" s="1">
         <v>46</v>
       </c>
       <c r="F477" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
@@ -10043,13 +10043,13 @@
         <v>73</v>
       </c>
       <c r="D478" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E478" s="1">
         <v>73</v>
       </c>
       <c r="F478" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
@@ -10063,13 +10063,13 @@
         <v>88</v>
       </c>
       <c r="D479" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E479" s="1">
         <v>88</v>
       </c>
       <c r="F479" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.3">
@@ -10083,13 +10083,13 @@
         <v>9001</v>
       </c>
       <c r="D480" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E480" s="1">
         <v>9001</v>
       </c>
       <c r="F480" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.3">
@@ -10103,13 +10103,13 @@
         <v>9008</v>
       </c>
       <c r="D481" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E481" s="2">
         <v>9008</v>
       </c>
       <c r="F481" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
@@ -10123,13 +10123,13 @@
         <v>9010</v>
       </c>
       <c r="D482" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E482" s="1">
         <v>9010</v>
       </c>
       <c r="F482" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
@@ -10143,13 +10143,13 @@
         <v>46</v>
       </c>
       <c r="D483" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E483" s="1">
         <v>46</v>
       </c>
       <c r="F483" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.3">
@@ -10163,13 +10163,13 @@
         <v>73</v>
       </c>
       <c r="D484" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E484" s="1">
         <v>73</v>
       </c>
       <c r="F484" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.3">
@@ -10183,13 +10183,13 @@
         <v>88</v>
       </c>
       <c r="D485" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E485" s="1">
         <v>88</v>
       </c>
       <c r="F485" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.3">
@@ -10203,13 +10203,13 @@
         <v>9001</v>
       </c>
       <c r="D486" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E486" s="1">
         <v>9001</v>
       </c>
       <c r="F486" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
@@ -10223,13 +10223,13 @@
         <v>9008</v>
       </c>
       <c r="D487" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E487" s="2">
         <v>9008</v>
       </c>
       <c r="F487" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.3">
@@ -10243,13 +10243,13 @@
         <v>9010</v>
       </c>
       <c r="D488" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E488" s="1">
         <v>9010</v>
       </c>
       <c r="F488" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.3">
@@ -10263,13 +10263,13 @@
         <v>46</v>
       </c>
       <c r="D489" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E489" s="1">
         <v>46</v>
       </c>
       <c r="F489" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.3">
@@ -10283,13 +10283,13 @@
         <v>73</v>
       </c>
       <c r="D490" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E490" s="1">
         <v>73</v>
       </c>
       <c r="F490" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.3">
@@ -10303,13 +10303,13 @@
         <v>88</v>
       </c>
       <c r="D491" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E491" s="1">
         <v>88</v>
       </c>
       <c r="F491" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.3">
@@ -10323,13 +10323,13 @@
         <v>9001</v>
       </c>
       <c r="D492" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E492" s="1">
         <v>9001</v>
       </c>
       <c r="F492" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.3">
@@ -10343,13 +10343,13 @@
         <v>9008</v>
       </c>
       <c r="D493" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E493" s="2">
         <v>9008</v>
       </c>
       <c r="F493" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.3">
@@ -10363,13 +10363,13 @@
         <v>9010</v>
       </c>
       <c r="D494" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E494" s="1">
         <v>9010</v>
       </c>
       <c r="F494" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.3">
@@ -10383,13 +10383,13 @@
         <v>46</v>
       </c>
       <c r="D495" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E495" s="1">
         <v>46</v>
       </c>
       <c r="F495" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.3">
@@ -10403,13 +10403,13 @@
         <v>73</v>
       </c>
       <c r="D496" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E496" s="1">
         <v>73</v>
       </c>
       <c r="F496" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.3">
@@ -10423,13 +10423,13 @@
         <v>88</v>
       </c>
       <c r="D497" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E497" s="1">
         <v>88</v>
       </c>
       <c r="F497" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.3">
@@ -10443,13 +10443,13 @@
         <v>9001</v>
       </c>
       <c r="D498" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E498" s="1">
         <v>9001</v>
       </c>
       <c r="F498" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.3">
@@ -10463,13 +10463,13 @@
         <v>9008</v>
       </c>
       <c r="D499" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E499" s="2">
         <v>9008</v>
       </c>
       <c r="F499" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.3">
@@ -10483,13 +10483,13 @@
         <v>9010</v>
       </c>
       <c r="D500" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E500" s="1">
         <v>9010</v>
       </c>
       <c r="F500" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.3">
@@ -10503,13 +10503,13 @@
         <v>46</v>
       </c>
       <c r="D501" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E501" s="1">
         <v>46</v>
       </c>
       <c r="F501" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.3">
@@ -10523,13 +10523,13 @@
         <v>73</v>
       </c>
       <c r="D502" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E502" s="1">
         <v>73</v>
       </c>
       <c r="F502" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.3">
@@ -10543,13 +10543,13 @@
         <v>88</v>
       </c>
       <c r="D503" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E503" s="1">
         <v>88</v>
       </c>
       <c r="F503" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.3">
@@ -10563,13 +10563,13 @@
         <v>9001</v>
       </c>
       <c r="D504" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E504" s="1">
         <v>9001</v>
       </c>
       <c r="F504" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.3">
@@ -10583,13 +10583,13 @@
         <v>9008</v>
       </c>
       <c r="D505" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E505" s="2">
         <v>9008</v>
       </c>
       <c r="F505" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.3">
@@ -10603,13 +10603,13 @@
         <v>9010</v>
       </c>
       <c r="D506" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E506" s="1">
         <v>9010</v>
       </c>
       <c r="F506" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.3">
@@ -10623,13 +10623,13 @@
         <v>46</v>
       </c>
       <c r="D507" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E507" s="1">
         <v>46</v>
       </c>
       <c r="F507" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.3">
@@ -10643,13 +10643,13 @@
         <v>73</v>
       </c>
       <c r="D508" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E508" s="1">
         <v>73</v>
       </c>
       <c r="F508" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.3">
@@ -10663,13 +10663,13 @@
         <v>88</v>
       </c>
       <c r="D509" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E509" s="1">
         <v>88</v>
       </c>
       <c r="F509" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.3">
@@ -10683,13 +10683,13 @@
         <v>9001</v>
       </c>
       <c r="D510" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E510" s="1">
         <v>9001</v>
       </c>
       <c r="F510" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.3">
@@ -10703,13 +10703,13 @@
         <v>9008</v>
       </c>
       <c r="D511" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E511" s="2">
         <v>9008</v>
       </c>
       <c r="F511" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.3">
@@ -10723,13 +10723,13 @@
         <v>9010</v>
       </c>
       <c r="D512" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E512" s="1">
         <v>9010</v>
       </c>
       <c r="F512" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.3">
@@ -10743,13 +10743,13 @@
         <v>46</v>
       </c>
       <c r="D513" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E513" s="1">
         <v>46</v>
       </c>
       <c r="F513" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.3">
@@ -10763,13 +10763,13 @@
         <v>73</v>
       </c>
       <c r="D514" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E514" s="1">
         <v>73</v>
       </c>
       <c r="F514" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.3">
@@ -10783,13 +10783,13 @@
         <v>88</v>
       </c>
       <c r="D515" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E515" s="1">
         <v>88</v>
       </c>
       <c r="F515" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.3">
@@ -10803,13 +10803,13 @@
         <v>9001</v>
       </c>
       <c r="D516" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E516" s="1">
         <v>9001</v>
       </c>
       <c r="F516" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.3">
@@ -10823,13 +10823,13 @@
         <v>9008</v>
       </c>
       <c r="D517" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E517" s="2">
         <v>9008</v>
       </c>
       <c r="F517" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.3">
@@ -10843,13 +10843,13 @@
         <v>9010</v>
       </c>
       <c r="D518" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E518" s="1">
         <v>9010</v>
       </c>
       <c r="F518" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.3">
@@ -10863,13 +10863,13 @@
         <v>46</v>
       </c>
       <c r="D519" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E519" s="1">
         <v>46</v>
       </c>
       <c r="F519" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.3">
@@ -10883,13 +10883,13 @@
         <v>73</v>
       </c>
       <c r="D520" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E520" s="1">
         <v>73</v>
       </c>
       <c r="F520" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.3">
@@ -10903,13 +10903,13 @@
         <v>88</v>
       </c>
       <c r="D521" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E521" s="1">
         <v>88</v>
       </c>
       <c r="F521" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.3">
@@ -10923,13 +10923,13 @@
         <v>9001</v>
       </c>
       <c r="D522" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E522" s="1">
         <v>9001</v>
       </c>
       <c r="F522" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.3">
@@ -10943,13 +10943,13 @@
         <v>9008</v>
       </c>
       <c r="D523" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E523" s="2">
         <v>9008</v>
       </c>
       <c r="F523" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.3">
@@ -10963,13 +10963,13 @@
         <v>9010</v>
       </c>
       <c r="D524" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E524" s="1">
         <v>9010</v>
       </c>
       <c r="F524" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.3">
@@ -10983,13 +10983,13 @@
         <v>46</v>
       </c>
       <c r="D525" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E525" s="1">
         <v>46</v>
       </c>
       <c r="F525" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.3">
@@ -11003,13 +11003,13 @@
         <v>73</v>
       </c>
       <c r="D526" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E526" s="1">
         <v>73</v>
       </c>
       <c r="F526" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.3">
@@ -11023,13 +11023,13 @@
         <v>88</v>
       </c>
       <c r="D527" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E527" s="1">
         <v>88</v>
       </c>
       <c r="F527" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.3">
@@ -11043,13 +11043,13 @@
         <v>9001</v>
       </c>
       <c r="D528" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E528" s="1">
         <v>9001</v>
       </c>
       <c r="F528" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.3">
@@ -11063,13 +11063,13 @@
         <v>9008</v>
       </c>
       <c r="D529" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E529" s="2">
         <v>9008</v>
       </c>
       <c r="F529" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.3">
@@ -11083,13 +11083,13 @@
         <v>9010</v>
       </c>
       <c r="D530" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E530" s="1">
         <v>9010</v>
       </c>
       <c r="F530" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.3">
@@ -11103,13 +11103,13 @@
         <v>46</v>
       </c>
       <c r="D531" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E531" s="1">
         <v>46</v>
       </c>
       <c r="F531" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.3">
@@ -11123,13 +11123,13 @@
         <v>73</v>
       </c>
       <c r="D532" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E532" s="1">
         <v>73</v>
       </c>
       <c r="F532" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.3">
@@ -11143,13 +11143,13 @@
         <v>88</v>
       </c>
       <c r="D533" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E533" s="1">
         <v>88</v>
       </c>
       <c r="F533" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.3">
@@ -11163,13 +11163,13 @@
         <v>9001</v>
       </c>
       <c r="D534" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E534" s="1">
         <v>9001</v>
       </c>
       <c r="F534" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.3">
@@ -11183,13 +11183,13 @@
         <v>9008</v>
       </c>
       <c r="D535" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E535" s="2">
         <v>9008</v>
       </c>
       <c r="F535" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.3">
@@ -11203,13 +11203,13 @@
         <v>9010</v>
       </c>
       <c r="D536" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E536" s="1">
         <v>9010</v>
       </c>
       <c r="F536" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.3">
@@ -11223,13 +11223,13 @@
         <v>46</v>
       </c>
       <c r="D537" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E537" s="1">
         <v>46</v>
       </c>
       <c r="F537" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.3">
@@ -11243,13 +11243,13 @@
         <v>73</v>
       </c>
       <c r="D538" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E538" s="1">
         <v>73</v>
       </c>
       <c r="F538" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.3">
@@ -11263,13 +11263,13 @@
         <v>88</v>
       </c>
       <c r="D539" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E539" s="1">
         <v>88</v>
       </c>
       <c r="F539" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.3">
@@ -11283,13 +11283,13 @@
         <v>9001</v>
       </c>
       <c r="D540" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E540" s="1">
         <v>9001</v>
       </c>
       <c r="F540" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.3">
@@ -11303,13 +11303,13 @@
         <v>9008</v>
       </c>
       <c r="D541" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E541" s="2">
         <v>9008</v>
       </c>
       <c r="F541" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.3">
@@ -11323,13 +11323,13 @@
         <v>9010</v>
       </c>
       <c r="D542" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E542" s="1">
         <v>9010</v>
       </c>
       <c r="F542" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.3">
@@ -11343,13 +11343,13 @@
         <v>46</v>
       </c>
       <c r="D543" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E543" s="1">
         <v>46</v>
       </c>
       <c r="F543" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.3">
@@ -11363,13 +11363,13 @@
         <v>73</v>
       </c>
       <c r="D544" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E544" s="1">
         <v>73</v>
       </c>
       <c r="F544" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.3">
@@ -11383,13 +11383,13 @@
         <v>88</v>
       </c>
       <c r="D545" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E545" s="1">
         <v>88</v>
       </c>
       <c r="F545" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.3">
@@ -11403,13 +11403,13 @@
         <v>9001</v>
       </c>
       <c r="D546" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E546" s="1">
         <v>9001</v>
       </c>
       <c r="F546" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.3">
@@ -11423,13 +11423,13 @@
         <v>9008</v>
       </c>
       <c r="D547" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E547" s="2">
         <v>9008</v>
       </c>
       <c r="F547" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.3">
@@ -11443,13 +11443,13 @@
         <v>9010</v>
       </c>
       <c r="D548" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E548" s="1">
         <v>9010</v>
       </c>
       <c r="F548" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.3">
@@ -11463,13 +11463,13 @@
         <v>46</v>
       </c>
       <c r="D549" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E549" s="1">
         <v>46</v>
       </c>
       <c r="F549" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.3">
@@ -11483,13 +11483,13 @@
         <v>73</v>
       </c>
       <c r="D550" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E550" s="1">
         <v>73</v>
       </c>
       <c r="F550" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.3">
@@ -11503,13 +11503,13 @@
         <v>88</v>
       </c>
       <c r="D551" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E551" s="1">
         <v>88</v>
       </c>
       <c r="F551" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.3">
@@ -11523,13 +11523,13 @@
         <v>9001</v>
       </c>
       <c r="D552" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E552" s="1">
         <v>9001</v>
       </c>
       <c r="F552" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.3">
@@ -11543,13 +11543,13 @@
         <v>9008</v>
       </c>
       <c r="D553" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E553" s="2">
         <v>9008</v>
       </c>
       <c r="F553" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.3">
@@ -11563,13 +11563,13 @@
         <v>9010</v>
       </c>
       <c r="D554" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E554" s="1">
         <v>9010</v>
       </c>
       <c r="F554" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.3">
@@ -11583,13 +11583,13 @@
         <v>46</v>
       </c>
       <c r="D555" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E555" s="1">
         <v>46</v>
       </c>
       <c r="F555" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.3">
@@ -11603,13 +11603,13 @@
         <v>73</v>
       </c>
       <c r="D556" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E556" s="1">
         <v>73</v>
       </c>
       <c r="F556" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.3">
@@ -11623,13 +11623,13 @@
         <v>88</v>
       </c>
       <c r="D557" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E557" s="1">
         <v>88</v>
       </c>
       <c r="F557" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.3">
@@ -11643,13 +11643,13 @@
         <v>9001</v>
       </c>
       <c r="D558" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E558" s="1">
         <v>9001</v>
       </c>
       <c r="F558" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.3">
@@ -11663,13 +11663,13 @@
         <v>9008</v>
       </c>
       <c r="D559" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E559" s="2">
         <v>9008</v>
       </c>
       <c r="F559" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.3">
@@ -11683,13 +11683,13 @@
         <v>9010</v>
       </c>
       <c r="D560" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E560" s="1">
         <v>9010</v>
       </c>
       <c r="F560" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
   </sheetData>
